--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9420" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="9420" windowWidth="19560"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -20,9 +20,9 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -41,7 +41,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="605">
   <si>
     <t>target</t>
   </si>
@@ -1848,6 +1848,27 @@
   </si>
   <si>
     <t>$(array|descending|${webElements})</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1881,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="59">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2058,8 +2079,210 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2264,8 +2487,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -2401,324 +2777,746 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="178">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="179">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="9" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="12" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="23" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="25" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="25" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="67">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="10">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="10">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="29" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="33" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2752,7 +3550,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -2774,10 +3572,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2941,21 +3739,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2972,7 +3770,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3025,20 +3823,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AE135"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3931,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +4026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3314,7 +4112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3343,7 +4141,7 @@
         <v>95</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>599</v>
       </c>
       <c r="M4" t="s">
         <v>97</v>
@@ -3379,7 +4177,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>601</v>
       </c>
       <c r="AA4" t="s">
         <v>109</v>
@@ -3397,7 +4195,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3426,7 +4224,7 @@
         <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="N5" t="s">
         <v>122</v>
@@ -3471,7 +4269,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3493,11 +4291,14 @@
       <c r="I6" t="s">
         <v>141</v>
       </c>
+      <c r="J6" t="s">
+        <v>598</v>
+      </c>
       <c r="K6" t="s">
         <v>142</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="N6" t="s">
         <v>143</v>
@@ -3539,7 +4340,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3559,7 +4360,7 @@
         <v>160</v>
       </c>
       <c r="L7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -3601,7 +4402,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +4419,7 @@
         <v>177</v>
       </c>
       <c r="L8" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="N8" t="s">
         <v>179</v>
@@ -3657,7 +4458,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3674,7 +4475,7 @@
         <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="N9" t="s">
         <v>196</v>
@@ -3704,7 +4505,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3718,7 +4519,7 @@
         <v>206</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
         <v>208</v>
@@ -3745,7 +4546,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3759,7 +4560,7 @@
         <v>218</v>
       </c>
       <c r="L11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N11" t="s">
         <v>220</v>
@@ -3783,7 +4584,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3797,7 +4598,7 @@
         <v>229</v>
       </c>
       <c r="L12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N12" t="s">
         <v>231</v>
@@ -3821,7 +4622,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +4636,7 @@
         <v>239</v>
       </c>
       <c r="L13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N13" t="s">
         <v>241</v>
@@ -3856,7 +4657,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3870,7 +4671,7 @@
         <v>249</v>
       </c>
       <c r="L14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -3891,7 +4692,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3902,7 +4703,7 @@
         <v>258</v>
       </c>
       <c r="L15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
         <v>260</v>
@@ -3923,7 +4724,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +4735,7 @@
         <v>267</v>
       </c>
       <c r="L16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N16" t="s">
         <v>269</v>
@@ -3955,7 +4756,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3966,7 +4767,7 @@
         <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N17" t="s">
         <v>278</v>
@@ -3981,7 +4782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3992,7 +4793,7 @@
         <v>283</v>
       </c>
       <c r="L18" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="N18" t="s">
         <v>285</v>
@@ -4004,7 +4805,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4015,7 +4816,7 @@
         <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Z19" t="s">
         <v>291</v>
@@ -4024,7 +4825,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4836,7 @@
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Z20" t="s">
         <v>296</v>
@@ -4044,7 +4845,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4856,7 @@
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Z21" t="s">
         <v>301</v>
@@ -4064,7 +4865,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4075,7 +4876,7 @@
         <v>304</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="Z22" t="s">
         <v>306</v>
@@ -4084,7 +4885,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4095,7 +4896,7 @@
         <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Z23" t="s">
         <v>311</v>
@@ -4104,7 +4905,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4115,7 +4916,7 @@
         <v>314</v>
       </c>
       <c r="L24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Z24" t="s">
         <v>316</v>
@@ -4124,7 +4925,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4135,7 +4936,7 @@
         <v>319</v>
       </c>
       <c r="L25" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Z25" t="s">
         <v>321</v>
@@ -4144,7 +4945,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4155,7 +4956,7 @@
         <v>324</v>
       </c>
       <c r="L26" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Z26" t="s">
         <v>326</v>
@@ -4164,7 +4965,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4175,7 +4976,7 @@
         <v>329</v>
       </c>
       <c r="L27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z27" t="s">
         <v>331</v>
@@ -4184,7 +4985,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4195,13 +4996,13 @@
         <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Z28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4212,13 +5013,13 @@
         <v>338</v>
       </c>
       <c r="L29" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Z29" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4228,11 +5029,14 @@
       <c r="H30" t="s">
         <v>342</v>
       </c>
+      <c r="L30" t="s">
+        <v>339</v>
+      </c>
       <c r="Z30" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4246,7 +5050,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="6:26">
+    <row r="32">
       <c r="F32" t="s">
         <v>347</v>
       </c>
@@ -4257,7 +5061,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="6:26">
+    <row r="33">
       <c r="F33" t="s">
         <v>350</v>
       </c>
@@ -4268,7 +5072,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="6:26">
+    <row r="34">
       <c r="F34" t="s">
         <v>353</v>
       </c>
@@ -4279,7 +5083,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="6:26">
+    <row r="35">
       <c r="F35" t="s">
         <v>356</v>
       </c>
@@ -4290,7 +5094,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="6:26">
+    <row r="36">
       <c r="F36" t="s">
         <v>359</v>
       </c>
@@ -4301,7 +5105,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="6:26">
+    <row r="37">
       <c r="F37" t="s">
         <v>362</v>
       </c>
@@ -4312,7 +5116,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="6:26">
+    <row r="38">
       <c r="F38" t="s">
         <v>365</v>
       </c>
@@ -4323,7 +5127,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="6:26">
+    <row r="39">
       <c r="F39" t="s">
         <v>368</v>
       </c>
@@ -4334,7 +5138,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="8:26">
+    <row r="40">
       <c r="H40" t="s">
         <v>371</v>
       </c>
@@ -4342,7 +5146,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="8:26">
+    <row r="41">
       <c r="H41" t="s">
         <v>373</v>
       </c>
@@ -4350,7 +5154,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="8:26">
+    <row r="42">
       <c r="H42" t="s">
         <v>375</v>
       </c>
@@ -4358,7 +5162,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="8:26">
+    <row r="43">
       <c r="H43" t="s">
         <v>377</v>
       </c>
@@ -4366,7 +5170,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="8:26">
+    <row r="44">
       <c r="H44" t="s">
         <v>379</v>
       </c>
@@ -4374,7 +5178,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="8:26">
+    <row r="45">
       <c r="H45" t="s">
         <v>381</v>
       </c>
@@ -4382,7 +5186,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="8:26">
+    <row r="46">
       <c r="H46" t="s">
         <v>383</v>
       </c>
@@ -4390,7 +5194,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="8:26">
+    <row r="47">
       <c r="H47" t="s">
         <v>385</v>
       </c>
@@ -4398,7 +5202,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="8:26">
+    <row r="48">
       <c r="H48" t="s">
         <v>387</v>
       </c>
@@ -4406,7 +5210,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="49" spans="8:26">
+    <row r="49">
       <c r="H49" t="s">
         <v>389</v>
       </c>
@@ -4414,7 +5218,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="8:26">
+    <row r="50">
       <c r="H50" t="s">
         <v>391</v>
       </c>
@@ -4422,7 +5226,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="8:26">
+    <row r="51">
       <c r="H51" t="s">
         <v>393</v>
       </c>
@@ -4430,7 +5234,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="8:26">
+    <row r="52">
       <c r="H52" t="s">
         <v>395</v>
       </c>
@@ -4438,7 +5242,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="8:26">
+    <row r="53">
       <c r="H53" t="s">
         <v>397</v>
       </c>
@@ -4446,7 +5250,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="8:26">
+    <row r="54">
       <c r="H54" t="s">
         <v>399</v>
       </c>
@@ -4454,7 +5258,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="8:26">
+    <row r="55">
       <c r="H55" t="s">
         <v>401</v>
       </c>
@@ -4462,7 +5266,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="56" spans="8:26">
+    <row r="56">
       <c r="H56" t="s">
         <v>403</v>
       </c>
@@ -4470,7 +5274,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="57" spans="8:26">
+    <row r="57">
       <c r="H57" t="s">
         <v>405</v>
       </c>
@@ -4478,7 +5282,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="8:26">
+    <row r="58">
       <c r="H58" t="s">
         <v>407</v>
       </c>
@@ -4486,7 +5290,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="8:26">
+    <row r="59">
       <c r="H59" t="s">
         <v>409</v>
       </c>
@@ -4494,7 +5298,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="8:26">
+    <row r="60">
       <c r="H60" t="s">
         <v>411</v>
       </c>
@@ -4502,7 +5306,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="61" spans="8:26">
+    <row r="61">
       <c r="H61" t="s">
         <v>413</v>
       </c>
@@ -4510,7 +5314,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="62" spans="8:26">
+    <row r="62">
       <c r="H62" t="s">
         <v>415</v>
       </c>
@@ -4518,7 +5322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="8:26">
+    <row r="63">
       <c r="H63" t="s">
         <v>417</v>
       </c>
@@ -4526,7 +5330,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="8:26">
+    <row r="64">
       <c r="H64" t="s">
         <v>419</v>
       </c>
@@ -4534,7 +5338,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="8:26">
+    <row r="65">
       <c r="H65" t="s">
         <v>421</v>
       </c>
@@ -4542,7 +5346,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="66" spans="8:26">
+    <row r="66">
       <c r="H66" t="s">
         <v>423</v>
       </c>
@@ -4550,7 +5354,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="67" spans="8:26">
+    <row r="67">
       <c r="H67" t="s">
         <v>425</v>
       </c>
@@ -4558,7 +5362,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="68" spans="8:26">
+    <row r="68">
       <c r="H68" t="s">
         <v>427</v>
       </c>
@@ -4566,7 +5370,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="8:26">
+    <row r="69">
       <c r="H69" t="s">
         <v>429</v>
       </c>
@@ -4574,7 +5378,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="70" spans="8:26">
+    <row r="70">
       <c r="H70" t="s">
         <v>431</v>
       </c>
@@ -4582,7 +5386,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="8:26">
+    <row r="71">
       <c r="H71" t="s">
         <v>433</v>
       </c>
@@ -4590,7 +5394,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="8:26">
+    <row r="72">
       <c r="H72" t="s">
         <v>435</v>
       </c>
@@ -4598,7 +5402,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="8:26">
+    <row r="73">
       <c r="H73" t="s">
         <v>437</v>
       </c>
@@ -4606,7 +5410,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="8:26">
+    <row r="74">
       <c r="H74" t="s">
         <v>439</v>
       </c>
@@ -4614,7 +5418,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="75" spans="8:26">
+    <row r="75">
       <c r="H75" t="s">
         <v>441</v>
       </c>
@@ -4622,7 +5426,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="76" spans="8:26">
+    <row r="76">
       <c r="H76" t="s">
         <v>443</v>
       </c>
@@ -4630,7 +5434,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="8:26">
+    <row r="77">
       <c r="H77" t="s">
         <v>445</v>
       </c>
@@ -4638,7 +5442,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="8:26">
+    <row r="78">
       <c r="H78" t="s">
         <v>447</v>
       </c>
@@ -4646,7 +5450,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="8:26">
+    <row r="79">
       <c r="H79" t="s">
         <v>449</v>
       </c>
@@ -4654,7 +5458,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="80" spans="8:26">
+    <row r="80">
       <c r="H80" t="s">
         <v>451</v>
       </c>
@@ -4662,7 +5466,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="81" spans="8:26">
+    <row r="81">
       <c r="H81" t="s">
         <v>453</v>
       </c>
@@ -4670,7 +5474,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="8:26">
+    <row r="82">
       <c r="H82" t="s">
         <v>455</v>
       </c>
@@ -4678,7 +5482,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="8:26">
+    <row r="83">
       <c r="H83" t="s">
         <v>457</v>
       </c>
@@ -4686,7 +5490,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="8:26">
+    <row r="84">
       <c r="H84" t="s">
         <v>459</v>
       </c>
@@ -4694,7 +5498,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="8:26">
+    <row r="85">
       <c r="H85" t="s">
         <v>461</v>
       </c>
@@ -4702,7 +5506,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="86" spans="8:26">
+    <row r="86">
       <c r="H86" t="s">
         <v>463</v>
       </c>
@@ -4710,7 +5514,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="87" spans="8:26">
+    <row r="87">
       <c r="H87" t="s">
         <v>465</v>
       </c>
@@ -4718,7 +5522,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="8:26">
+    <row r="88">
       <c r="H88" t="s">
         <v>467</v>
       </c>
@@ -4726,308 +5530,323 @@
         <v>468</v>
       </c>
     </row>
-    <row r="89" spans="8:26">
+    <row r="89">
       <c r="H89" t="s">
         <v>469</v>
       </c>
       <c r="Z89" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="90" spans="8:26">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>471</v>
       </c>
       <c r="Z90" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="91" spans="8:26">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>473</v>
       </c>
       <c r="Z91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="8:26">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>475</v>
       </c>
       <c r="Z92" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="93" spans="8:26">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>477</v>
       </c>
       <c r="Z93" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="94" spans="8:26">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>479</v>
       </c>
       <c r="Z94" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="8:26">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>481</v>
       </c>
       <c r="Z95" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="96" spans="8:26">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>483</v>
       </c>
       <c r="Z96" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="97" spans="8:26">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>485</v>
       </c>
       <c r="Z97" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="98" spans="8:26">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>487</v>
       </c>
       <c r="Z98" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="99" spans="26:26">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Z101" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="Z102" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="100" spans="26:26">
-      <c r="Z100" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="101" spans="26:26">
-      <c r="Z101" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102" spans="26:26">
-      <c r="Z102" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="103" spans="26:26">
-      <c r="Z103" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="26:26">
-      <c r="Z104" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="105" spans="26:26">
-      <c r="Z105" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="26:26">
-      <c r="Z106" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="107" spans="26:26">
-      <c r="Z107" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="108" spans="26:26">
-      <c r="Z108" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="109" spans="26:26">
-      <c r="Z109" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="110" spans="26:26">
-      <c r="Z110" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="26:26">
-      <c r="Z111" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="112" spans="26:26">
-      <c r="Z112" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="113" spans="26:26">
-      <c r="Z113" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="114" spans="26:26">
-      <c r="Z114" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="26:26">
-      <c r="Z115" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="26:26">
-      <c r="Z116" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="117" spans="26:26">
-      <c r="Z117" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="26:26">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="119" spans="26:26">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="120" spans="26:26">
-      <c r="Z120" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="121" spans="26:26">
-      <c r="Z121" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="122" spans="26:26">
-      <c r="Z122" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="123" spans="26:26">
-      <c r="Z123" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="124" spans="26:26">
-      <c r="Z124" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="125" spans="26:26">
-      <c r="Z125" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="126" spans="26:26">
-      <c r="Z126" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="127" spans="26:26">
-      <c r="Z127" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="128" spans="26:26">
-      <c r="Z128" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="129" spans="26:26">
-      <c r="Z129" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="26:26">
-      <c r="Z130" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="131" spans="26:26">
-      <c r="Z131" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="132" spans="26:26">
-      <c r="Z132" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="133" spans="26:26">
-      <c r="Z133" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="134" spans="26:26">
-      <c r="Z134" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="135" spans="26:26">
-      <c r="Z135" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>525</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="true" topLeftCell="C1" workbookViewId="0" zoomScale="100" zoomScaleNormal="90">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A29" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F30" pane="bottomLeft" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6666666666667" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="55.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="40.625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="5" width="15.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>526</v>
       </c>
@@ -5058,7 +5877,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>533</v>
       </c>
@@ -5079,7 +5898,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="10" r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -5096,7 +5915,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="23" t="s">
         <v>535</v>
       </c>
@@ -5141,7 +5960,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>548</v>
       </c>
@@ -5170,7 +5989,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="6" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24" t="s">
@@ -5195,7 +6014,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="7" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="24" t="s">
@@ -5220,7 +6039,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="8" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24" t="s">
@@ -5245,7 +6064,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="9" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="24" t="s">
@@ -5270,7 +6089,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="10" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="24" t="s">
@@ -5295,7 +6114,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="11" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="24" t="s">
@@ -5320,7 +6139,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="12" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="24" t="s">
@@ -5345,7 +6164,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="13" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="24" t="s">
@@ -5370,7 +6189,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="14" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24" t="s">
@@ -5395,7 +6214,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="15" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="24" t="s">
@@ -5420,7 +6239,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="16" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="24" t="s">
@@ -5445,7 +6264,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="17" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24" t="s">
@@ -5470,7 +6289,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="18" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24" t="s">
@@ -5495,7 +6314,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="19" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="24" t="s">
@@ -5520,7 +6339,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="20" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="24" t="s">
@@ -5545,7 +6364,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="21" spans="1:15">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="24" t="s">
@@ -5570,7 +6389,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="22" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24" t="s">
@@ -5595,7 +6414,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="23" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="24" t="s">
@@ -5620,7 +6439,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="24" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24" t="s">
@@ -5645,7 +6464,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="25" spans="1:15">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="24" t="s">
@@ -5670,7 +6489,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="26" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="24" t="s">
@@ -5695,7 +6514,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="27" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="24" t="s">
@@ -5720,7 +6539,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="28" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="26"/>
       <c r="C28" s="24" t="s">
@@ -5745,7 +6564,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="29" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="24" t="s">
@@ -5768,7 +6587,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" ht="60" spans="1:15">
+    <row ht="60" r="30" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24" t="s">
@@ -5793,7 +6612,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="31" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="24" t="s">
@@ -5816,7 +6635,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="32" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
@@ -5833,7 +6652,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="33" spans="1:15">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="24"/>
@@ -5850,7 +6669,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="34" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="24"/>
@@ -5867,7 +6686,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="35" spans="1:15">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="24"/>
@@ -5884,7 +6703,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="36" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="24"/>
@@ -5901,7 +6720,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="37" spans="1:15">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
@@ -5918,7 +6737,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="38" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="24"/>
@@ -5935,7 +6754,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="39" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="24"/>
@@ -5952,7 +6771,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="40" spans="1:15">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="24"/>
@@ -5969,7 +6788,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="41" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="24"/>
@@ -5986,7 +6805,7 @@
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="42" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="24"/>
@@ -6003,7 +6822,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="43" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="24"/>
@@ -6020,7 +6839,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="21"/>
     </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="44" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="24"/>
@@ -6037,7 +6856,7 @@
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="45" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="24"/>
@@ -6054,7 +6873,7 @@
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="46" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="24"/>
@@ -6071,7 +6890,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="47" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="24"/>
@@ -6088,7 +6907,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="48" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="24"/>
@@ -6105,7 +6924,7 @@
       <c r="N48" s="22"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="49" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="24"/>
@@ -6122,7 +6941,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="50" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="24"/>
@@ -6139,7 +6958,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="51" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="24"/>
@@ -6156,7 +6975,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="21"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="52" spans="1:15">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="24"/>
@@ -6173,7 +6992,7 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="53" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="24"/>
@@ -6190,7 +7009,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="21"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="54" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="24"/>
@@ -6207,7 +7026,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="21"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="55" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="24"/>
@@ -6224,7 +7043,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="56" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="24"/>
@@ -6241,7 +7060,7 @@
       <c r="N56" s="22"/>
       <c r="O56" s="21"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="57" spans="1:15">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="24"/>
@@ -6258,7 +7077,7 @@
       <c r="N57" s="22"/>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="58" spans="1:15">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="24"/>
@@ -6275,7 +7094,7 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="59" spans="1:15">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="24"/>
@@ -6292,7 +7111,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="21"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="60" spans="1:15">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="24"/>
@@ -6309,7 +7128,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="61" spans="1:15">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="24"/>
@@ -6326,7 +7145,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="62" spans="1:15">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="24"/>
@@ -6343,7 +7162,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="21"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="63" spans="1:15">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="24"/>
@@ -6360,7 +7179,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="21"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="64" spans="1:15">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="24"/>
@@ -6377,7 +7196,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="21"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="65" spans="1:15">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="24"/>
@@ -6394,7 +7213,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="21"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="66" spans="1:15">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="24"/>
@@ -6411,7 +7230,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="67" spans="1:15">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
@@ -6428,7 +7247,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="68" spans="1:15">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="24"/>
@@ -6445,7 +7264,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="69" spans="1:15">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="24"/>
@@ -6462,7 +7281,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="70" spans="1:15">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="24"/>
@@ -6479,7 +7298,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="71" spans="1:15">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="24"/>
@@ -6496,7 +7315,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="72" spans="1:15">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="24"/>
@@ -6513,7 +7332,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="73" spans="1:15">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="24"/>
@@ -6530,7 +7349,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="74" spans="1:15">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="24"/>
@@ -6547,7 +7366,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="75" spans="1:15">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="24"/>
@@ -6564,7 +7383,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="76" spans="1:15">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="24"/>
@@ -6581,7 +7400,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="77" spans="1:15">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="24"/>
@@ -6598,7 +7417,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="78" spans="1:15">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="24"/>
@@ -6615,7 +7434,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="79" spans="1:15">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="24"/>
@@ -6632,7 +7451,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="80" spans="1:15">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="24"/>
@@ -6649,7 +7468,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="81" spans="1:15">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="24"/>
@@ -6666,7 +7485,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="82" spans="1:15">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="24"/>
@@ -6683,7 +7502,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="83" spans="1:15">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="24"/>
@@ -6700,7 +7519,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="84" spans="1:15">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="24"/>
@@ -6717,7 +7536,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="85" spans="1:15">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="24"/>
@@ -6734,7 +7553,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="86" spans="1:15">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="24"/>
@@ -6751,7 +7570,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="87" spans="1:15">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="24"/>
@@ -6768,7 +7587,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="88" spans="1:15">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="24"/>
@@ -6785,7 +7604,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="89" spans="1:15">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="24"/>
@@ -6802,7 +7621,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="90" spans="1:15">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="24"/>
@@ -6819,7 +7638,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="91" spans="1:15">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="24"/>
@@ -6836,7 +7655,7 @@
       <c r="N91" s="22"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="92" spans="1:15">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="24"/>
@@ -6853,7 +7672,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="21"/>
     </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="93" spans="1:15">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="24"/>
@@ -6870,7 +7689,7 @@
       <c r="N93" s="22"/>
       <c r="O93" s="21"/>
     </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="94" spans="1:15">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="24"/>
@@ -6887,7 +7706,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="21"/>
     </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="95" spans="1:15">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="24"/>
@@ -6904,7 +7723,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="21"/>
     </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="96" spans="1:15">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="24"/>
@@ -6921,7 +7740,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="97" spans="1:15">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="24"/>
@@ -6938,7 +7757,7 @@
       <c r="N97" s="22"/>
       <c r="O97" s="21"/>
     </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="98" spans="1:15">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="24"/>
@@ -6955,7 +7774,7 @@
       <c r="N98" s="22"/>
       <c r="O98" s="21"/>
     </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="99" spans="1:15">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="24"/>
@@ -6972,7 +7791,7 @@
       <c r="N99" s="22"/>
       <c r="O99" s="21"/>
     </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="100" spans="1:15">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="24"/>
@@ -6989,7 +7808,7 @@
       <c r="N100" s="22"/>
       <c r="O100" s="21"/>
     </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="101" spans="1:15">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="24"/>
@@ -7006,7 +7825,7 @@
       <c r="N101" s="22"/>
       <c r="O101" s="21"/>
     </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="102" spans="1:15">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="24"/>
@@ -7023,7 +7842,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="21"/>
     </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="103" spans="1:15">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="24"/>
@@ -7040,7 +7859,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="21"/>
     </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="104" spans="1:15">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="24"/>
@@ -7057,7 +7876,7 @@
       <c r="N104" s="22"/>
       <c r="O104" s="21"/>
     </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="105" spans="1:15">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
       <c r="C105" s="24"/>
@@ -7074,7 +7893,7 @@
       <c r="N105" s="22"/>
       <c r="O105" s="21"/>
     </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="106" spans="1:15">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
       <c r="C106" s="24"/>
@@ -7091,7 +7910,7 @@
       <c r="N106" s="22"/>
       <c r="O106" s="21"/>
     </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="24"/>
@@ -7108,7 +7927,7 @@
       <c r="N107" s="22"/>
       <c r="O107" s="21"/>
     </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
       <c r="C108" s="24"/>
@@ -7125,7 +7944,7 @@
       <c r="N108" s="22"/>
       <c r="O108" s="21"/>
     </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="24"/>
@@ -7142,7 +7961,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="21"/>
     </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
       <c r="C110" s="24"/>
@@ -7159,7 +7978,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="21"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="24"/>
@@ -7176,7 +7995,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="21"/>
     </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="24"/>
@@ -7193,7 +8012,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="21"/>
     </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="24"/>
@@ -7210,7 +8029,7 @@
       <c r="N113" s="22"/>
       <c r="O113" s="21"/>
     </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="24"/>
@@ -7227,7 +8046,7 @@
       <c r="N114" s="22"/>
       <c r="O114" s="21"/>
     </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="C115" s="24"/>
@@ -7244,7 +8063,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="21"/>
     </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="24"/>
@@ -7261,7 +8080,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="21"/>
     </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="117" spans="1:15">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="24"/>
@@ -7278,7 +8097,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="21"/>
     </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="118" spans="1:15">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="C118" s="24"/>
@@ -7295,7 +8114,7 @@
       <c r="N118" s="22"/>
       <c r="O118" s="21"/>
     </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="119" spans="1:15">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="24"/>
@@ -7312,7 +8131,7 @@
       <c r="N119" s="22"/>
       <c r="O119" s="21"/>
     </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="120" spans="1:15">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="24"/>
@@ -7329,7 +8148,7 @@
       <c r="N120" s="22"/>
       <c r="O120" s="21"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="121" spans="1:15">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="24"/>
@@ -7346,7 +8165,7 @@
       <c r="N121" s="22"/>
       <c r="O121" s="21"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="122" spans="1:15">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="24"/>
@@ -7363,7 +8182,7 @@
       <c r="N122" s="22"/>
       <c r="O122" s="21"/>
     </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="123" spans="1:15">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="24"/>
@@ -7380,7 +8199,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="21"/>
     </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="124" spans="1:15">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="24"/>
@@ -7397,7 +8216,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="21"/>
     </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="125" spans="1:15">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="24"/>
@@ -7414,7 +8233,7 @@
       <c r="N125" s="22"/>
       <c r="O125" s="21"/>
     </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="126" spans="1:15">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="24"/>
@@ -7431,7 +8250,7 @@
       <c r="N126" s="22"/>
       <c r="O126" s="21"/>
     </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="127" spans="1:15">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="24"/>
@@ -7448,7 +8267,7 @@
       <c r="N127" s="22"/>
       <c r="O127" s="21"/>
     </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="128" spans="1:15">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="24"/>
@@ -7465,7 +8284,7 @@
       <c r="N128" s="22"/>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="129" spans="1:15">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="24"/>
@@ -7482,7 +8301,7 @@
       <c r="N129" s="22"/>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="130" spans="1:15">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="24"/>
@@ -7499,7 +8318,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="131" spans="1:15">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="24"/>
@@ -7516,7 +8335,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="132" spans="1:15">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="24"/>
@@ -7533,7 +8352,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="133" spans="1:15">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
       <c r="C133" s="24"/>
@@ -7550,7 +8369,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="134" spans="1:15">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="24"/>
@@ -7567,7 +8386,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="21"/>
     </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="135" spans="1:15">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="C135" s="24"/>
@@ -7584,7 +8403,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="136" spans="1:15">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="24"/>
@@ -7601,7 +8420,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="137" spans="1:15">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="C137" s="24"/>
@@ -7618,7 +8437,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="138" spans="1:15">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="C138" s="24"/>
@@ -7635,7 +8454,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="139" spans="1:15">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="C139" s="24"/>
@@ -7652,7 +8471,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="140" spans="1:15">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="C140" s="24"/>
@@ -7669,7 +8488,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="141" spans="1:15">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
       <c r="C141" s="24"/>
@@ -7686,7 +8505,7 @@
       <c r="N141" s="22"/>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="142" spans="1:15">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
       <c r="C142" s="24"/>
@@ -7703,7 +8522,7 @@
       <c r="N142" s="22"/>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="143" spans="1:15">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
       <c r="C143" s="24"/>
@@ -7720,7 +8539,7 @@
       <c r="N143" s="22"/>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="144" spans="1:15">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
       <c r="C144" s="24"/>
@@ -7737,7 +8556,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="145" spans="1:15">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="24"/>
@@ -7754,7 +8573,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="21"/>
     </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="146" spans="1:15">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="24"/>
@@ -7771,7 +8590,7 @@
       <c r="N146" s="22"/>
       <c r="O146" s="21"/>
     </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="147" spans="1:15">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
       <c r="C147" s="24"/>
@@ -7788,7 +8607,7 @@
       <c r="N147" s="22"/>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="148" spans="1:15">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="24"/>
@@ -7805,7 +8624,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="149" spans="1:15">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="24"/>
@@ -7822,7 +8641,7 @@
       <c r="N149" s="22"/>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="150" spans="1:15">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="24"/>
@@ -7839,7 +8658,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="151" spans="1:15">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
       <c r="C151" s="24"/>
@@ -7856,7 +8675,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="152" spans="1:15">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="24"/>
@@ -7873,7 +8692,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="153" spans="1:15">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="24"/>
@@ -7890,7 +8709,7 @@
       <c r="N153" s="22"/>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="154" spans="1:15">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
       <c r="C154" s="24"/>
@@ -7907,7 +8726,7 @@
       <c r="N154" s="22"/>
       <c r="O154" s="21"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="155" spans="1:15">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
       <c r="C155" s="24"/>
@@ -7924,7 +8743,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="21"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="156" spans="1:15">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
       <c r="C156" s="24"/>
@@ -7941,7 +8760,7 @@
       <c r="N156" s="22"/>
       <c r="O156" s="21"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="157" spans="1:15">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
       <c r="C157" s="24"/>
@@ -7958,7 +8777,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="21"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="158" spans="1:15">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
       <c r="C158" s="24"/>
@@ -7975,7 +8794,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="21"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="159" spans="1:15">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="24"/>
@@ -7992,7 +8811,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="21"/>
     </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="160" spans="1:15">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
       <c r="C160" s="24"/>
@@ -8009,7 +8828,7 @@
       <c r="N160" s="22"/>
       <c r="O160" s="21"/>
     </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="161" spans="1:15">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
       <c r="C161" s="24"/>
@@ -8026,7 +8845,7 @@
       <c r="N161" s="22"/>
       <c r="O161" s="21"/>
     </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="162" spans="1:15">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
       <c r="C162" s="24"/>
@@ -8043,7 +8862,7 @@
       <c r="N162" s="22"/>
       <c r="O162" s="21"/>
     </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="163" spans="1:15">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
       <c r="C163" s="24"/>
@@ -8060,7 +8879,7 @@
       <c r="N163" s="22"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="164" spans="1:15">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
       <c r="C164" s="24"/>
@@ -8077,7 +8896,7 @@
       <c r="N164" s="22"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="165" spans="1:15">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
       <c r="C165" s="24"/>
@@ -8094,7 +8913,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="166" spans="1:15">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
       <c r="C166" s="24"/>
@@ -8111,7 +8930,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="167" spans="1:15">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
       <c r="C167" s="24"/>
@@ -8128,7 +8947,7 @@
       <c r="N167" s="22"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="168" spans="1:15">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="24"/>
@@ -8145,7 +8964,7 @@
       <c r="N168" s="22"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="169" spans="1:15">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
       <c r="C169" s="24"/>
@@ -8162,7 +8981,7 @@
       <c r="N169" s="22"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="170" spans="1:15">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
       <c r="C170" s="24"/>
@@ -8179,7 +8998,7 @@
       <c r="N170" s="22"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="171" spans="1:15">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
       <c r="C171" s="24"/>
@@ -8196,7 +9015,7 @@
       <c r="N171" s="22"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="172" spans="1:15">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="24"/>
@@ -8213,7 +9032,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="173" spans="1:15">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
       <c r="C173" s="24"/>
@@ -8230,7 +9049,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="174" spans="1:15">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="24"/>
@@ -8247,7 +9066,7 @@
       <c r="N174" s="22"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="175" spans="1:15">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="24"/>
@@ -8264,7 +9083,7 @@
       <c r="N175" s="22"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="176" spans="1:15">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="24"/>
@@ -8281,7 +9100,7 @@
       <c r="N176" s="22"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="177" spans="1:15">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
       <c r="C177" s="24"/>
@@ -8298,7 +9117,7 @@
       <c r="N177" s="22"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="178" spans="1:15">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="24"/>
@@ -8315,7 +9134,7 @@
       <c r="N178" s="22"/>
       <c r="O178" s="21"/>
     </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="179" spans="1:15">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
       <c r="C179" s="24"/>
@@ -8332,7 +9151,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="21"/>
     </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="180" spans="1:15">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
       <c r="C180" s="24"/>
@@ -8349,7 +9168,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="21"/>
     </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="181" spans="1:15">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
       <c r="C181" s="24"/>
@@ -8366,7 +9185,7 @@
       <c r="N181" s="22"/>
       <c r="O181" s="21"/>
     </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="182" spans="1:15">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
       <c r="C182" s="24"/>
@@ -8383,7 +9202,7 @@
       <c r="N182" s="22"/>
       <c r="O182" s="21"/>
     </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="183" spans="1:15">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
       <c r="C183" s="24"/>
@@ -8400,7 +9219,7 @@
       <c r="N183" s="22"/>
       <c r="O183" s="21"/>
     </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="184" spans="1:15">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
       <c r="C184" s="24"/>
@@ -8417,7 +9236,7 @@
       <c r="N184" s="22"/>
       <c r="O184" s="21"/>
     </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="185" spans="1:15">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
       <c r="C185" s="24"/>
@@ -8434,7 +9253,7 @@
       <c r="N185" s="22"/>
       <c r="O185" s="21"/>
     </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="186" spans="1:15">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
       <c r="C186" s="24"/>
@@ -8451,7 +9270,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="21"/>
     </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="187" spans="1:15">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
       <c r="C187" s="24"/>
@@ -8468,7 +9287,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="21"/>
     </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="188" spans="1:15">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
       <c r="C188" s="24"/>
@@ -8485,7 +9304,7 @@
       <c r="N188" s="22"/>
       <c r="O188" s="21"/>
     </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="189" spans="1:15">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
       <c r="C189" s="24"/>
@@ -8502,7 +9321,7 @@
       <c r="N189" s="22"/>
       <c r="O189" s="21"/>
     </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="190" spans="1:15">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
       <c r="C190" s="24"/>
@@ -8519,7 +9338,7 @@
       <c r="N190" s="22"/>
       <c r="O190" s="21"/>
     </row>
-    <row r="191" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="191" spans="1:15">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
       <c r="C191" s="24"/>
@@ -8536,7 +9355,7 @@
       <c r="N191" s="22"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="192" spans="1:15">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
       <c r="C192" s="24"/>
@@ -8553,7 +9372,7 @@
       <c r="N192" s="22"/>
       <c r="O192" s="21"/>
     </row>
-    <row r="193" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="193" spans="1:15">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
       <c r="C193" s="24"/>
@@ -8570,7 +9389,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="21"/>
     </row>
-    <row r="194" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="194" spans="1:15">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
       <c r="C194" s="24"/>
@@ -8587,7 +9406,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="21"/>
     </row>
-    <row r="195" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="195" spans="1:15">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="24"/>
@@ -8604,7 +9423,7 @@
       <c r="N195" s="22"/>
       <c r="O195" s="21"/>
     </row>
-    <row r="196" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="196" spans="1:15">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
       <c r="C196" s="24"/>
@@ -8621,7 +9440,7 @@
       <c r="N196" s="22"/>
       <c r="O196" s="21"/>
     </row>
-    <row r="197" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="197" spans="1:15">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
       <c r="C197" s="24"/>
@@ -8638,7 +9457,7 @@
       <c r="N197" s="22"/>
       <c r="O197" s="21"/>
     </row>
-    <row r="198" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="198" spans="1:15">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
       <c r="C198" s="24"/>
@@ -8655,7 +9474,7 @@
       <c r="N198" s="22"/>
       <c r="O198" s="21"/>
     </row>
-    <row r="199" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="199" spans="1:15">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
       <c r="C199" s="24"/>
@@ -8672,7 +9491,7 @@
       <c r="N199" s="22"/>
       <c r="O199" s="21"/>
     </row>
-    <row r="200" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
       <c r="C200" s="24"/>
@@ -8689,7 +9508,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="21"/>
     </row>
-    <row r="201" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="201" spans="1:15">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="24"/>
@@ -8706,7 +9525,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="21"/>
     </row>
-    <row r="202" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="202" spans="1:15">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
       <c r="C202" s="24"/>
@@ -8723,7 +9542,7 @@
       <c r="N202" s="22"/>
       <c r="O202" s="21"/>
     </row>
-    <row r="203" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="203" spans="1:15">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
       <c r="C203" s="24"/>
@@ -8740,7 +9559,7 @@
       <c r="N203" s="22"/>
       <c r="O203" s="21"/>
     </row>
-    <row r="204" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="204" spans="1:15">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
       <c r="C204" s="24"/>
@@ -8757,7 +9576,7 @@
       <c r="N204" s="22"/>
       <c r="O204" s="21"/>
     </row>
-    <row r="205" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="205" spans="1:15">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
       <c r="C205" s="24"/>
@@ -8774,7 +9593,7 @@
       <c r="N205" s="22"/>
       <c r="O205" s="21"/>
     </row>
-    <row r="206" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="206" spans="1:15">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
       <c r="C206" s="24"/>
@@ -8791,7 +9610,7 @@
       <c r="N206" s="22"/>
       <c r="O206" s="21"/>
     </row>
-    <row r="207" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="207" spans="1:15">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
       <c r="C207" s="24"/>
@@ -8808,7 +9627,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="21"/>
     </row>
-    <row r="208" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="208" spans="1:15">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
       <c r="C208" s="24"/>
@@ -8825,7 +9644,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="21"/>
     </row>
-    <row r="209" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="209" spans="1:15">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
       <c r="C209" s="24"/>
@@ -8842,7 +9661,7 @@
       <c r="N209" s="22"/>
       <c r="O209" s="21"/>
     </row>
-    <row r="210" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="210" spans="1:15">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
       <c r="C210" s="24"/>
@@ -8859,7 +9678,7 @@
       <c r="N210" s="22"/>
       <c r="O210" s="21"/>
     </row>
-    <row r="211" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="211" spans="1:15">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
       <c r="C211" s="24"/>
@@ -8876,7 +9695,7 @@
       <c r="N211" s="22"/>
       <c r="O211" s="21"/>
     </row>
-    <row r="212" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="212" spans="1:15">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
       <c r="C212" s="24"/>
@@ -8893,7 +9712,7 @@
       <c r="N212" s="22"/>
       <c r="O212" s="21"/>
     </row>
-    <row r="213" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="213" spans="1:15">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
       <c r="C213" s="24"/>
@@ -8910,7 +9729,7 @@
       <c r="N213" s="22"/>
       <c r="O213" s="21"/>
     </row>
-    <row r="214" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="214" spans="1:15">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
       <c r="C214" s="24"/>
@@ -8927,7 +9746,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="21"/>
     </row>
-    <row r="215" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="215" spans="1:15">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
       <c r="C215" s="24"/>
@@ -8944,7 +9763,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="21"/>
     </row>
-    <row r="216" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="216" spans="1:15">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
       <c r="C216" s="24"/>
@@ -8961,7 +9780,7 @@
       <c r="N216" s="22"/>
       <c r="O216" s="21"/>
     </row>
-    <row r="217" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="217" spans="1:15">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
       <c r="C217" s="24"/>
@@ -8978,7 +9797,7 @@
       <c r="N217" s="22"/>
       <c r="O217" s="21"/>
     </row>
-    <row r="218" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="218" spans="1:15">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
       <c r="C218" s="24"/>
@@ -8995,7 +9814,7 @@
       <c r="N218" s="22"/>
       <c r="O218" s="21"/>
     </row>
-    <row r="219" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="219" spans="1:15">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
       <c r="C219" s="24"/>
@@ -9012,7 +9831,7 @@
       <c r="N219" s="22"/>
       <c r="O219" s="21"/>
     </row>
-    <row r="220" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="220" spans="1:15">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
       <c r="C220" s="24"/>
@@ -9029,7 +9848,7 @@
       <c r="N220" s="22"/>
       <c r="O220" s="21"/>
     </row>
-    <row r="221" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="221" spans="1:15">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
       <c r="C221" s="24"/>
@@ -9046,7 +9865,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="21"/>
     </row>
-    <row r="222" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="222" spans="1:15">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
       <c r="C222" s="24"/>
@@ -9063,7 +9882,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="21"/>
     </row>
-    <row r="223" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="223" spans="1:15">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
       <c r="C223" s="24"/>
@@ -9080,7 +9899,7 @@
       <c r="N223" s="22"/>
       <c r="O223" s="21"/>
     </row>
-    <row r="224" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="224" spans="1:15">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
       <c r="C224" s="24"/>
@@ -9097,7 +9916,7 @@
       <c r="N224" s="22"/>
       <c r="O224" s="21"/>
     </row>
-    <row r="225" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="225" spans="1:15">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
       <c r="C225" s="24"/>
@@ -9114,7 +9933,7 @@
       <c r="N225" s="22"/>
       <c r="O225" s="21"/>
     </row>
-    <row r="226" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="226" spans="1:15">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
       <c r="C226" s="24"/>
@@ -9131,7 +9950,7 @@
       <c r="N226" s="22"/>
       <c r="O226" s="21"/>
     </row>
-    <row r="227" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="227" spans="1:15">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
       <c r="C227" s="24"/>
@@ -9148,7 +9967,7 @@
       <c r="N227" s="22"/>
       <c r="O227" s="21"/>
     </row>
-    <row r="228" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="228" spans="1:15">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
       <c r="C228" s="24"/>
@@ -9165,7 +9984,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="21"/>
     </row>
-    <row r="229" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="229" spans="1:15">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
       <c r="C229" s="24"/>
@@ -9182,7 +10001,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="21"/>
     </row>
-    <row r="230" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="230" spans="1:15">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
       <c r="C230" s="24"/>
@@ -9199,7 +10018,7 @@
       <c r="N230" s="22"/>
       <c r="O230" s="21"/>
     </row>
-    <row r="231" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="231" spans="1:15">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
       <c r="C231" s="24"/>
@@ -9216,7 +10035,7 @@
       <c r="N231" s="22"/>
       <c r="O231" s="21"/>
     </row>
-    <row r="232" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="232" spans="1:15">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
       <c r="C232" s="24"/>
@@ -9233,7 +10052,7 @@
       <c r="N232" s="22"/>
       <c r="O232" s="21"/>
     </row>
-    <row r="233" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="233" spans="1:15">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
       <c r="C233" s="24"/>
@@ -9250,7 +10069,7 @@
       <c r="N233" s="22"/>
       <c r="O233" s="21"/>
     </row>
-    <row r="234" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="234" spans="1:15">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
       <c r="C234" s="24"/>
@@ -9267,7 +10086,7 @@
       <c r="N234" s="22"/>
       <c r="O234" s="21"/>
     </row>
-    <row r="235" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="235" spans="1:15">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
       <c r="C235" s="24"/>
@@ -9284,7 +10103,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="21"/>
     </row>
-    <row r="236" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="236" spans="1:15">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
       <c r="C236" s="24"/>
@@ -9301,7 +10120,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="21"/>
     </row>
-    <row r="237" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="237" spans="1:15">
       <c r="A237" s="18"/>
       <c r="B237" s="19"/>
       <c r="C237" s="24"/>
@@ -9318,7 +10137,7 @@
       <c r="N237" s="22"/>
       <c r="O237" s="21"/>
     </row>
-    <row r="238" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="238" spans="1:15">
       <c r="A238" s="18"/>
       <c r="B238" s="19"/>
       <c r="C238" s="24"/>
@@ -9335,7 +10154,7 @@
       <c r="N238" s="22"/>
       <c r="O238" s="21"/>
     </row>
-    <row r="239" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="239" spans="1:15">
       <c r="A239" s="18"/>
       <c r="B239" s="19"/>
       <c r="C239" s="24"/>
@@ -9352,7 +10171,7 @@
       <c r="N239" s="22"/>
       <c r="O239" s="21"/>
     </row>
-    <row r="240" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="240" spans="1:15">
       <c r="A240" s="18"/>
       <c r="B240" s="19"/>
       <c r="C240" s="24"/>
@@ -9369,7 +10188,7 @@
       <c r="N240" s="22"/>
       <c r="O240" s="21"/>
     </row>
-    <row r="241" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="241" spans="1:15">
       <c r="A241" s="18"/>
       <c r="B241" s="19"/>
       <c r="C241" s="24"/>
@@ -9386,7 +10205,7 @@
       <c r="N241" s="22"/>
       <c r="O241" s="21"/>
     </row>
-    <row r="242" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="242" spans="1:15">
       <c r="A242" s="18"/>
       <c r="B242" s="19"/>
       <c r="C242" s="24"/>
@@ -9403,7 +10222,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="21"/>
     </row>
-    <row r="243" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="243" spans="1:15">
       <c r="A243" s="18"/>
       <c r="B243" s="19"/>
       <c r="C243" s="24"/>
@@ -9420,7 +10239,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="21"/>
     </row>
-    <row r="244" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="244" spans="1:15">
       <c r="A244" s="18"/>
       <c r="B244" s="19"/>
       <c r="C244" s="24"/>
@@ -9437,7 +10256,7 @@
       <c r="N244" s="22"/>
       <c r="O244" s="21"/>
     </row>
-    <row r="245" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="245" spans="1:15">
       <c r="A245" s="18"/>
       <c r="B245" s="19"/>
       <c r="C245" s="24"/>
@@ -9454,7 +10273,7 @@
       <c r="N245" s="22"/>
       <c r="O245" s="21"/>
     </row>
-    <row r="246" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="246" spans="1:15">
       <c r="A246" s="18"/>
       <c r="B246" s="19"/>
       <c r="C246" s="24"/>
@@ -9471,7 +10290,7 @@
       <c r="N246" s="22"/>
       <c r="O246" s="21"/>
     </row>
-    <row r="247" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="247" spans="1:15">
       <c r="A247" s="18"/>
       <c r="B247" s="19"/>
       <c r="C247" s="24"/>
@@ -9488,7 +10307,7 @@
       <c r="N247" s="22"/>
       <c r="O247" s="21"/>
     </row>
-    <row r="248" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="248" spans="1:15">
       <c r="A248" s="18"/>
       <c r="B248" s="19"/>
       <c r="C248" s="24"/>
@@ -9505,7 +10324,7 @@
       <c r="N248" s="22"/>
       <c r="O248" s="21"/>
     </row>
-    <row r="249" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="249" spans="1:15">
       <c r="A249" s="18"/>
       <c r="B249" s="19"/>
       <c r="C249" s="24"/>
@@ -9522,7 +10341,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="21"/>
     </row>
-    <row r="250" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="250" spans="1:15">
       <c r="A250" s="18"/>
       <c r="B250" s="19"/>
       <c r="C250" s="24"/>
@@ -9539,7 +10358,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="21"/>
     </row>
-    <row r="251" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="251" spans="1:15">
       <c r="A251" s="18"/>
       <c r="B251" s="19"/>
       <c r="C251" s="24"/>
@@ -9556,7 +10375,7 @@
       <c r="N251" s="22"/>
       <c r="O251" s="21"/>
     </row>
-    <row r="252" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="252" spans="1:15">
       <c r="A252" s="18"/>
       <c r="B252" s="19"/>
       <c r="C252" s="24"/>
@@ -9573,7 +10392,7 @@
       <c r="N252" s="22"/>
       <c r="O252" s="21"/>
     </row>
-    <row r="253" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="253" spans="1:15">
       <c r="A253" s="18"/>
       <c r="B253" s="19"/>
       <c r="C253" s="24"/>
@@ -9590,7 +10409,7 @@
       <c r="N253" s="22"/>
       <c r="O253" s="21"/>
     </row>
-    <row r="254" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="254" spans="1:15">
       <c r="A254" s="18"/>
       <c r="B254" s="19"/>
       <c r="C254" s="24"/>
@@ -9607,7 +10426,7 @@
       <c r="N254" s="22"/>
       <c r="O254" s="21"/>
     </row>
-    <row r="255" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="255" spans="1:15">
       <c r="A255" s="18"/>
       <c r="B255" s="19"/>
       <c r="C255" s="24"/>
@@ -9624,7 +10443,7 @@
       <c r="N255" s="22"/>
       <c r="O255" s="21"/>
     </row>
-    <row r="256" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="256" spans="1:15">
       <c r="A256" s="18"/>
       <c r="B256" s="19"/>
       <c r="C256" s="24"/>
@@ -9641,7 +10460,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="21"/>
     </row>
-    <row r="257" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="257" spans="1:15">
       <c r="A257" s="18"/>
       <c r="B257" s="19"/>
       <c r="C257" s="24"/>
@@ -9658,7 +10477,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="21"/>
     </row>
-    <row r="258" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="258" spans="1:15">
       <c r="A258" s="18"/>
       <c r="B258" s="19"/>
       <c r="C258" s="24"/>
@@ -9675,7 +10494,7 @@
       <c r="N258" s="22"/>
       <c r="O258" s="21"/>
     </row>
-    <row r="259" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="259" spans="1:15">
       <c r="A259" s="18"/>
       <c r="B259" s="19"/>
       <c r="C259" s="24"/>
@@ -9692,7 +10511,7 @@
       <c r="N259" s="22"/>
       <c r="O259" s="21"/>
     </row>
-    <row r="260" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="260" spans="1:15">
       <c r="A260" s="18"/>
       <c r="B260" s="19"/>
       <c r="C260" s="24"/>
@@ -9709,7 +10528,7 @@
       <c r="N260" s="22"/>
       <c r="O260" s="21"/>
     </row>
-    <row r="261" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="261" spans="1:15">
       <c r="A261" s="18"/>
       <c r="B261" s="19"/>
       <c r="C261" s="24"/>
@@ -9726,7 +10545,7 @@
       <c r="N261" s="22"/>
       <c r="O261" s="21"/>
     </row>
-    <row r="262" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="262" spans="1:15">
       <c r="A262" s="18"/>
       <c r="B262" s="19"/>
       <c r="C262" s="24"/>
@@ -9743,7 +10562,7 @@
       <c r="N262" s="22"/>
       <c r="O262" s="21"/>
     </row>
-    <row r="263" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="263" spans="1:15">
       <c r="A263" s="18"/>
       <c r="B263" s="19"/>
       <c r="C263" s="24"/>
@@ -9760,7 +10579,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="21"/>
     </row>
-    <row r="264" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="264" spans="1:15">
       <c r="A264" s="18"/>
       <c r="B264" s="19"/>
       <c r="C264" s="24"/>
@@ -9777,7 +10596,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="21"/>
     </row>
-    <row r="265" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="265" spans="1:15">
       <c r="A265" s="18"/>
       <c r="B265" s="19"/>
       <c r="C265" s="24"/>
@@ -9794,7 +10613,7 @@
       <c r="N265" s="22"/>
       <c r="O265" s="21"/>
     </row>
-    <row r="266" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="266" spans="1:15">
       <c r="A266" s="18"/>
       <c r="B266" s="19"/>
       <c r="C266" s="24"/>
@@ -9811,7 +10630,7 @@
       <c r="N266" s="22"/>
       <c r="O266" s="21"/>
     </row>
-    <row r="267" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="267" spans="1:15">
       <c r="A267" s="18"/>
       <c r="B267" s="19"/>
       <c r="C267" s="24"/>
@@ -9828,7 +10647,7 @@
       <c r="N267" s="22"/>
       <c r="O267" s="21"/>
     </row>
-    <row r="268" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="268" spans="1:15">
       <c r="A268" s="18"/>
       <c r="B268" s="19"/>
       <c r="C268" s="24"/>
@@ -9845,7 +10664,7 @@
       <c r="N268" s="22"/>
       <c r="O268" s="21"/>
     </row>
-    <row r="269" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="269" spans="1:15">
       <c r="A269" s="18"/>
       <c r="B269" s="19"/>
       <c r="C269" s="24"/>
@@ -9862,7 +10681,7 @@
       <c r="N269" s="22"/>
       <c r="O269" s="21"/>
     </row>
-    <row r="270" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="270" spans="1:15">
       <c r="A270" s="18"/>
       <c r="B270" s="19"/>
       <c r="C270" s="24"/>
@@ -9879,7 +10698,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="21"/>
     </row>
-    <row r="271" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="271" spans="1:15">
       <c r="A271" s="18"/>
       <c r="B271" s="19"/>
       <c r="C271" s="24"/>
@@ -9896,7 +10715,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="21"/>
     </row>
-    <row r="272" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="272" spans="1:15">
       <c r="A272" s="18"/>
       <c r="B272" s="19"/>
       <c r="C272" s="24"/>
@@ -9913,7 +10732,7 @@
       <c r="N272" s="22"/>
       <c r="O272" s="21"/>
     </row>
-    <row r="273" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="273" spans="1:15">
       <c r="A273" s="18"/>
       <c r="B273" s="19"/>
       <c r="C273" s="24"/>
@@ -9930,7 +10749,7 @@
       <c r="N273" s="22"/>
       <c r="O273" s="21"/>
     </row>
-    <row r="274" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="274" spans="1:15">
       <c r="A274" s="18"/>
       <c r="B274" s="19"/>
       <c r="C274" s="24"/>
@@ -9947,7 +10766,7 @@
       <c r="N274" s="22"/>
       <c r="O274" s="21"/>
     </row>
-    <row r="275" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="275" spans="1:15">
       <c r="A275" s="18"/>
       <c r="B275" s="19"/>
       <c r="C275" s="24"/>
@@ -9964,7 +10783,7 @@
       <c r="N275" s="22"/>
       <c r="O275" s="21"/>
     </row>
-    <row r="276" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="276" spans="1:15">
       <c r="A276" s="18"/>
       <c r="B276" s="19"/>
       <c r="C276" s="24"/>
@@ -9981,7 +10800,7 @@
       <c r="N276" s="22"/>
       <c r="O276" s="21"/>
     </row>
-    <row r="277" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="277" spans="1:15">
       <c r="A277" s="18"/>
       <c r="B277" s="19"/>
       <c r="C277" s="24"/>
@@ -9998,7 +10817,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="21"/>
     </row>
-    <row r="278" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="278" spans="1:15">
       <c r="A278" s="18"/>
       <c r="B278" s="19"/>
       <c r="C278" s="24"/>
@@ -10015,7 +10834,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="21"/>
     </row>
-    <row r="279" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="279" spans="1:15">
       <c r="A279" s="18"/>
       <c r="B279" s="19"/>
       <c r="C279" s="24"/>
@@ -10032,7 +10851,7 @@
       <c r="N279" s="22"/>
       <c r="O279" s="21"/>
     </row>
-    <row r="280" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="280" spans="1:15">
       <c r="A280" s="18"/>
       <c r="B280" s="19"/>
       <c r="C280" s="24"/>
@@ -10049,7 +10868,7 @@
       <c r="N280" s="22"/>
       <c r="O280" s="21"/>
     </row>
-    <row r="281" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="281" spans="1:15">
       <c r="A281" s="18"/>
       <c r="B281" s="19"/>
       <c r="C281" s="24"/>
@@ -10066,7 +10885,7 @@
       <c r="N281" s="22"/>
       <c r="O281" s="21"/>
     </row>
-    <row r="282" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="282" spans="1:15">
       <c r="A282" s="18"/>
       <c r="B282" s="19"/>
       <c r="C282" s="24"/>
@@ -10083,7 +10902,7 @@
       <c r="N282" s="22"/>
       <c r="O282" s="21"/>
     </row>
-    <row r="283" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="283" spans="1:15">
       <c r="A283" s="18"/>
       <c r="B283" s="19"/>
       <c r="C283" s="24"/>
@@ -10100,7 +10919,7 @@
       <c r="N283" s="22"/>
       <c r="O283" s="21"/>
     </row>
-    <row r="284" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="284" spans="1:15">
       <c r="A284" s="18"/>
       <c r="B284" s="19"/>
       <c r="C284" s="24"/>
@@ -10117,7 +10936,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="21"/>
     </row>
-    <row r="285" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="285" spans="1:15">
       <c r="A285" s="18"/>
       <c r="B285" s="19"/>
       <c r="C285" s="24"/>
@@ -10134,7 +10953,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="21"/>
     </row>
-    <row r="286" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="286" spans="1:15">
       <c r="A286" s="18"/>
       <c r="B286" s="19"/>
       <c r="C286" s="24"/>
@@ -10151,7 +10970,7 @@
       <c r="N286" s="22"/>
       <c r="O286" s="21"/>
     </row>
-    <row r="287" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="287" spans="1:15">
       <c r="A287" s="18"/>
       <c r="B287" s="19"/>
       <c r="C287" s="24"/>
@@ -10168,7 +10987,7 @@
       <c r="N287" s="22"/>
       <c r="O287" s="21"/>
     </row>
-    <row r="288" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="288" spans="1:15">
       <c r="A288" s="18"/>
       <c r="B288" s="19"/>
       <c r="C288" s="24"/>
@@ -10185,7 +11004,7 @@
       <c r="N288" s="22"/>
       <c r="O288" s="21"/>
     </row>
-    <row r="289" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="289" spans="1:15">
       <c r="A289" s="18"/>
       <c r="B289" s="19"/>
       <c r="C289" s="24"/>
@@ -10202,7 +11021,7 @@
       <c r="N289" s="22"/>
       <c r="O289" s="21"/>
     </row>
-    <row r="290" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="290" spans="1:15">
       <c r="A290" s="18"/>
       <c r="B290" s="19"/>
       <c r="C290" s="24"/>
@@ -10219,7 +11038,7 @@
       <c r="N290" s="22"/>
       <c r="O290" s="21"/>
     </row>
-    <row r="291" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="291" spans="1:15">
       <c r="A291" s="18"/>
       <c r="B291" s="19"/>
       <c r="C291" s="24"/>
@@ -10236,7 +11055,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="21"/>
     </row>
-    <row r="292" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="292" spans="1:15">
       <c r="A292" s="18"/>
       <c r="B292" s="19"/>
       <c r="C292" s="24"/>
@@ -10253,7 +11072,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="21"/>
     </row>
-    <row r="293" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="293" spans="1:15">
       <c r="A293" s="18"/>
       <c r="B293" s="19"/>
       <c r="C293" s="24"/>
@@ -10270,7 +11089,7 @@
       <c r="N293" s="22"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="294" spans="1:15">
       <c r="A294" s="18"/>
       <c r="B294" s="19"/>
       <c r="C294" s="24"/>
@@ -10287,7 +11106,7 @@
       <c r="N294" s="22"/>
       <c r="O294" s="21"/>
     </row>
-    <row r="295" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="295" spans="1:15">
       <c r="A295" s="18"/>
       <c r="B295" s="19"/>
       <c r="C295" s="24"/>
@@ -10304,7 +11123,7 @@
       <c r="N295" s="22"/>
       <c r="O295" s="21"/>
     </row>
-    <row r="296" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="296" spans="1:15">
       <c r="A296" s="18"/>
       <c r="B296" s="19"/>
       <c r="C296" s="24"/>
@@ -10321,7 +11140,7 @@
       <c r="N296" s="22"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="297" spans="1:15">
       <c r="A297" s="18"/>
       <c r="B297" s="19"/>
       <c r="C297" s="24"/>
@@ -10338,7 +11157,7 @@
       <c r="N297" s="22"/>
       <c r="O297" s="21"/>
     </row>
-    <row r="298" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="298" spans="1:15">
       <c r="A298" s="18"/>
       <c r="B298" s="19"/>
       <c r="C298" s="24"/>
@@ -10355,7 +11174,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="21"/>
     </row>
-    <row r="299" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="299" spans="1:15">
       <c r="A299" s="18"/>
       <c r="B299" s="19"/>
       <c r="C299" s="24"/>
@@ -10372,7 +11191,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="21"/>
     </row>
-    <row r="300" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="300" spans="1:15">
       <c r="A300" s="18"/>
       <c r="B300" s="19"/>
       <c r="C300" s="24"/>
@@ -10390,7 +11209,7 @@
       <c r="O300" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10398,36 +11217,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C16 C5:C14 C17:C29 C30:C31 C32:C33 C34:C35 C36:C300">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15 C16 C5:C14 C17:C29 C30:C31 C32:C33 C34:C35 C36:C300" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D5:D14 D17:D29 D30:D31 D32:D33 D34:D35 D36:D300">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D15 D16 D5:D14 D17:D29 D30:D31 D32:D33 D34:D35 D36:D300" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="605">
   <si>
     <t>target</t>
   </si>
@@ -1881,7 +1881,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="75">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2078,6 +2078,107 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3249,7 +3350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3418,52 +3519,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -19,7 +19,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -32,7 +32,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -41,9 +41,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="615">
   <si>
     <t>target</t>
   </si>
@@ -1869,6 +1869,36 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1911,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="75">
+  <fonts count="91">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2078,6 +2108,107 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3350,7 +3481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3567,52 +3698,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3974,7 +4153,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4406,7 +4585,7 @@
         <v>131</v>
       </c>
       <c r="AB5" t="s">
-        <v>132</v>
+        <v>613</v>
       </c>
       <c r="AC5" t="s">
         <v>133</v>
@@ -4477,7 +4656,7 @@
         <v>151</v>
       </c>
       <c r="AB6" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="AC6" t="s">
         <v>153</v>
@@ -4539,7 +4718,7 @@
         <v>169</v>
       </c>
       <c r="AB7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="AC7" t="s">
         <v>171</v>
@@ -4595,7 +4774,7 @@
         <v>186</v>
       </c>
       <c r="AB8" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="AC8" t="s">
         <v>188</v>
@@ -4647,6 +4826,9 @@
       <c r="Z9" t="s">
         <v>202</v>
       </c>
+      <c r="AB9" t="s">
+        <v>187</v>
+      </c>
       <c r="AC9" t="s">
         <v>203</v>
       </c>
@@ -4665,7 +4847,7 @@
         <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>206</v>
+        <v>605</v>
       </c>
       <c r="L10" t="s">
         <v>195</v>
@@ -4687,6 +4869,9 @@
       </c>
       <c r="Z10" t="s">
         <v>213</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>614</v>
       </c>
       <c r="AC10" t="s">
         <v>214</v>
@@ -4706,7 +4891,7 @@
         <v>217</v>
       </c>
       <c r="I11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
         <v>207</v>
@@ -4744,7 +4929,7 @@
         <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L12" t="s">
         <v>219</v>
@@ -4782,7 +4967,7 @@
         <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L13" t="s">
         <v>230</v>
@@ -4794,7 +4979,7 @@
         <v>242</v>
       </c>
       <c r="S13" t="s">
-        <v>243</v>
+        <v>606</v>
       </c>
       <c r="Z13" t="s">
         <v>244</v>
@@ -4817,7 +5002,7 @@
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L14" t="s">
         <v>240</v>
@@ -4829,7 +5014,7 @@
         <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="Z14" t="s">
         <v>254</v>
@@ -4851,6 +5036,9 @@
       <c r="H15" t="s">
         <v>258</v>
       </c>
+      <c r="I15" t="s">
+        <v>249</v>
+      </c>
       <c r="L15" t="s">
         <v>250</v>
       </c>
@@ -4861,10 +5049,10 @@
         <v>261</v>
       </c>
       <c r="S15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Z15" t="s">
-        <v>263</v>
+        <v>607</v>
       </c>
       <c r="AC15" t="s">
         <v>264</v>
@@ -4893,10 +5081,10 @@
         <v>270</v>
       </c>
       <c r="S16" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="Z16" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AC16" t="s">
         <v>273</v>
@@ -4921,8 +5109,11 @@
       <c r="N17" t="s">
         <v>278</v>
       </c>
+      <c r="S17" t="s">
+        <v>271</v>
+      </c>
       <c r="Z17" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AC17" t="s">
         <v>280</v>
@@ -4948,7 +5139,7 @@
         <v>285</v>
       </c>
       <c r="Z18" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AE18" t="s">
         <v>287</v>
@@ -4968,7 +5159,7 @@
         <v>284</v>
       </c>
       <c r="Z19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AE19" t="s">
         <v>292</v>
@@ -4988,7 +5179,7 @@
         <v>290</v>
       </c>
       <c r="Z20" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AE20" t="s">
         <v>297</v>
@@ -5008,7 +5199,7 @@
         <v>295</v>
       </c>
       <c r="Z21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AE21" t="s">
         <v>302</v>
@@ -5028,7 +5219,7 @@
         <v>600</v>
       </c>
       <c r="Z22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="s">
         <v>307</v>
@@ -5048,7 +5239,7 @@
         <v>305</v>
       </c>
       <c r="Z23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AE23" t="s">
         <v>312</v>
@@ -5068,7 +5259,7 @@
         <v>310</v>
       </c>
       <c r="Z24" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AE24" t="s">
         <v>317</v>
@@ -5088,7 +5279,7 @@
         <v>315</v>
       </c>
       <c r="Z25" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AE25" t="s">
         <v>322</v>
@@ -5108,7 +5299,7 @@
         <v>320</v>
       </c>
       <c r="Z26" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AE26" t="s">
         <v>327</v>
@@ -5128,7 +5319,7 @@
         <v>325</v>
       </c>
       <c r="Z27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AE27" t="s">
         <v>332</v>
@@ -5148,7 +5339,7 @@
         <v>330</v>
       </c>
       <c r="Z28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29">
@@ -5165,7 +5356,7 @@
         <v>335</v>
       </c>
       <c r="Z29" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
@@ -5182,7 +5373,7 @@
         <v>339</v>
       </c>
       <c r="Z30" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31">
@@ -5196,7 +5387,7 @@
         <v>345</v>
       </c>
       <c r="Z31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32">
@@ -5207,7 +5398,7 @@
         <v>348</v>
       </c>
       <c r="Z32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33">
@@ -5218,7 +5409,7 @@
         <v>351</v>
       </c>
       <c r="Z33" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34">
@@ -5229,7 +5420,7 @@
         <v>354</v>
       </c>
       <c r="Z34" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35">
@@ -5240,7 +5431,7 @@
         <v>357</v>
       </c>
       <c r="Z35" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36">
@@ -5251,7 +5442,7 @@
         <v>360</v>
       </c>
       <c r="Z36" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37">
@@ -5262,7 +5453,7 @@
         <v>363</v>
       </c>
       <c r="Z37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
@@ -5273,7 +5464,7 @@
         <v>366</v>
       </c>
       <c r="Z38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39">
@@ -5284,7 +5475,7 @@
         <v>369</v>
       </c>
       <c r="Z39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40">
@@ -5292,7 +5483,7 @@
         <v>371</v>
       </c>
       <c r="Z40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
@@ -5300,7 +5491,7 @@
         <v>373</v>
       </c>
       <c r="Z41" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42">
@@ -5308,7 +5499,7 @@
         <v>375</v>
       </c>
       <c r="Z42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -5316,7 +5507,7 @@
         <v>377</v>
       </c>
       <c r="Z43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
@@ -5324,7 +5515,7 @@
         <v>379</v>
       </c>
       <c r="Z44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
@@ -5332,7 +5523,7 @@
         <v>381</v>
       </c>
       <c r="Z45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -5340,7 +5531,7 @@
         <v>383</v>
       </c>
       <c r="Z46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47">
@@ -5348,7 +5539,7 @@
         <v>385</v>
       </c>
       <c r="Z47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -5356,7 +5547,7 @@
         <v>387</v>
       </c>
       <c r="Z48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
@@ -5364,7 +5555,7 @@
         <v>389</v>
       </c>
       <c r="Z49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
@@ -5372,7 +5563,7 @@
         <v>391</v>
       </c>
       <c r="Z50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
@@ -5380,7 +5571,7 @@
         <v>393</v>
       </c>
       <c r="Z51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52">
@@ -5388,7 +5579,7 @@
         <v>395</v>
       </c>
       <c r="Z52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53">
@@ -5396,7 +5587,7 @@
         <v>397</v>
       </c>
       <c r="Z53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
@@ -5404,7 +5595,7 @@
         <v>399</v>
       </c>
       <c r="Z54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
@@ -5412,7 +5603,7 @@
         <v>401</v>
       </c>
       <c r="Z55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56">
@@ -5420,7 +5611,7 @@
         <v>403</v>
       </c>
       <c r="Z56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57">
@@ -5428,7 +5619,7 @@
         <v>405</v>
       </c>
       <c r="Z57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
@@ -5436,7 +5627,7 @@
         <v>407</v>
       </c>
       <c r="Z58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59">
@@ -5444,7 +5635,7 @@
         <v>409</v>
       </c>
       <c r="Z59" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
@@ -5452,7 +5643,7 @@
         <v>411</v>
       </c>
       <c r="Z60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
@@ -5460,7 +5651,7 @@
         <v>413</v>
       </c>
       <c r="Z61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62">
@@ -5468,7 +5659,7 @@
         <v>415</v>
       </c>
       <c r="Z62" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -5476,7 +5667,7 @@
         <v>417</v>
       </c>
       <c r="Z63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64">
@@ -5484,7 +5675,7 @@
         <v>419</v>
       </c>
       <c r="Z64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65">
@@ -5492,7 +5683,7 @@
         <v>421</v>
       </c>
       <c r="Z65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
@@ -5500,7 +5691,7 @@
         <v>423</v>
       </c>
       <c r="Z66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
@@ -5508,7 +5699,7 @@
         <v>425</v>
       </c>
       <c r="Z67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68">
@@ -5516,7 +5707,7 @@
         <v>427</v>
       </c>
       <c r="Z68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69">
@@ -5524,7 +5715,7 @@
         <v>429</v>
       </c>
       <c r="Z69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70">
@@ -5532,7 +5723,7 @@
         <v>431</v>
       </c>
       <c r="Z70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71">
@@ -5540,7 +5731,7 @@
         <v>433</v>
       </c>
       <c r="Z71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72">
@@ -5548,7 +5739,7 @@
         <v>435</v>
       </c>
       <c r="Z72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73">
@@ -5556,7 +5747,7 @@
         <v>437</v>
       </c>
       <c r="Z73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
@@ -5564,7 +5755,7 @@
         <v>439</v>
       </c>
       <c r="Z74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
@@ -5572,7 +5763,7 @@
         <v>441</v>
       </c>
       <c r="Z75" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
@@ -5580,7 +5771,7 @@
         <v>443</v>
       </c>
       <c r="Z76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77">
@@ -5588,7 +5779,7 @@
         <v>445</v>
       </c>
       <c r="Z77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78">
@@ -5596,7 +5787,7 @@
         <v>447</v>
       </c>
       <c r="Z78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79">
@@ -5604,7 +5795,7 @@
         <v>449</v>
       </c>
       <c r="Z79" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
@@ -5612,7 +5803,7 @@
         <v>451</v>
       </c>
       <c r="Z80" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81">
@@ -5620,7 +5811,7 @@
         <v>453</v>
       </c>
       <c r="Z81" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -5628,7 +5819,7 @@
         <v>455</v>
       </c>
       <c r="Z82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
@@ -5636,7 +5827,7 @@
         <v>457</v>
       </c>
       <c r="Z83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -5644,7 +5835,7 @@
         <v>459</v>
       </c>
       <c r="Z84" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
@@ -5652,7 +5843,7 @@
         <v>461</v>
       </c>
       <c r="Z85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86">
@@ -5660,7 +5851,7 @@
         <v>463</v>
       </c>
       <c r="Z86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -5668,7 +5859,7 @@
         <v>465</v>
       </c>
       <c r="Z87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88">
@@ -5676,7 +5867,7 @@
         <v>467</v>
       </c>
       <c r="Z88" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -5684,7 +5875,7 @@
         <v>469</v>
       </c>
       <c r="Z89" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90">
@@ -5692,7 +5883,7 @@
         <v>471</v>
       </c>
       <c r="Z90" t="s">
-        <v>470</v>
+        <v>602</v>
       </c>
     </row>
     <row r="91">
@@ -5700,7 +5891,7 @@
         <v>473</v>
       </c>
       <c r="Z91" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92">
@@ -5708,7 +5899,7 @@
         <v>475</v>
       </c>
       <c r="Z92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93">
@@ -5716,7 +5907,7 @@
         <v>477</v>
       </c>
       <c r="Z93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94">
@@ -5724,7 +5915,7 @@
         <v>479</v>
       </c>
       <c r="Z94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95">
@@ -5732,7 +5923,7 @@
         <v>481</v>
       </c>
       <c r="Z95" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96">
@@ -5740,7 +5931,7 @@
         <v>483</v>
       </c>
       <c r="Z96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97">
@@ -5748,7 +5939,7 @@
         <v>485</v>
       </c>
       <c r="Z97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98">
@@ -5756,206 +5947,236 @@
         <v>487</v>
       </c>
       <c r="Z98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>603</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>489</v>
+        <v>604</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>496</v>
+        <v>608</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>506</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>509</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>516</v>
+        <v>611</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>525</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -19,7 +19,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="617">
   <si>
     <t>target</t>
   </si>
@@ -1899,6 +1899,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1917,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="91">
+  <fonts count="107">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2108,6 +2114,107 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3481,7 +3588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3746,52 +3853,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4847,7 +5002,7 @@
         <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="L10" t="s">
         <v>195</v>
@@ -4891,7 +5046,7 @@
         <v>217</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>616</v>
       </c>
       <c r="L11" t="s">
         <v>207</v>
@@ -4929,7 +5084,7 @@
         <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L12" t="s">
         <v>219</v>
@@ -4967,7 +5122,7 @@
         <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L13" t="s">
         <v>230</v>
@@ -5002,7 +5157,7 @@
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L14" t="s">
         <v>240</v>
@@ -5037,7 +5192,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L15" t="s">
         <v>250</v>
@@ -5070,6 +5225,9 @@
       </c>
       <c r="H16" t="s">
         <v>267</v>
+      </c>
+      <c r="I16" t="s">
+        <v>249</v>
       </c>
       <c r="L16" t="s">
         <v>259</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -21,7 +21,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -39,22 +39,23 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3543" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="626">
   <si>
     <t>target</t>
   </si>
@@ -1905,6 +1906,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1917,7 +1945,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="107">
+  <fonts count="139">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2114,6 +2142,208 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3588,7 +3818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -3901,52 +4131,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4308,7 +4634,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4396,21 +4722,24 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4446,7 +4775,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>624</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -4491,21 +4820,24 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
+        <v>619</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4577,21 +4909,24 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4660,21 +4995,24 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA4" t="s">
         <v>601</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>110</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4734,21 +5072,24 @@
         <v>129</v>
       </c>
       <c r="Z5" t="s">
+        <v>622</v>
+      </c>
+      <c r="AA5" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>613</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>133</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4778,7 +5119,7 @@
         <v>598</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>625</v>
       </c>
       <c r="L6" t="s">
         <v>121</v>
@@ -4805,21 +5146,24 @@
         <v>149</v>
       </c>
       <c r="Z6" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA6" t="s">
         <v>150</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>153</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4840,7 +5184,7 @@
         <v>159</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -4866,22 +5210,22 @@
       <c r="X7" t="s">
         <v>167</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>168</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>169</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>152</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>171</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>172</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4901,6 +5245,9 @@
       <c r="I8" t="s">
         <v>177</v>
       </c>
+      <c r="K8" t="s">
+        <v>160</v>
+      </c>
       <c r="L8" t="s">
         <v>161</v>
       </c>
@@ -4922,22 +5269,22 @@
       <c r="X8" t="s">
         <v>184</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>185</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>170</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>188</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>189</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4978,16 +5325,16 @@
       <c r="X9" t="s">
         <v>201</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>203</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5022,16 +5369,16 @@
       <c r="U10" t="s">
         <v>212</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>213</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>614</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>214</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5063,13 +5410,13 @@
       <c r="S11" t="s">
         <v>223</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>224</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>225</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5101,13 +5448,13 @@
       <c r="S12" t="s">
         <v>234</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>235</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>236</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5136,13 +5483,13 @@
       <c r="S13" t="s">
         <v>606</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>244</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>245</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5171,13 +5518,13 @@
       <c r="S14" t="s">
         <v>243</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>254</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>255</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5206,13 +5553,13 @@
       <c r="S15" t="s">
         <v>253</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>607</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>264</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5241,13 +5588,13 @@
       <c r="S16" t="s">
         <v>262</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>263</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>273</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5270,13 +5617,13 @@
       <c r="S17" t="s">
         <v>271</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>272</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>280</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5296,10 +5643,10 @@
       <c r="N18" t="s">
         <v>285</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>279</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5316,10 +5663,10 @@
       <c r="L19" t="s">
         <v>284</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>286</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5336,10 +5683,10 @@
       <c r="L20" t="s">
         <v>290</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>291</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5356,10 +5703,10 @@
       <c r="L21" t="s">
         <v>295</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>296</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5376,10 +5723,10 @@
       <c r="L22" t="s">
         <v>600</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>301</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5396,10 +5743,10 @@
       <c r="L23" t="s">
         <v>305</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>306</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5416,10 +5763,10 @@
       <c r="L24" t="s">
         <v>310</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>311</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5436,16 +5783,16 @@
       <c r="L25" t="s">
         <v>315</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>316</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>617</v>
       </c>
       <c r="F26" t="s">
         <v>323</v>
@@ -5456,16 +5803,16 @@
       <c r="L26" t="s">
         <v>320</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>321</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>328</v>
@@ -5476,16 +5823,16 @@
       <c r="L27" t="s">
         <v>325</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>326</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>333</v>
@@ -5496,13 +5843,13 @@
       <c r="L28" t="s">
         <v>330</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>337</v>
@@ -5513,13 +5860,13 @@
       <c r="L29" t="s">
         <v>335</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>341</v>
@@ -5530,13 +5877,13 @@
       <c r="L30" t="s">
         <v>339</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>344</v>
@@ -5544,18 +5891,21 @@
       <c r="H31" t="s">
         <v>345</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s">
         <v>347</v>
       </c>
       <c r="H32" t="s">
         <v>348</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5566,7 +5916,7 @@
       <c r="H33" t="s">
         <v>351</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5577,7 +5927,7 @@
       <c r="H34" t="s">
         <v>354</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5588,7 +5938,7 @@
       <c r="H35" t="s">
         <v>357</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5599,7 +5949,7 @@
       <c r="H36" t="s">
         <v>360</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5610,7 +5960,7 @@
       <c r="H37" t="s">
         <v>363</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5621,7 +5971,7 @@
       <c r="H38" t="s">
         <v>366</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5632,7 +5982,7 @@
       <c r="H39" t="s">
         <v>369</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5640,7 +5990,7 @@
       <c r="H40" t="s">
         <v>371</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5648,7 +5998,7 @@
       <c r="H41" t="s">
         <v>373</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5656,7 +6006,7 @@
       <c r="H42" t="s">
         <v>375</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5664,7 +6014,7 @@
       <c r="H43" t="s">
         <v>377</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5672,7 +6022,7 @@
       <c r="H44" t="s">
         <v>379</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5680,7 +6030,7 @@
       <c r="H45" t="s">
         <v>381</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5688,7 +6038,7 @@
       <c r="H46" t="s">
         <v>383</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5696,7 +6046,7 @@
       <c r="H47" t="s">
         <v>385</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5704,7 +6054,7 @@
       <c r="H48" t="s">
         <v>387</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5712,7 +6062,7 @@
       <c r="H49" t="s">
         <v>389</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>388</v>
       </c>
     </row>
@@ -5720,7 +6070,7 @@
       <c r="H50" t="s">
         <v>391</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>390</v>
       </c>
     </row>
@@ -5728,7 +6078,7 @@
       <c r="H51" t="s">
         <v>393</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5736,7 +6086,7 @@
       <c r="H52" t="s">
         <v>395</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5744,7 +6094,7 @@
       <c r="H53" t="s">
         <v>397</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>396</v>
       </c>
     </row>
@@ -5752,7 +6102,7 @@
       <c r="H54" t="s">
         <v>399</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>398</v>
       </c>
     </row>
@@ -5760,7 +6110,7 @@
       <c r="H55" t="s">
         <v>401</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5768,7 +6118,7 @@
       <c r="H56" t="s">
         <v>403</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>402</v>
       </c>
     </row>
@@ -5776,7 +6126,7 @@
       <c r="H57" t="s">
         <v>405</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5784,7 +6134,7 @@
       <c r="H58" t="s">
         <v>407</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5792,7 +6142,7 @@
       <c r="H59" t="s">
         <v>409</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5800,7 +6150,7 @@
       <c r="H60" t="s">
         <v>411</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>410</v>
       </c>
     </row>
@@ -5808,7 +6158,7 @@
       <c r="H61" t="s">
         <v>413</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5816,7 +6166,7 @@
       <c r="H62" t="s">
         <v>415</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>414</v>
       </c>
     </row>
@@ -5824,7 +6174,7 @@
       <c r="H63" t="s">
         <v>417</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5832,7 +6182,7 @@
       <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5840,7 +6190,7 @@
       <c r="H65" t="s">
         <v>421</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5848,7 +6198,7 @@
       <c r="H66" t="s">
         <v>423</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5856,7 +6206,7 @@
       <c r="H67" t="s">
         <v>425</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5864,7 +6214,7 @@
       <c r="H68" t="s">
         <v>427</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>426</v>
       </c>
     </row>
@@ -5872,7 +6222,7 @@
       <c r="H69" t="s">
         <v>429</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5880,7 +6230,7 @@
       <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5888,7 +6238,7 @@
       <c r="H71" t="s">
         <v>433</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>432</v>
       </c>
     </row>
@@ -5896,7 +6246,7 @@
       <c r="H72" t="s">
         <v>435</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5904,7 +6254,7 @@
       <c r="H73" t="s">
         <v>437</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5912,7 +6262,7 @@
       <c r="H74" t="s">
         <v>439</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5920,7 +6270,7 @@
       <c r="H75" t="s">
         <v>441</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5928,7 +6278,7 @@
       <c r="H76" t="s">
         <v>443</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>442</v>
       </c>
     </row>
@@ -5936,7 +6286,7 @@
       <c r="H77" t="s">
         <v>445</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5944,7 +6294,7 @@
       <c r="H78" t="s">
         <v>447</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>446</v>
       </c>
     </row>
@@ -5952,7 +6302,7 @@
       <c r="H79" t="s">
         <v>449</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5960,7 +6310,7 @@
       <c r="H80" t="s">
         <v>451</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>450</v>
       </c>
     </row>
@@ -5968,7 +6318,7 @@
       <c r="H81" t="s">
         <v>453</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5976,7 +6326,7 @@
       <c r="H82" t="s">
         <v>455</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>454</v>
       </c>
     </row>
@@ -5984,7 +6334,7 @@
       <c r="H83" t="s">
         <v>457</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5992,7 +6342,7 @@
       <c r="H84" t="s">
         <v>459</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6000,7 +6350,7 @@
       <c r="H85" t="s">
         <v>461</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6008,7 +6358,7 @@
       <c r="H86" t="s">
         <v>463</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6016,7 +6366,7 @@
       <c r="H87" t="s">
         <v>465</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6024,7 +6374,7 @@
       <c r="H88" t="s">
         <v>467</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6032,7 +6382,7 @@
       <c r="H89" t="s">
         <v>469</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6040,7 +6390,7 @@
       <c r="H90" t="s">
         <v>471</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>602</v>
       </c>
     </row>
@@ -6048,7 +6398,7 @@
       <c r="H91" t="s">
         <v>473</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>470</v>
       </c>
     </row>
@@ -6056,7 +6406,7 @@
       <c r="H92" t="s">
         <v>475</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>472</v>
       </c>
     </row>
@@ -6064,7 +6414,7 @@
       <c r="H93" t="s">
         <v>477</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6072,7 +6422,7 @@
       <c r="H94" t="s">
         <v>479</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>476</v>
       </c>
     </row>
@@ -6080,7 +6430,7 @@
       <c r="H95" t="s">
         <v>481</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6088,7 +6438,7 @@
       <c r="H96" t="s">
         <v>483</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6096,7 +6446,7 @@
       <c r="H97" t="s">
         <v>485</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6104,237 +6454,237 @@
       <c r="H98" t="s">
         <v>487</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>525</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -25,7 +25,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -33,7 +33,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -41,7 +41,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
@@ -49,13 +49,14 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="636">
   <si>
     <t>target</t>
   </si>
@@ -1933,6 +1934,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1945,7 +1976,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="139">
+  <fonts count="155">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2142,6 +2173,107 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
     </font>
     <font>
       <name val="Tahoma"/>
@@ -3818,7 +3950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="163">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4227,52 +4359,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4634,7 +4814,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4722,7 +4902,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -4802,7 +4982,7 @@
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>628</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
@@ -4820,7 +5000,7 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="AA2" t="s">
         <v>55</v>
@@ -4894,7 +5074,7 @@
         <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>629</v>
       </c>
       <c r="U3" t="s">
         <v>78</v>
@@ -4909,7 +5089,7 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="AA3" t="s">
         <v>82</v>
@@ -4980,7 +5160,7 @@
         <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
         <v>104</v>
@@ -4995,7 +5175,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="AA4" t="s">
         <v>601</v>
@@ -5060,7 +5240,7 @@
         <v>125</v>
       </c>
       <c r="T5" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>127</v>
@@ -5070,9 +5250,6 @@
       </c>
       <c r="X5" t="s">
         <v>129</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>622</v>
       </c>
       <c r="AA5" t="s">
         <v>130</v>
@@ -5137,16 +5314,13 @@
         <v>146</v>
       </c>
       <c r="T6" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
         <v>148</v>
       </c>
       <c r="X6" t="s">
         <v>149</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>623</v>
       </c>
       <c r="AA6" t="s">
         <v>150</v>
@@ -5202,7 +5376,7 @@
         <v>164</v>
       </c>
       <c r="T7" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="U7" t="s">
         <v>166</v>
@@ -5263,6 +5437,9 @@
       <c r="S8" t="s">
         <v>182</v>
       </c>
+      <c r="T8" t="s">
+        <v>147</v>
+      </c>
       <c r="U8" t="s">
         <v>183</v>
       </c>
@@ -5319,6 +5496,9 @@
       <c r="S9" t="s">
         <v>199</v>
       </c>
+      <c r="T9" t="s">
+        <v>165</v>
+      </c>
       <c r="U9" t="s">
         <v>200</v>
       </c>
@@ -5440,7 +5620,7 @@
         <v>231</v>
       </c>
       <c r="O12" t="s">
-        <v>232</v>
+        <v>627</v>
       </c>
       <c r="R12" t="s">
         <v>233</v>
@@ -5477,6 +5657,9 @@
       <c r="N13" t="s">
         <v>241</v>
       </c>
+      <c r="O13" t="s">
+        <v>232</v>
+      </c>
       <c r="R13" t="s">
         <v>242</v>
       </c>
@@ -5554,7 +5737,7 @@
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="AD15" t="s">
         <v>264</v>
@@ -5589,7 +5772,7 @@
         <v>262</v>
       </c>
       <c r="AA16" t="s">
-        <v>263</v>
+        <v>607</v>
       </c>
       <c r="AD16" t="s">
         <v>273</v>
@@ -5618,7 +5801,7 @@
         <v>271</v>
       </c>
       <c r="AA17" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AD17" t="s">
         <v>280</v>
@@ -5644,7 +5827,7 @@
         <v>285</v>
       </c>
       <c r="AA18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AF18" t="s">
         <v>287</v>
@@ -5664,7 +5847,7 @@
         <v>284</v>
       </c>
       <c r="AA19" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF19" t="s">
         <v>292</v>
@@ -5684,7 +5867,7 @@
         <v>290</v>
       </c>
       <c r="AA20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF20" t="s">
         <v>297</v>
@@ -5704,7 +5887,7 @@
         <v>295</v>
       </c>
       <c r="AA21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF21" t="s">
         <v>302</v>
@@ -5724,7 +5907,7 @@
         <v>600</v>
       </c>
       <c r="AA22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AF22" t="s">
         <v>307</v>
@@ -5744,7 +5927,7 @@
         <v>305</v>
       </c>
       <c r="AA23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF23" t="s">
         <v>312</v>
@@ -5764,7 +5947,7 @@
         <v>310</v>
       </c>
       <c r="AA24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AF24" t="s">
         <v>317</v>
@@ -5784,7 +5967,7 @@
         <v>315</v>
       </c>
       <c r="AA25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AF25" t="s">
         <v>322</v>
@@ -5792,7 +5975,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="F26" t="s">
         <v>323</v>
@@ -5804,7 +5987,7 @@
         <v>320</v>
       </c>
       <c r="AA26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AF26" t="s">
         <v>327</v>
@@ -5824,7 +6007,7 @@
         <v>325</v>
       </c>
       <c r="AA27" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF27" t="s">
         <v>332</v>
@@ -5844,7 +6027,7 @@
         <v>330</v>
       </c>
       <c r="AA28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">
@@ -5861,7 +6044,7 @@
         <v>335</v>
       </c>
       <c r="AA29" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30">
@@ -5878,7 +6061,7 @@
         <v>339</v>
       </c>
       <c r="AA30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31">
@@ -5892,7 +6075,7 @@
         <v>345</v>
       </c>
       <c r="AA31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32">
@@ -5906,7 +6089,7 @@
         <v>348</v>
       </c>
       <c r="AA32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
@@ -5917,7 +6100,7 @@
         <v>351</v>
       </c>
       <c r="AA33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34">
@@ -5928,7 +6111,7 @@
         <v>354</v>
       </c>
       <c r="AA34" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
@@ -5939,7 +6122,7 @@
         <v>357</v>
       </c>
       <c r="AA35" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
@@ -5950,7 +6133,7 @@
         <v>360</v>
       </c>
       <c r="AA36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
@@ -5961,7 +6144,7 @@
         <v>363</v>
       </c>
       <c r="AA37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
@@ -5972,7 +6155,7 @@
         <v>366</v>
       </c>
       <c r="AA38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39">
@@ -5983,7 +6166,7 @@
         <v>369</v>
       </c>
       <c r="AA39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40">
@@ -5991,7 +6174,7 @@
         <v>371</v>
       </c>
       <c r="AA40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
@@ -5999,7 +6182,7 @@
         <v>373</v>
       </c>
       <c r="AA41" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
@@ -6007,7 +6190,7 @@
         <v>375</v>
       </c>
       <c r="AA42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43">
@@ -6015,7 +6198,7 @@
         <v>377</v>
       </c>
       <c r="AA43" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
@@ -6023,7 +6206,7 @@
         <v>379</v>
       </c>
       <c r="AA44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
@@ -6031,7 +6214,7 @@
         <v>381</v>
       </c>
       <c r="AA45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46">
@@ -6039,7 +6222,7 @@
         <v>383</v>
       </c>
       <c r="AA46" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47">
@@ -6047,7 +6230,7 @@
         <v>385</v>
       </c>
       <c r="AA47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48">
@@ -6055,7 +6238,7 @@
         <v>387</v>
       </c>
       <c r="AA48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
@@ -6063,7 +6246,7 @@
         <v>389</v>
       </c>
       <c r="AA49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50">
@@ -6071,7 +6254,7 @@
         <v>391</v>
       </c>
       <c r="AA50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
@@ -6079,7 +6262,7 @@
         <v>393</v>
       </c>
       <c r="AA51" t="s">
-        <v>392</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52">
@@ -6087,7 +6270,7 @@
         <v>395</v>
       </c>
       <c r="AA52" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
@@ -6095,7 +6278,7 @@
         <v>397</v>
       </c>
       <c r="AA53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54">
@@ -6103,7 +6286,7 @@
         <v>399</v>
       </c>
       <c r="AA54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55">
@@ -6111,7 +6294,7 @@
         <v>401</v>
       </c>
       <c r="AA55" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56">
@@ -6119,7 +6302,7 @@
         <v>403</v>
       </c>
       <c r="AA56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57">
@@ -6127,7 +6310,7 @@
         <v>405</v>
       </c>
       <c r="AA57" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58">
@@ -6135,7 +6318,7 @@
         <v>407</v>
       </c>
       <c r="AA58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59">
@@ -6143,7 +6326,7 @@
         <v>409</v>
       </c>
       <c r="AA59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60">
@@ -6151,7 +6334,7 @@
         <v>411</v>
       </c>
       <c r="AA60" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61">
@@ -6159,7 +6342,7 @@
         <v>413</v>
       </c>
       <c r="AA61" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
@@ -6167,7 +6350,7 @@
         <v>415</v>
       </c>
       <c r="AA62" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63">
@@ -6175,7 +6358,7 @@
         <v>417</v>
       </c>
       <c r="AA63" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="64">
@@ -6183,7 +6366,7 @@
         <v>419</v>
       </c>
       <c r="AA64" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65">
@@ -6191,7 +6374,7 @@
         <v>421</v>
       </c>
       <c r="AA65" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66">
@@ -6199,7 +6382,7 @@
         <v>423</v>
       </c>
       <c r="AA66" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67">
@@ -6207,7 +6390,7 @@
         <v>425</v>
       </c>
       <c r="AA67" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68">
@@ -6215,7 +6398,7 @@
         <v>427</v>
       </c>
       <c r="AA68" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69">
@@ -6223,7 +6406,7 @@
         <v>429</v>
       </c>
       <c r="AA69" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70">
@@ -6231,7 +6414,7 @@
         <v>431</v>
       </c>
       <c r="AA70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71">
@@ -6239,7 +6422,7 @@
         <v>433</v>
       </c>
       <c r="AA71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72">
@@ -6247,7 +6430,7 @@
         <v>435</v>
       </c>
       <c r="AA72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73">
@@ -6255,7 +6438,7 @@
         <v>437</v>
       </c>
       <c r="AA73" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74">
@@ -6263,7 +6446,7 @@
         <v>439</v>
       </c>
       <c r="AA74" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75">
@@ -6271,7 +6454,7 @@
         <v>441</v>
       </c>
       <c r="AA75" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76">
@@ -6279,7 +6462,7 @@
         <v>443</v>
       </c>
       <c r="AA76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="77">
@@ -6287,7 +6470,7 @@
         <v>445</v>
       </c>
       <c r="AA77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78">
@@ -6295,7 +6478,7 @@
         <v>447</v>
       </c>
       <c r="AA78" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79">
@@ -6303,7 +6486,7 @@
         <v>449</v>
       </c>
       <c r="AA79" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80">
@@ -6311,7 +6494,7 @@
         <v>451</v>
       </c>
       <c r="AA80" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81">
@@ -6319,7 +6502,7 @@
         <v>453</v>
       </c>
       <c r="AA81" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="82">
@@ -6327,7 +6510,7 @@
         <v>455</v>
       </c>
       <c r="AA82" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83">
@@ -6335,7 +6518,7 @@
         <v>457</v>
       </c>
       <c r="AA83" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84">
@@ -6343,7 +6526,7 @@
         <v>459</v>
       </c>
       <c r="AA84" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85">
@@ -6351,7 +6534,7 @@
         <v>461</v>
       </c>
       <c r="AA85" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86">
@@ -6359,7 +6542,7 @@
         <v>463</v>
       </c>
       <c r="AA86" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87">
@@ -6367,7 +6550,7 @@
         <v>465</v>
       </c>
       <c r="AA87" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88">
@@ -6375,7 +6558,7 @@
         <v>467</v>
       </c>
       <c r="AA88" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="89">
@@ -6383,7 +6566,7 @@
         <v>469</v>
       </c>
       <c r="AA89" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90">
@@ -6391,7 +6574,7 @@
         <v>471</v>
       </c>
       <c r="AA90" t="s">
-        <v>602</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91">
@@ -6399,7 +6582,7 @@
         <v>473</v>
       </c>
       <c r="AA91" t="s">
-        <v>470</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92">
@@ -6407,7 +6590,7 @@
         <v>475</v>
       </c>
       <c r="AA92" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="93">
@@ -6415,7 +6598,7 @@
         <v>477</v>
       </c>
       <c r="AA93" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94">
@@ -6423,7 +6606,7 @@
         <v>479</v>
       </c>
       <c r="AA94" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="95">
@@ -6431,7 +6614,7 @@
         <v>481</v>
       </c>
       <c r="AA95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96">
@@ -6439,7 +6622,7 @@
         <v>483</v>
       </c>
       <c r="AA96" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97">
@@ -6447,7 +6630,7 @@
         <v>485</v>
       </c>
       <c r="AA97" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98">
@@ -6455,236 +6638,241 @@
         <v>487</v>
       </c>
       <c r="AA98" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>603</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>489</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>608</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>495</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>609</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>504</v>
+        <v>609</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>610</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>506</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>611</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>512</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>516</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>523</v>
+        <v>612</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>525</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -14,7 +14,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -22,7 +22,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -32,23 +32,23 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5300" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="686">
   <si>
     <t>target</t>
   </si>
@@ -1964,6 +1964,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2126,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="155">
+  <fonts count="189">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2935,6 +3085,220 @@
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
       <u val="none"/>
     </font>
     <font>
@@ -3950,7 +4314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4407,52 +4771,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="37" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="37" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="40" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="40" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="43" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="43" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="46" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="46" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="52" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="43" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="55" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="52" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="43" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="55" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="157" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="158" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="161" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4814,7 +5280,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4905,21 +5371,24 @@
         <v>626</v>
       </c>
       <c r="AA1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5003,21 +5472,24 @@
         <v>630</v>
       </c>
       <c r="AA2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB2" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5092,21 +5564,24 @@
         <v>631</v>
       </c>
       <c r="AA3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB3" t="s">
         <v>82</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>84</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5178,21 +5653,24 @@
         <v>632</v>
       </c>
       <c r="AA4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB4" t="s">
         <v>601</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>109</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>110</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>111</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5252,21 +5730,24 @@
         <v>129</v>
       </c>
       <c r="AA5" t="s">
+        <v>646</v>
+      </c>
+      <c r="AB5" t="s">
         <v>130</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>131</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>613</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>134</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5323,21 +5804,24 @@
         <v>149</v>
       </c>
       <c r="AA6" t="s">
+        <v>647</v>
+      </c>
+      <c r="AB6" t="s">
         <v>150</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>151</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>153</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>154</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5385,21 +5869,24 @@
         <v>167</v>
       </c>
       <c r="AA7" t="s">
+        <v>648</v>
+      </c>
+      <c r="AB7" t="s">
         <v>168</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>169</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>152</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>171</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>172</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5447,21 +5934,24 @@
         <v>184</v>
       </c>
       <c r="AA8" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB8" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>189</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5506,15 +5996,18 @@
         <v>201</v>
       </c>
       <c r="AA9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB9" t="s">
         <v>202</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>203</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5550,15 +6043,18 @@
         <v>212</v>
       </c>
       <c r="AA10" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB10" t="s">
         <v>213</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>614</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>214</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5588,15 +6084,18 @@
         <v>222</v>
       </c>
       <c r="S11" t="s">
-        <v>223</v>
+        <v>642</v>
       </c>
       <c r="AA11" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB11" t="s">
         <v>224</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>225</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5626,15 +6125,18 @@
         <v>233</v>
       </c>
       <c r="S12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AA12" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB12" t="s">
         <v>235</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>236</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5664,15 +6166,18 @@
         <v>242</v>
       </c>
       <c r="S13" t="s">
-        <v>606</v>
+        <v>234</v>
       </c>
       <c r="AA13" t="s">
+        <v>654</v>
+      </c>
+      <c r="AB13" t="s">
         <v>244</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>245</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5699,15 +6204,18 @@
         <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>243</v>
+        <v>606</v>
       </c>
       <c r="AA14" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB14" t="s">
         <v>254</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>255</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5734,15 +6242,18 @@
         <v>261</v>
       </c>
       <c r="S15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AA15" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB15" t="s">
         <v>633</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>264</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5769,15 +6280,18 @@
         <v>270</v>
       </c>
       <c r="S16" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA16" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB16" t="s">
         <v>607</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>273</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5798,15 +6312,18 @@
         <v>278</v>
       </c>
       <c r="S17" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA17" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB17" t="s">
         <v>263</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>280</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5826,10 +6343,16 @@
       <c r="N18" t="s">
         <v>285</v>
       </c>
+      <c r="S18" t="s">
+        <v>271</v>
+      </c>
       <c r="AA18" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB18" t="s">
         <v>272</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5838,7 +6361,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>636</v>
       </c>
       <c r="H19" t="s">
         <v>289</v>
@@ -5847,9 +6370,12 @@
         <v>284</v>
       </c>
       <c r="AA19" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB19" t="s">
         <v>279</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5858,7 +6384,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>637</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -5867,9 +6393,12 @@
         <v>290</v>
       </c>
       <c r="AA20" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB20" t="s">
         <v>286</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5878,7 +6407,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>298</v>
+        <v>638</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -5887,9 +6416,12 @@
         <v>295</v>
       </c>
       <c r="AA21" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB21" t="s">
         <v>291</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5898,7 +6430,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="H22" t="s">
         <v>304</v>
@@ -5907,9 +6439,12 @@
         <v>600</v>
       </c>
       <c r="AA22" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB22" t="s">
         <v>296</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5918,7 +6453,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="H23" t="s">
         <v>309</v>
@@ -5927,9 +6462,12 @@
         <v>305</v>
       </c>
       <c r="AA23" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB23" t="s">
         <v>301</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5938,7 +6476,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
         <v>314</v>
@@ -5947,9 +6485,12 @@
         <v>310</v>
       </c>
       <c r="AA24" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB24" t="s">
         <v>306</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5958,7 +6499,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>639</v>
       </c>
       <c r="H25" t="s">
         <v>319</v>
@@ -5967,9 +6508,12 @@
         <v>315</v>
       </c>
       <c r="AA25" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB25" t="s">
         <v>311</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5978,234 +6522,294 @@
         <v>626</v>
       </c>
       <c r="F26" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
         <v>324</v>
       </c>
       <c r="L26" t="s">
-        <v>320</v>
+        <v>641</v>
       </c>
       <c r="AA26" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB26" t="s">
         <v>316</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>617</v>
       </c>
       <c r="F27" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s">
         <v>329</v>
       </c>
       <c r="L27" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AA27" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB27" t="s">
         <v>321</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="H28" t="s">
         <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AA28" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>338</v>
       </c>
       <c r="L29" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA29" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB29" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="H30" t="s">
         <v>342</v>
       </c>
       <c r="L30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA30" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB30" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="H31" t="s">
         <v>345</v>
       </c>
+      <c r="L31" t="s">
+        <v>339</v>
+      </c>
       <c r="AA31" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB31" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H32" t="s">
         <v>348</v>
       </c>
       <c r="AA32" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB32" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
       <c r="F33" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="H33" t="s">
         <v>351</v>
       </c>
       <c r="AA33" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB33" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="H34" t="s">
         <v>354</v>
       </c>
       <c r="AA34" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB34" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="H35" t="s">
         <v>357</v>
       </c>
       <c r="AA35" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB35" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H36" t="s">
         <v>360</v>
       </c>
       <c r="AA36" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB36" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="H37" t="s">
         <v>363</v>
       </c>
       <c r="AA37" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB37" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="H38" t="s">
         <v>366</v>
       </c>
       <c r="AA38" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB38" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H39" t="s">
         <v>369</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>359</v>
+      </c>
       <c r="H40" t="s">
         <v>371</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
       <c r="H41" t="s">
         <v>373</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
       <c r="H42" t="s">
         <v>375</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>368</v>
+      </c>
       <c r="H43" t="s">
         <v>377</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>640</v>
+      </c>
       <c r="H44" t="s">
         <v>379</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6213,7 +6817,7 @@
       <c r="H45" t="s">
         <v>381</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6221,7 +6825,7 @@
       <c r="H46" t="s">
         <v>383</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6229,7 +6833,7 @@
       <c r="H47" t="s">
         <v>385</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6237,7 +6841,7 @@
       <c r="H48" t="s">
         <v>387</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6245,7 +6849,7 @@
       <c r="H49" t="s">
         <v>389</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6253,7 +6857,7 @@
       <c r="H50" t="s">
         <v>391</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6261,7 +6865,7 @@
       <c r="H51" t="s">
         <v>393</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>634</v>
       </c>
     </row>
@@ -6269,7 +6873,7 @@
       <c r="H52" t="s">
         <v>395</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6277,7 +6881,7 @@
       <c r="H53" t="s">
         <v>397</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6285,7 +6889,7 @@
       <c r="H54" t="s">
         <v>399</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6293,7 +6897,7 @@
       <c r="H55" t="s">
         <v>401</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6301,7 +6905,7 @@
       <c r="H56" t="s">
         <v>403</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6309,7 +6913,7 @@
       <c r="H57" t="s">
         <v>405</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6317,7 +6921,7 @@
       <c r="H58" t="s">
         <v>407</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6325,7 +6929,7 @@
       <c r="H59" t="s">
         <v>409</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6333,7 +6937,7 @@
       <c r="H60" t="s">
         <v>411</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6341,7 +6945,7 @@
       <c r="H61" t="s">
         <v>413</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6349,7 +6953,7 @@
       <c r="H62" t="s">
         <v>415</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6357,7 +6961,7 @@
       <c r="H63" t="s">
         <v>417</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6365,7 +6969,7 @@
       <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6373,7 +6977,7 @@
       <c r="H65" t="s">
         <v>421</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6381,7 +6985,7 @@
       <c r="H66" t="s">
         <v>423</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6389,7 +6993,7 @@
       <c r="H67" t="s">
         <v>425</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6397,7 +7001,7 @@
       <c r="H68" t="s">
         <v>427</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6405,7 +7009,7 @@
       <c r="H69" t="s">
         <v>429</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6413,7 +7017,7 @@
       <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6421,7 +7025,7 @@
       <c r="H71" t="s">
         <v>433</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6429,7 +7033,7 @@
       <c r="H72" t="s">
         <v>435</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6437,7 +7041,7 @@
       <c r="H73" t="s">
         <v>437</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6445,7 +7049,7 @@
       <c r="H74" t="s">
         <v>439</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6453,7 +7057,7 @@
       <c r="H75" t="s">
         <v>441</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6461,7 +7065,7 @@
       <c r="H76" t="s">
         <v>443</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6469,7 +7073,7 @@
       <c r="H77" t="s">
         <v>445</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6477,7 +7081,7 @@
       <c r="H78" t="s">
         <v>447</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>444</v>
       </c>
     </row>
@@ -6485,395 +7089,425 @@
       <c r="H79" t="s">
         <v>449</v>
       </c>
-      <c r="AA79" t="s">
-        <v>446</v>
+      <c r="AB79" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>451</v>
       </c>
-      <c r="AA80" t="s">
-        <v>448</v>
+      <c r="AB80" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>453</v>
       </c>
-      <c r="AA81" t="s">
-        <v>450</v>
+      <c r="AB81" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>455</v>
       </c>
-      <c r="AA82" t="s">
-        <v>452</v>
+      <c r="AB82" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>457</v>
       </c>
-      <c r="AA83" t="s">
-        <v>454</v>
+      <c r="AB83" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>459</v>
       </c>
-      <c r="AA84" t="s">
-        <v>456</v>
+      <c r="AB84" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>461</v>
       </c>
-      <c r="AA85" t="s">
-        <v>458</v>
+      <c r="AB85" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>463</v>
       </c>
-      <c r="AA86" t="s">
-        <v>460</v>
+      <c r="AB86" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>465</v>
       </c>
-      <c r="AA87" t="s">
-        <v>462</v>
+      <c r="AB87" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>467</v>
       </c>
-      <c r="AA88" t="s">
-        <v>464</v>
+      <c r="AB88" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>469</v>
       </c>
-      <c r="AA89" t="s">
-        <v>466</v>
+      <c r="AB89" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>471</v>
       </c>
-      <c r="AA90" t="s">
-        <v>468</v>
+      <c r="AB90" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>473</v>
       </c>
-      <c r="AA91" t="s">
-        <v>602</v>
+      <c r="AB91" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>475</v>
       </c>
-      <c r="AA92" t="s">
-        <v>470</v>
+      <c r="AB92" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>477</v>
       </c>
-      <c r="AA93" t="s">
-        <v>472</v>
+      <c r="AB93" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>479</v>
       </c>
-      <c r="AA94" t="s">
-        <v>474</v>
+      <c r="AB94" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>481</v>
       </c>
-      <c r="AA95" t="s">
-        <v>476</v>
+      <c r="AB95" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>483</v>
       </c>
-      <c r="AA96" t="s">
-        <v>478</v>
+      <c r="AB96" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>485</v>
       </c>
-      <c r="AA97" t="s">
-        <v>480</v>
+      <c r="AB97" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>487</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>497</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>525</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -14,13 +14,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -39,14 +39,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6578" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="688">
   <si>
     <t>target</t>
   </si>
@@ -2114,6 +2114,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2132,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="189">
+  <fonts count="206">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3085,6 +3091,113 @@
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
       <u val="none"/>
     </font>
     <font>
@@ -4314,7 +4427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -4870,55 +4983,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="175" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="178" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="185" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="186" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="187" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5280,7 +5444,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5371,24 +5535,21 @@
         <v>626</v>
       </c>
       <c r="AA1" t="s">
-        <v>617</v>
+        <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5421,7 +5582,7 @@
         <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>687</v>
       </c>
       <c r="K2" t="s">
         <v>624</v>
@@ -5472,24 +5633,21 @@
         <v>630</v>
       </c>
       <c r="AA2" t="s">
-        <v>643</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5519,7 +5677,7 @@
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>69</v>
@@ -5564,24 +5722,21 @@
         <v>631</v>
       </c>
       <c r="AA3" t="s">
-        <v>644</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5608,7 +5763,7 @@
         <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>95</v>
@@ -5653,24 +5808,21 @@
         <v>632</v>
       </c>
       <c r="AA4" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="AB4" t="s">
-        <v>601</v>
+        <v>109</v>
       </c>
       <c r="AC4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="AF4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5697,7 +5849,7 @@
         <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
         <v>120</v>
@@ -5730,24 +5882,21 @@
         <v>129</v>
       </c>
       <c r="AA5" t="s">
-        <v>646</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC5" t="s">
-        <v>131</v>
+        <v>613</v>
       </c>
       <c r="AD5" t="s">
-        <v>613</v>
+        <v>133</v>
       </c>
       <c r="AE5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5774,7 +5923,7 @@
         <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>598</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
         <v>625</v>
@@ -5804,24 +5953,21 @@
         <v>149</v>
       </c>
       <c r="AA6" t="s">
-        <v>647</v>
+        <v>150</v>
       </c>
       <c r="AB6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC6" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="AD6" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AE6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -5841,6 +5987,9 @@
       <c r="I7" t="s">
         <v>159</v>
       </c>
+      <c r="J7" t="s">
+        <v>598</v>
+      </c>
       <c r="K7" t="s">
         <v>142</v>
       </c>
@@ -5869,24 +6018,21 @@
         <v>167</v>
       </c>
       <c r="AA7" t="s">
-        <v>648</v>
+        <v>168</v>
       </c>
       <c r="AB7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="AD7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AE7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5934,24 +6080,21 @@
         <v>184</v>
       </c>
       <c r="AA8" t="s">
-        <v>649</v>
+        <v>185</v>
       </c>
       <c r="AB8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AC8" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="AD8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AE8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5996,18 +6139,15 @@
         <v>201</v>
       </c>
       <c r="AA9" t="s">
-        <v>650</v>
-      </c>
-      <c r="AB9" t="s">
         <v>202</v>
       </c>
+      <c r="AC9" t="s">
+        <v>187</v>
+      </c>
       <c r="AD9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE9" t="s">
         <v>203</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6043,18 +6183,15 @@
         <v>212</v>
       </c>
       <c r="AA10" t="s">
-        <v>651</v>
-      </c>
-      <c r="AB10" t="s">
         <v>213</v>
       </c>
+      <c r="AC10" t="s">
+        <v>614</v>
+      </c>
       <c r="AD10" t="s">
-        <v>614</v>
-      </c>
-      <c r="AE10" t="s">
         <v>214</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6063,7 +6200,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>686</v>
       </c>
       <c r="H11" t="s">
         <v>217</v>
@@ -6087,15 +6224,12 @@
         <v>642</v>
       </c>
       <c r="AA11" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB11" t="s">
         <v>224</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>225</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6104,7 +6238,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="H12" t="s">
         <v>228</v>
@@ -6128,15 +6262,12 @@
         <v>223</v>
       </c>
       <c r="AA12" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB12" t="s">
         <v>235</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>236</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6145,7 +6276,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="H13" t="s">
         <v>238</v>
@@ -6169,15 +6300,12 @@
         <v>234</v>
       </c>
       <c r="AA13" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB13" t="s">
         <v>244</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>245</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6186,7 +6314,7 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
         <v>248</v>
@@ -6207,15 +6335,12 @@
         <v>606</v>
       </c>
       <c r="AA14" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB14" t="s">
         <v>254</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>255</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6224,7 +6349,7 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H15" t="s">
         <v>258</v>
@@ -6245,15 +6370,12 @@
         <v>243</v>
       </c>
       <c r="AA15" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB15" t="s">
         <v>633</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>264</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6262,7 +6384,7 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H16" t="s">
         <v>267</v>
@@ -6283,15 +6405,12 @@
         <v>253</v>
       </c>
       <c r="AA16" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB16" t="s">
         <v>607</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>273</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6300,7 +6419,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H17" t="s">
         <v>276</v>
@@ -6315,15 +6434,12 @@
         <v>262</v>
       </c>
       <c r="AA17" t="s">
-        <v>658</v>
-      </c>
-      <c r="AB17" t="s">
         <v>263</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>280</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6332,7 +6448,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H18" t="s">
         <v>283</v>
@@ -6347,12 +6463,9 @@
         <v>271</v>
       </c>
       <c r="AA18" t="s">
-        <v>659</v>
-      </c>
-      <c r="AB18" t="s">
         <v>272</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6361,7 +6474,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>636</v>
+        <v>282</v>
       </c>
       <c r="H19" t="s">
         <v>289</v>
@@ -6370,12 +6483,9 @@
         <v>284</v>
       </c>
       <c r="AA19" t="s">
-        <v>660</v>
-      </c>
-      <c r="AB19" t="s">
         <v>279</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6384,7 +6494,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -6393,12 +6503,9 @@
         <v>290</v>
       </c>
       <c r="AA20" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB20" t="s">
         <v>286</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6407,7 +6514,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -6416,12 +6523,9 @@
         <v>295</v>
       </c>
       <c r="AA21" t="s">
-        <v>662</v>
-      </c>
-      <c r="AB21" t="s">
         <v>291</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6430,7 +6534,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>288</v>
+        <v>638</v>
       </c>
       <c r="H22" t="s">
         <v>304</v>
@@ -6439,12 +6543,9 @@
         <v>600</v>
       </c>
       <c r="AA22" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB22" t="s">
         <v>296</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6453,7 +6554,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H23" t="s">
         <v>309</v>
@@ -6462,12 +6563,9 @@
         <v>305</v>
       </c>
       <c r="AA23" t="s">
-        <v>663</v>
-      </c>
-      <c r="AB23" t="s">
         <v>301</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6476,7 +6574,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H24" t="s">
         <v>314</v>
@@ -6485,12 +6583,9 @@
         <v>310</v>
       </c>
       <c r="AA24" t="s">
-        <v>664</v>
-      </c>
-      <c r="AB24" t="s">
         <v>306</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6499,7 +6594,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>639</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
         <v>319</v>
@@ -6508,12 +6603,9 @@
         <v>315</v>
       </c>
       <c r="AA25" t="s">
-        <v>665</v>
-      </c>
-      <c r="AB25" t="s">
         <v>311</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6522,7 +6614,7 @@
         <v>626</v>
       </c>
       <c r="F26" t="s">
-        <v>303</v>
+        <v>639</v>
       </c>
       <c r="H26" t="s">
         <v>324</v>
@@ -6531,21 +6623,18 @@
         <v>641</v>
       </c>
       <c r="AA26" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB26" t="s">
         <v>316</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>617</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
         <v>329</v>
@@ -6554,21 +6643,18 @@
         <v>320</v>
       </c>
       <c r="AA27" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB27" t="s">
         <v>321</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H28" t="s">
         <v>334</v>
@@ -6577,18 +6663,15 @@
         <v>325</v>
       </c>
       <c r="AA28" t="s">
-        <v>667</v>
-      </c>
-      <c r="AB28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H29" t="s">
         <v>338</v>
@@ -6597,18 +6680,15 @@
         <v>330</v>
       </c>
       <c r="AA29" t="s">
-        <v>668</v>
-      </c>
-      <c r="AB29" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H30" t="s">
         <v>342</v>
@@ -6617,18 +6697,15 @@
         <v>335</v>
       </c>
       <c r="AA30" t="s">
-        <v>669</v>
-      </c>
-      <c r="AB30" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H31" t="s">
         <v>345</v>
@@ -6637,187 +6714,163 @@
         <v>339</v>
       </c>
       <c r="AA31" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB31" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H32" t="s">
         <v>348</v>
       </c>
       <c r="AA32" t="s">
-        <v>671</v>
-      </c>
-      <c r="AB32" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H33" t="s">
         <v>351</v>
       </c>
       <c r="AA33" t="s">
-        <v>672</v>
-      </c>
-      <c r="AB33" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H34" t="s">
         <v>354</v>
       </c>
       <c r="AA34" t="s">
-        <v>673</v>
-      </c>
-      <c r="AB34" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H35" t="s">
         <v>357</v>
       </c>
       <c r="AA35" t="s">
-        <v>674</v>
-      </c>
-      <c r="AB35" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H36" t="s">
         <v>360</v>
       </c>
       <c r="AA36" t="s">
-        <v>675</v>
-      </c>
-      <c r="AB36" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H37" t="s">
         <v>363</v>
       </c>
       <c r="AA37" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB37" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H38" t="s">
         <v>366</v>
       </c>
       <c r="AA38" t="s">
-        <v>677</v>
-      </c>
-      <c r="AB38" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H39" t="s">
         <v>369</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H40" t="s">
         <v>371</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H41" t="s">
         <v>373</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H42" t="s">
         <v>375</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H43" t="s">
         <v>377</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>640</v>
+        <v>368</v>
       </c>
       <c r="H44" t="s">
         <v>379</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>640</v>
+      </c>
       <c r="H45" t="s">
         <v>381</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6825,7 +6878,7 @@
       <c r="H46" t="s">
         <v>383</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>380</v>
       </c>
     </row>
@@ -6833,7 +6886,7 @@
       <c r="H47" t="s">
         <v>385</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6841,7 +6894,7 @@
       <c r="H48" t="s">
         <v>387</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6849,7 +6902,7 @@
       <c r="H49" t="s">
         <v>389</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6857,7 +6910,7 @@
       <c r="H50" t="s">
         <v>391</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6865,7 +6918,7 @@
       <c r="H51" t="s">
         <v>393</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>634</v>
       </c>
     </row>
@@ -6873,7 +6926,7 @@
       <c r="H52" t="s">
         <v>395</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>392</v>
       </c>
     </row>
@@ -6881,7 +6934,7 @@
       <c r="H53" t="s">
         <v>397</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6889,7 +6942,7 @@
       <c r="H54" t="s">
         <v>399</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6897,7 +6950,7 @@
       <c r="H55" t="s">
         <v>401</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6905,7 +6958,7 @@
       <c r="H56" t="s">
         <v>403</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6913,7 +6966,7 @@
       <c r="H57" t="s">
         <v>405</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6921,7 +6974,7 @@
       <c r="H58" t="s">
         <v>407</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6929,7 +6982,7 @@
       <c r="H59" t="s">
         <v>409</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6937,7 +6990,7 @@
       <c r="H60" t="s">
         <v>411</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6945,7 +6998,7 @@
       <c r="H61" t="s">
         <v>413</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6953,7 +7006,7 @@
       <c r="H62" t="s">
         <v>415</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6961,7 +7014,7 @@
       <c r="H63" t="s">
         <v>417</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6969,7 +7022,7 @@
       <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>416</v>
       </c>
     </row>
@@ -6977,7 +7030,7 @@
       <c r="H65" t="s">
         <v>421</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6985,7 +7038,7 @@
       <c r="H66" t="s">
         <v>423</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6993,7 +7046,7 @@
       <c r="H67" t="s">
         <v>425</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7001,7 +7054,7 @@
       <c r="H68" t="s">
         <v>427</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7009,7 +7062,7 @@
       <c r="H69" t="s">
         <v>429</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7017,7 +7070,7 @@
       <c r="H70" t="s">
         <v>431</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7025,7 +7078,7 @@
       <c r="H71" t="s">
         <v>433</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7033,7 +7086,7 @@
       <c r="H72" t="s">
         <v>435</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>432</v>
       </c>
     </row>
@@ -7041,7 +7094,7 @@
       <c r="H73" t="s">
         <v>437</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>434</v>
       </c>
     </row>
@@ -7049,7 +7102,7 @@
       <c r="H74" t="s">
         <v>439</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>436</v>
       </c>
     </row>
@@ -7057,7 +7110,7 @@
       <c r="H75" t="s">
         <v>441</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7065,7 +7118,7 @@
       <c r="H76" t="s">
         <v>443</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7073,7 +7126,7 @@
       <c r="H77" t="s">
         <v>445</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7081,7 +7134,7 @@
       <c r="H78" t="s">
         <v>447</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>444</v>
       </c>
     </row>
@@ -7089,7 +7142,7 @@
       <c r="H79" t="s">
         <v>449</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>678</v>
       </c>
     </row>
@@ -7097,7 +7150,7 @@
       <c r="H80" t="s">
         <v>451</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7105,7 +7158,7 @@
       <c r="H81" t="s">
         <v>453</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>448</v>
       </c>
     </row>
@@ -7113,7 +7166,7 @@
       <c r="H82" t="s">
         <v>455</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7121,7 +7174,7 @@
       <c r="H83" t="s">
         <v>457</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7129,7 +7182,7 @@
       <c r="H84" t="s">
         <v>459</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7137,7 +7190,7 @@
       <c r="H85" t="s">
         <v>461</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>456</v>
       </c>
     </row>
@@ -7145,7 +7198,7 @@
       <c r="H86" t="s">
         <v>463</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>458</v>
       </c>
     </row>
@@ -7153,7 +7206,7 @@
       <c r="H87" t="s">
         <v>465</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7161,7 +7214,7 @@
       <c r="H88" t="s">
         <v>467</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>462</v>
       </c>
     </row>
@@ -7169,7 +7222,7 @@
       <c r="H89" t="s">
         <v>469</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7177,7 +7230,7 @@
       <c r="H90" t="s">
         <v>471</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7185,7 +7238,7 @@
       <c r="H91" t="s">
         <v>473</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>468</v>
       </c>
     </row>
@@ -7193,7 +7246,7 @@
       <c r="H92" t="s">
         <v>475</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>602</v>
       </c>
     </row>
@@ -7201,7 +7254,7 @@
       <c r="H93" t="s">
         <v>477</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7209,7 +7262,7 @@
       <c r="H94" t="s">
         <v>479</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7217,7 +7270,7 @@
       <c r="H95" t="s">
         <v>481</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>474</v>
       </c>
     </row>
@@ -7225,7 +7278,7 @@
       <c r="H96" t="s">
         <v>483</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7233,7 +7286,7 @@
       <c r="H97" t="s">
         <v>485</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7241,272 +7294,272 @@
       <c r="H98" t="s">
         <v>487</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>685</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7180" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8384" uniqueCount="688">
   <si>
     <t>target</t>
   </si>
@@ -2132,7 +2132,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="206">
+  <fonts count="240">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3091,6 +3091,220 @@
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
       <u val="none"/>
     </font>
     <font>
@@ -4427,7 +4641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5034,55 +5248,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="191" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="192" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="197" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="202" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="203" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="204" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="205" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="206" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="208" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="212" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -22,12 +22,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8384" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9594" uniqueCount="692">
   <si>
     <t>target</t>
   </si>
@@ -2120,6 +2120,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2144,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="240">
+  <fonts count="274">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3091,6 +3103,220 @@
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
       <u val="none"/>
     </font>
     <font>
@@ -4641,7 +4867,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="282">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5350,55 +5576,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="229" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="235" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="236" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="237" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="238" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="239" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="240" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="242" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="243" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="246" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="253" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="254" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="256" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5919,7 +6247,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>689</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -6013,6 +6341,9 @@
       <c r="P3" t="s">
         <v>74</v>
       </c>
+      <c r="Q3" t="s">
+        <v>690</v>
+      </c>
       <c r="R3" t="s">
         <v>75</v>
       </c>
@@ -6099,6 +6430,9 @@
       <c r="P4" t="s">
         <v>100</v>
       </c>
+      <c r="Q4" t="s">
+        <v>691</v>
+      </c>
       <c r="R4" t="s">
         <v>101</v>
       </c>
@@ -6310,7 +6644,7 @@
         <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
@@ -6372,7 +6706,7 @@
         <v>160</v>
       </c>
       <c r="L8" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>179</v>
@@ -6431,7 +6765,7 @@
         <v>194</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="N9" t="s">
         <v>196</v>
@@ -6481,7 +6815,7 @@
         <v>615</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="N10" t="s">
         <v>208</v>
@@ -6525,7 +6859,7 @@
         <v>616</v>
       </c>
       <c r="L11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N11" t="s">
         <v>220</v>
@@ -6563,7 +6897,7 @@
         <v>206</v>
       </c>
       <c r="L12" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N12" t="s">
         <v>231</v>
@@ -6601,7 +6935,7 @@
         <v>218</v>
       </c>
       <c r="L13" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N13" t="s">
         <v>241</v>
@@ -6639,7 +6973,7 @@
         <v>229</v>
       </c>
       <c r="L14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -6674,7 +7008,7 @@
         <v>239</v>
       </c>
       <c r="L15" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N15" t="s">
         <v>260</v>
@@ -6709,7 +7043,7 @@
         <v>249</v>
       </c>
       <c r="L16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="N16" t="s">
         <v>269</v>
@@ -6741,7 +7075,7 @@
         <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="N17" t="s">
         <v>278</v>
@@ -6770,7 +7104,7 @@
         <v>283</v>
       </c>
       <c r="L18" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N18" t="s">
         <v>285</v>
@@ -6796,7 +7130,7 @@
         <v>289</v>
       </c>
       <c r="L19" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AA19" t="s">
         <v>279</v>
@@ -6816,7 +7150,7 @@
         <v>294</v>
       </c>
       <c r="L20" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AA20" t="s">
         <v>286</v>
@@ -6836,7 +7170,7 @@
         <v>299</v>
       </c>
       <c r="L21" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AA21" t="s">
         <v>291</v>
@@ -6856,7 +7190,7 @@
         <v>304</v>
       </c>
       <c r="L22" t="s">
-        <v>600</v>
+        <v>295</v>
       </c>
       <c r="AA22" t="s">
         <v>296</v>
@@ -6876,7 +7210,7 @@
         <v>309</v>
       </c>
       <c r="L23" t="s">
-        <v>305</v>
+        <v>600</v>
       </c>
       <c r="AA23" t="s">
         <v>301</v>
@@ -6896,7 +7230,7 @@
         <v>314</v>
       </c>
       <c r="L24" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AA24" t="s">
         <v>306</v>
@@ -6916,7 +7250,7 @@
         <v>319</v>
       </c>
       <c r="L25" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AA25" t="s">
         <v>311</v>
@@ -6936,7 +7270,7 @@
         <v>324</v>
       </c>
       <c r="L26" t="s">
-        <v>641</v>
+        <v>315</v>
       </c>
       <c r="AA26" t="s">
         <v>316</v>
@@ -6956,7 +7290,7 @@
         <v>329</v>
       </c>
       <c r="L27" t="s">
-        <v>320</v>
+        <v>641</v>
       </c>
       <c r="AA27" t="s">
         <v>321</v>
@@ -6976,7 +7310,7 @@
         <v>334</v>
       </c>
       <c r="L28" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AA28" t="s">
         <v>326</v>
@@ -6993,7 +7327,7 @@
         <v>338</v>
       </c>
       <c r="L29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AA29" t="s">
         <v>331</v>
@@ -7010,7 +7344,7 @@
         <v>342</v>
       </c>
       <c r="L30" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA30" t="s">
         <v>336</v>
@@ -7027,7 +7361,7 @@
         <v>345</v>
       </c>
       <c r="L31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AA31" t="s">
         <v>340</v>
@@ -7042,6 +7376,9 @@
       </c>
       <c r="H32" t="s">
         <v>348</v>
+      </c>
+      <c r="L32" t="s">
+        <v>339</v>
       </c>
       <c r="AA32" t="s">
         <v>343</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -27,12 +27,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9594" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10203" uniqueCount="698">
   <si>
     <t>target</t>
   </si>
@@ -2132,6 +2132,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2162,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="274">
+  <fonts count="291">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3103,6 +3121,113 @@
       <name val="Consolas"/>
       <sz val="10.0"/>
       <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
       <u val="none"/>
     </font>
     <font>
@@ -4867,7 +4992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="299">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5678,55 +5803,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="260" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="262" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="263" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="271" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="272" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6247,7 +6423,7 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="R2" t="s">
         <v>47</v>
@@ -6342,7 +6518,7 @@
         <v>74</v>
       </c>
       <c r="Q3" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="R3" t="s">
         <v>75</v>
@@ -6431,7 +6607,7 @@
         <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>691</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
         <v>101</v>
@@ -6513,6 +6689,9 @@
       <c r="O5" t="s">
         <v>123</v>
       </c>
+      <c r="Q5" t="s">
+        <v>694</v>
+      </c>
       <c r="R5" t="s">
         <v>124</v>
       </c>
@@ -6947,7 +7126,7 @@
         <v>242</v>
       </c>
       <c r="S13" t="s">
-        <v>234</v>
+        <v>695</v>
       </c>
       <c r="AA13" t="s">
         <v>244</v>
@@ -6982,7 +7161,7 @@
         <v>252</v>
       </c>
       <c r="S14" t="s">
-        <v>606</v>
+        <v>234</v>
       </c>
       <c r="AA14" t="s">
         <v>254</v>
@@ -7017,7 +7196,7 @@
         <v>261</v>
       </c>
       <c r="S15" t="s">
-        <v>243</v>
+        <v>606</v>
       </c>
       <c r="AA15" t="s">
         <v>633</v>
@@ -7052,7 +7231,7 @@
         <v>270</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AA16" t="s">
         <v>607</v>
@@ -7081,7 +7260,7 @@
         <v>278</v>
       </c>
       <c r="S17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AA17" t="s">
         <v>263</v>
@@ -7110,7 +7289,7 @@
         <v>285</v>
       </c>
       <c r="S18" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="AA18" t="s">
         <v>272</v>
@@ -7132,6 +7311,9 @@
       <c r="L19" t="s">
         <v>277</v>
       </c>
+      <c r="S19" t="s">
+        <v>696</v>
+      </c>
       <c r="AA19" t="s">
         <v>279</v>
       </c>
@@ -7152,6 +7334,9 @@
       <c r="L20" t="s">
         <v>284</v>
       </c>
+      <c r="S20" t="s">
+        <v>271</v>
+      </c>
       <c r="AA20" t="s">
         <v>286</v>
       </c>
@@ -7171,6 +7356,9 @@
       </c>
       <c r="L21" t="s">
         <v>290</v>
+      </c>
+      <c r="S21" t="s">
+        <v>697</v>
       </c>
       <c r="AA21" t="s">
         <v>291</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -14,12 +14,12 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -39,24 +39,26 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10203" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10846" uniqueCount="735">
   <si>
     <t>target</t>
   </si>
@@ -2150,6 +2152,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2275,7 @@
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="291">
+  <fonts count="308">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4024,8 +4137,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="62">
+  <fills count="86">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4381,6 +4601,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -4992,7 +5348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="316">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -5903,6 +6259,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="290" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="85" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6264,7 +6671,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6364,12 +6771,18 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
+        <v>698</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>699</v>
+      </c>
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6462,12 +6875,18 @@
         <v>57</v>
       </c>
       <c r="AD2" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>727</v>
+      </c>
+      <c r="AF2" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6554,12 +6973,18 @@
         <v>84</v>
       </c>
       <c r="AD3" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>728</v>
+      </c>
+      <c r="AF3" t="s">
         <v>85</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>86</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6643,12 +7068,18 @@
         <v>110</v>
       </c>
       <c r="AD4" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>729</v>
+      </c>
+      <c r="AF4" t="s">
         <v>86</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>111</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6719,13 +7150,16 @@
       <c r="AC5" t="s">
         <v>613</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>730</v>
+      </c>
+      <c r="AF5" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>134</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6790,13 +7224,16 @@
       <c r="AC6" t="s">
         <v>132</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>731</v>
+      </c>
+      <c r="AF6" t="s">
         <v>153</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>154</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6855,13 +7292,16 @@
       <c r="AC7" t="s">
         <v>152</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>732</v>
+      </c>
+      <c r="AF7" t="s">
         <v>171</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>172</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6879,7 +7319,7 @@
         <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>720</v>
       </c>
       <c r="K8" t="s">
         <v>160</v>
@@ -6917,13 +7357,16 @@
       <c r="AC8" t="s">
         <v>170</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF8" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>189</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6941,7 +7384,7 @@
         <v>193</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L9" t="s">
         <v>161</v>
@@ -6973,10 +7416,13 @@
       <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>734</v>
+      </c>
+      <c r="AF9" t="s">
         <v>203</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6991,7 +7437,7 @@
         <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>615</v>
+        <v>194</v>
       </c>
       <c r="L10" t="s">
         <v>178</v>
@@ -7017,10 +7463,10 @@
       <c r="AC10" t="s">
         <v>614</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>214</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7035,7 +7481,7 @@
         <v>217</v>
       </c>
       <c r="I11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L11" t="s">
         <v>195</v>
@@ -7055,10 +7501,10 @@
       <c r="AA11" t="s">
         <v>224</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>225</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -7073,7 +7519,7 @@
         <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>206</v>
+        <v>616</v>
       </c>
       <c r="L12" t="s">
         <v>207</v>
@@ -7093,10 +7539,10 @@
       <c r="AA12" t="s">
         <v>235</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>236</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7111,7 +7557,7 @@
         <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L13" t="s">
         <v>219</v>
@@ -7131,10 +7577,10 @@
       <c r="AA13" t="s">
         <v>244</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>245</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7149,7 +7595,7 @@
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L14" t="s">
         <v>230</v>
@@ -7166,10 +7612,10 @@
       <c r="AA14" t="s">
         <v>254</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>255</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7184,7 +7630,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L15" t="s">
         <v>240</v>
@@ -7201,10 +7647,10 @@
       <c r="AA15" t="s">
         <v>633</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>264</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7219,7 +7665,7 @@
         <v>267</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L16" t="s">
         <v>250</v>
@@ -7236,10 +7682,10 @@
       <c r="AA16" t="s">
         <v>607</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>273</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7253,6 +7699,9 @@
       <c r="H17" t="s">
         <v>276</v>
       </c>
+      <c r="I17" t="s">
+        <v>249</v>
+      </c>
       <c r="L17" t="s">
         <v>259</v>
       </c>
@@ -7265,10 +7714,10 @@
       <c r="AA17" t="s">
         <v>263</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>280</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7282,6 +7731,9 @@
       <c r="H18" t="s">
         <v>283</v>
       </c>
+      <c r="I18" t="s">
+        <v>721</v>
+      </c>
       <c r="L18" t="s">
         <v>268</v>
       </c>
@@ -7294,7 +7746,7 @@
       <c r="AA18" t="s">
         <v>272</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7303,7 +7755,7 @@
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>700</v>
       </c>
       <c r="H19" t="s">
         <v>289</v>
@@ -7317,7 +7769,7 @@
       <c r="AA19" t="s">
         <v>279</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7326,7 +7778,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>636</v>
+        <v>701</v>
       </c>
       <c r="H20" t="s">
         <v>294</v>
@@ -7340,7 +7792,7 @@
       <c r="AA20" t="s">
         <v>286</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7349,7 +7801,7 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>637</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
         <v>299</v>
@@ -7363,7 +7815,7 @@
       <c r="AA21" t="s">
         <v>291</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -7372,7 +7824,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H22" t="s">
         <v>304</v>
@@ -7383,7 +7835,7 @@
       <c r="AA22" t="s">
         <v>296</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7392,7 +7844,7 @@
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>637</v>
       </c>
       <c r="H23" t="s">
         <v>309</v>
@@ -7403,7 +7855,7 @@
       <c r="AA23" t="s">
         <v>301</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7412,7 +7864,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>638</v>
       </c>
       <c r="H24" t="s">
         <v>314</v>
@@ -7423,7 +7875,7 @@
       <c r="AA24" t="s">
         <v>306</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7432,7 +7884,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H25" t="s">
         <v>319</v>
@@ -7443,7 +7895,7 @@
       <c r="AA25" t="s">
         <v>311</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>322</v>
       </c>
     </row>
@@ -7452,18 +7904,18 @@
         <v>626</v>
       </c>
       <c r="F26" t="s">
-        <v>639</v>
+        <v>293</v>
       </c>
       <c r="H26" t="s">
-        <v>324</v>
+        <v>702</v>
       </c>
       <c r="L26" t="s">
         <v>315</v>
       </c>
       <c r="AA26" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>722</v>
+      </c>
+      <c r="AH26" t="s">
         <v>327</v>
       </c>
     </row>
@@ -7472,18 +7924,18 @@
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>329</v>
+        <v>703</v>
       </c>
       <c r="L27" t="s">
         <v>641</v>
       </c>
       <c r="AA27" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH27" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7492,16 +7944,16 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>308</v>
+        <v>639</v>
       </c>
       <c r="H28" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="L28" t="s">
         <v>320</v>
       </c>
       <c r="AA28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29">
@@ -7509,898 +7961,959 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L29" t="s">
         <v>325</v>
       </c>
       <c r="AA29" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>698</v>
       </c>
       <c r="F30" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H30" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="L30" t="s">
         <v>330</v>
       </c>
       <c r="AA30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>699</v>
       </c>
       <c r="F31" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H31" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="L31" t="s">
         <v>335</v>
       </c>
       <c r="AA31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H32" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L32" t="s">
         <v>339</v>
       </c>
       <c r="AA32" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>323</v>
+      </c>
+      <c r="H33" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA33" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>333</v>
-      </c>
-      <c r="H33" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA34" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>337</v>
-      </c>
-      <c r="H34" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AA35" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H36" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AA36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H37" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AA37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H38" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AA38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H39" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AA39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AA40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AA41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H42" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AA42" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H43" t="s">
-        <v>377</v>
+        <v>704</v>
       </c>
       <c r="AA43" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H44" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AA44" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>365</v>
+      </c>
+      <c r="H45" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>368</v>
+      </c>
+      <c r="H46" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>640</v>
       </c>
-      <c r="H45" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA47" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AA48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AA49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AA50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AA51" t="s">
-        <v>634</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AA52" t="s">
-        <v>392</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AA53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>399</v>
+        <v>705</v>
       </c>
       <c r="AA54" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>401</v>
+        <v>706</v>
       </c>
       <c r="AA55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>403</v>
+        <v>707</v>
       </c>
       <c r="AA56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>405</v>
+        <v>708</v>
       </c>
       <c r="AA57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="AA58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AA59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AA60" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AA61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="AA62" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="AA63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AA64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="AA65" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AA66" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>425</v>
+        <v>709</v>
       </c>
       <c r="AA67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>427</v>
+        <v>710</v>
       </c>
       <c r="AA68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>429</v>
+        <v>711</v>
       </c>
       <c r="AA69" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="AA70" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>433</v>
+        <v>712</v>
       </c>
       <c r="AA71" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>435</v>
+        <v>713</v>
       </c>
       <c r="AA72" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="AA73" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="AA74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AA75" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AA76" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="AA77" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="AA78" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="AA79" t="s">
-        <v>678</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AA80" t="s">
-        <v>446</v>
+        <v>678</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AA81" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AA82" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="AA83" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>459</v>
+        <v>714</v>
       </c>
       <c r="AA84" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>461</v>
+        <v>715</v>
       </c>
       <c r="AA85" t="s">
-        <v>456</v>
+        <v>723</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="AA86" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="AA87" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="AA88" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AA89" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>471</v>
+        <v>716</v>
       </c>
       <c r="AA90" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>473</v>
+        <v>717</v>
       </c>
       <c r="AA91" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="AA92" t="s">
-        <v>602</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="AA93" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="AA94" t="s">
-        <v>472</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="AA95" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="AA96" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AA97" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>719</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>485</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>487</v>
       </c>
-      <c r="AA98" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>496</v>
+        <v>608</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>679</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>680</v>
+        <v>496</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>498</v>
+        <v>679</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>499</v>
+        <v>680</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>609</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>505</v>
+        <v>609</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>610</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>507</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>611</v>
+        <v>510</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>635</v>
+        <v>513</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>517</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>681</v>
+        <v>520</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>612</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>523</v>
+        <v>681</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>524</v>
+        <v>612</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>682</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>683</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>685</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_array_function.xlsx
@@ -4,61 +4,64 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="15900" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15900" windowWidth="27180"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="811">
   <si>
     <t>target</t>
   </si>
@@ -2117,6 +2120,381 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2124,12 +2502,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2327,8 +2705,115 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2533,6 +3018,142 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2672,325 +3293,376 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="13" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="32" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="27" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="13" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="48">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="48">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="1"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="2"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="3"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="4"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="5"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="6"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="7"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="8"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="9"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="10"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="11"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="12"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="13"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="16"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="17"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="18"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="20"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="21"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="22"/>
+    <cellStyle builtinId="27" name="Bad" xfId="23"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="24"/>
+    <cellStyle builtinId="25" name="Total" xfId="25"/>
+    <cellStyle builtinId="21" name="Output" xfId="26"/>
+    <cellStyle builtinId="4" name="Currency" xfId="27"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="28"/>
+    <cellStyle builtinId="10" name="Note" xfId="29"/>
+    <cellStyle builtinId="20" name="Input" xfId="30"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="31"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="32"/>
+    <cellStyle builtinId="26" name="Good" xfId="33"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="34"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="35"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="36"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="38"/>
+    <cellStyle builtinId="15" name="Title" xfId="39"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="40"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="41"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="42"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="43"/>
+    <cellStyle builtinId="3" name="Comma" xfId="44"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="45"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="46"/>
+    <cellStyle builtinId="5" name="Percent" xfId="47"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="48"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3024,7 +3696,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -3046,10 +3718,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3213,21 +3885,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3244,7 +3916,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3297,20 +3969,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AH153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3330,91 +4002,103 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>687</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3434,91 +4118,103 @@
         <v>38</v>
       </c>
       <c r="G2" t="s">
+        <v>690</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>712</v>
+      </c>
+      <c r="U2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>54</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3535,88 +4231,100 @@
         <v>70</v>
       </c>
       <c r="G3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>72</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
       <c r="M3" t="s">
+        <v>698</v>
+      </c>
+      <c r="N3" t="s">
+        <v>699</v>
+      </c>
+      <c r="O3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>78</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>79</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>81</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>713</v>
+      </c>
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>84</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>85</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>86</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>87</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>89</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE3" t="s">
         <v>90</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>91</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>807</v>
+      </c>
+      <c r="AI3" t="s">
         <v>94</v>
       </c>
-      <c r="AF3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK3" t="s">
         <v>96</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3630,88 +4338,100 @@
         <v>100</v>
       </c>
       <c r="G4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>103</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>104</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>105</v>
       </c>
-      <c r="L4" t="s">
-        <v>106</v>
-      </c>
       <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>177</v>
+      </c>
+      <c r="O4" t="s">
         <v>107</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>108</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>109</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>111</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>714</v>
+      </c>
+      <c r="U4" t="s">
         <v>112</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>113</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>114</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>115</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>116</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>117</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>118</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>119</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE4" t="s">
         <v>120</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>121</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>122</v>
       </c>
-      <c r="AD4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" t="s">
         <v>124</v>
       </c>
-      <c r="AF4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK4" t="s">
         <v>125</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3725,73 +4445,88 @@
         <v>129</v>
       </c>
       <c r="G5" t="s">
+        <v>693</v>
+      </c>
+      <c r="H5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>131</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>132</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>133</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" t="s">
-        <v>135</v>
+      <c r="M5" t="s">
+        <v>106</v>
       </c>
       <c r="N5" t="s">
+        <v>700</v>
+      </c>
+      <c r="P5" t="s">
         <v>136</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>138</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>292</v>
+      </c>
+      <c r="U5" t="s">
         <v>139</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>140</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>141</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>142</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>143</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>144</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE5" t="s">
         <v>145</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>146</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>147</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5" t="s">
         <v>148</v>
       </c>
-      <c r="AF5" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" t="s">
         <v>150</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3805,69 +4540,84 @@
         <v>154</v>
       </c>
       <c r="G6" t="s">
+        <v>694</v>
+      </c>
+      <c r="H6" t="s">
         <v>155</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>156</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>157</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>158</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>159</v>
       </c>
-      <c r="L6" t="s">
-        <v>160</v>
+      <c r="M6" t="s">
+        <v>135</v>
       </c>
       <c r="N6" t="s">
+        <v>701</v>
+      </c>
+      <c r="P6" t="s">
         <v>161</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>162</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" t="s">
         <v>163</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>164</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>165</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>166</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>167</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE6" t="s">
         <v>168</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>169</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>170</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" t="s">
         <v>171</v>
       </c>
-      <c r="AF6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK6" t="s">
         <v>173</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>686</v>
       </c>
       <c r="B7" t="s">
         <v>175</v>
@@ -3875,67 +4625,79 @@
       <c r="F7" t="s">
         <v>176</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>695</v>
+      </c>
+      <c r="I7" t="s">
         <v>177</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>178</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>179</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>180</v>
       </c>
-      <c r="L7" t="s">
-        <v>181</v>
+      <c r="M7" t="s">
+        <v>160</v>
       </c>
       <c r="N7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P7" t="s">
         <v>44</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>182</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>311</v>
+      </c>
+      <c r="U7" t="s">
         <v>183</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>184</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>186</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>187</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>189</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>190</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>191</v>
       </c>
-      <c r="AF7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>809</v>
+      </c>
+      <c r="AK7" t="s">
         <v>193</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>195</v>
@@ -3943,64 +4705,73 @@
       <c r="F8" t="s">
         <v>196</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>197</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>198</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>199</v>
       </c>
-      <c r="L8" t="s">
-        <v>39</v>
+      <c r="M8" t="s">
+        <v>181</v>
       </c>
       <c r="N8" t="s">
+        <v>702</v>
+      </c>
+      <c r="P8" t="s">
         <v>200</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>201</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>715</v>
+      </c>
+      <c r="U8" t="s">
         <v>202</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>203</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>204</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>205</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>206</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE8" t="s">
         <v>207</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>208</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>209</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>210</v>
       </c>
-      <c r="AF8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK8" t="s">
         <v>212</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>214</v>
@@ -4008,1580 +4779,1909 @@
       <c r="F9" t="s">
         <v>215</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>216</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>217</v>
       </c>
-      <c r="L9" t="s">
-        <v>218</v>
+      <c r="M9" t="s">
+        <v>39</v>
       </c>
       <c r="N9" t="s">
+        <v>703</v>
+      </c>
+      <c r="P9" t="s">
         <v>219</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>220</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>320</v>
+      </c>
+      <c r="U9" t="s">
         <v>221</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>222</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>223</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>224</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>225</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE9" t="s">
         <v>226</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>227</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>228</v>
       </c>
-      <c r="AF9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>231</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>232</v>
       </c>
-      <c r="L10" t="s">
-        <v>233</v>
+      <c r="M10" t="s">
+        <v>218</v>
       </c>
       <c r="N10" t="s">
+        <v>704</v>
+      </c>
+      <c r="P10" t="s">
         <v>234</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>235</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>716</v>
+      </c>
+      <c r="U10" t="s">
         <v>236</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>237</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>238</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE10" t="s">
         <v>239</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>240</v>
       </c>
-      <c r="AF10" t="s">
-        <v>241</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>243</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>244</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>245</v>
       </c>
-      <c r="L11" t="s">
-        <v>246</v>
+      <c r="M11" t="s">
+        <v>233</v>
       </c>
       <c r="N11" t="s">
+        <v>705</v>
+      </c>
+      <c r="P11" t="s">
         <v>247</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>248</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>326</v>
+      </c>
+      <c r="U11" t="s">
         <v>249</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>250</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE11" t="s">
         <v>251</v>
       </c>
-      <c r="AF11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>254</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>255</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>256</v>
       </c>
-      <c r="L12" t="s">
-        <v>257</v>
+      <c r="M12" t="s">
+        <v>246</v>
       </c>
       <c r="N12" t="s">
+        <v>706</v>
+      </c>
+      <c r="P12" t="s">
         <v>258</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>259</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>717</v>
+      </c>
+      <c r="U12" t="s">
         <v>260</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>261</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE12" t="s">
         <v>262</v>
       </c>
-      <c r="AF12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL12" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>265</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>266</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>267</v>
       </c>
-      <c r="L13" t="s">
-        <v>268</v>
+      <c r="M13" t="s">
+        <v>257</v>
       </c>
       <c r="N13" t="s">
+        <v>707</v>
+      </c>
+      <c r="P13" t="s">
         <v>269</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>270</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>718</v>
+      </c>
+      <c r="U13" t="s">
         <v>271</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>272</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE13" t="s">
         <v>273</v>
       </c>
-      <c r="AF13" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL13" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>687</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>276</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>277</v>
       </c>
-      <c r="L14" t="s">
-        <v>278</v>
+      <c r="M14" t="s">
+        <v>268</v>
       </c>
       <c r="N14" t="s">
+        <v>708</v>
+      </c>
+      <c r="P14" t="s">
         <v>279</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>719</v>
+      </c>
+      <c r="U14" t="s">
         <v>280</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>281</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE14" t="s">
         <v>282</v>
       </c>
-      <c r="AF14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>810</v>
+      </c>
+      <c r="AL14" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>285</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>286</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>287</v>
       </c>
-      <c r="L15" t="s">
-        <v>288</v>
+      <c r="M15" t="s">
+        <v>278</v>
       </c>
       <c r="N15" t="s">
-        <v>289</v>
-      </c>
-      <c r="R15" t="s">
+        <v>709</v>
+      </c>
+      <c r="P15" t="s">
+        <v>711</v>
+      </c>
+      <c r="T15" t="s">
+        <v>720</v>
+      </c>
+      <c r="U15" t="s">
         <v>290</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>291</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE15" t="s">
         <v>292</v>
       </c>
-      <c r="AF15" t="s">
-        <v>293</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>295</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>296</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>297</v>
       </c>
-      <c r="L16" t="s">
-        <v>298</v>
+      <c r="M16" t="s">
+        <v>288</v>
       </c>
       <c r="N16" t="s">
-        <v>299</v>
-      </c>
-      <c r="R16" t="s">
+        <v>710</v>
+      </c>
+      <c r="P16" t="s">
+        <v>289</v>
+      </c>
+      <c r="T16" t="s">
+        <v>721</v>
+      </c>
+      <c r="U16" t="s">
         <v>300</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>301</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE16" t="s">
         <v>302</v>
       </c>
-      <c r="AF16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>305</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>306</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>307</v>
       </c>
-      <c r="L17" t="s">
-        <v>308</v>
-      </c>
-      <c r="N17" t="s">
-        <v>309</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" t="s">
+        <v>299</v>
+      </c>
+      <c r="T17" t="s">
+        <v>448</v>
+      </c>
+      <c r="V17" t="s">
         <v>310</v>
       </c>
-      <c r="AA17" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>312</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>795</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>314</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>315</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>316</v>
       </c>
-      <c r="L18" t="s">
-        <v>317</v>
-      </c>
-      <c r="N18" t="s">
-        <v>318</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" t="s">
+        <v>309</v>
+      </c>
+      <c r="T18" t="s">
+        <v>722</v>
+      </c>
+      <c r="V18" t="s">
         <v>319</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE18" t="s">
         <v>320</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>322</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>323</v>
       </c>
-      <c r="L19" t="s">
-        <v>324</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>317</v>
+      </c>
+      <c r="P19" t="s">
+        <v>318</v>
+      </c>
+      <c r="T19" t="s">
+        <v>723</v>
+      </c>
+      <c r="V19" t="s">
         <v>325</v>
       </c>
-      <c r="AA19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>796</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>688</v>
       </c>
       <c r="F20" t="s">
         <v>328</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>329</v>
       </c>
-      <c r="L20" t="s">
-        <v>330</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>324</v>
+      </c>
+      <c r="T20" t="s">
+        <v>724</v>
+      </c>
+      <c r="V20" t="s">
         <v>331</v>
       </c>
-      <c r="AA20" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL20" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>334</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>335</v>
       </c>
-      <c r="L21" t="s">
-        <v>336</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>330</v>
+      </c>
+      <c r="T21" t="s">
+        <v>725</v>
+      </c>
+      <c r="V21" t="s">
         <v>337</v>
       </c>
-      <c r="AA21" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>797</v>
+      </c>
+      <c r="AL21" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>340</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>341</v>
       </c>
-      <c r="L22" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>343</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>336</v>
+      </c>
+      <c r="T22" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>345</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>346</v>
       </c>
-      <c r="L23" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="T23" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>350</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>351</v>
       </c>
-      <c r="L24" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>353</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>347</v>
+      </c>
+      <c r="T24" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>355</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>356</v>
       </c>
-      <c r="L25" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>352</v>
+      </c>
+      <c r="T25" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>360</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>361</v>
       </c>
-      <c r="L26" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>363</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>357</v>
+      </c>
+      <c r="T26" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL26" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>365</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>366</v>
       </c>
-      <c r="L27" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>362</v>
+      </c>
+      <c r="T27" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL27" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>370</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>371</v>
       </c>
-      <c r="L28" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="M28" t="s">
+        <v>367</v>
+      </c>
+      <c r="T28" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>374</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>375</v>
       </c>
-      <c r="L29" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="M29" t="s">
+        <v>372</v>
+      </c>
+      <c r="T29" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>689</v>
       </c>
       <c r="F30" t="s">
         <v>378</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>379</v>
       </c>
-      <c r="L30" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="M30" t="s">
+        <v>376</v>
+      </c>
+      <c r="T30" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>382</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>383</v>
       </c>
-      <c r="L31" t="s">
-        <v>384</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="M31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T31" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>386</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>387</v>
       </c>
-      <c r="L32" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="M32" t="s">
+        <v>384</v>
+      </c>
+      <c r="T32" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>390</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>391</v>
       </c>
-      <c r="AA33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="M33" t="s">
+        <v>388</v>
+      </c>
+      <c r="T33" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
         <v>393</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>394</v>
       </c>
-      <c r="AA34" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27">
+      <c r="T34" t="s">
+        <v>530</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
       <c r="F35" t="s">
         <v>396</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>397</v>
       </c>
-      <c r="AA35" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27">
+      <c r="T35" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
       <c r="F36" t="s">
         <v>399</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>400</v>
       </c>
-      <c r="AA36" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27">
+      <c r="T36" t="s">
+        <v>556</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
       <c r="F37" t="s">
         <v>402</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>403</v>
       </c>
-      <c r="AA37" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27">
+      <c r="T37" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
       <c r="F38" t="s">
         <v>405</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>406</v>
       </c>
-      <c r="AA38" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27">
+      <c r="T38" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="F39" t="s">
         <v>408</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>409</v>
       </c>
-      <c r="AA39" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27">
+      <c r="T39" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="F40" t="s">
         <v>411</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>412</v>
       </c>
-      <c r="AA40" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27">
+      <c r="T40" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="F41" t="s">
         <v>414</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>415</v>
       </c>
-      <c r="AA41" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="6:27">
+      <c r="T41" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="F42" t="s">
         <v>417</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>418</v>
       </c>
-      <c r="AA42" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="43" spans="6:27">
+      <c r="T42" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>792</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="F43" t="s">
         <v>420</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>421</v>
       </c>
-      <c r="AA43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="6:27">
+      <c r="T43" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>793</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="F44" t="s">
         <v>423</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>424</v>
       </c>
-      <c r="AA44" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27">
+      <c r="T44" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="F45" t="s">
         <v>426</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>427</v>
       </c>
-      <c r="AA45" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="46" spans="6:27">
+      <c r="T45" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="F46" t="s">
         <v>429</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>430</v>
       </c>
-      <c r="AA46" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27">
+      <c r="T46" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="F47" t="s">
         <v>432</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>433</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>435</v>
+      </c>
+      <c r="T48" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>437</v>
+      </c>
+      <c r="T49" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>439</v>
+      </c>
+      <c r="T50" t="s">
+        <v>596</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>441</v>
+      </c>
+      <c r="T51" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE51" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="8:27">
-      <c r="H48" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE52" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="8:27">
-      <c r="H49" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE53" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="8:27">
-      <c r="H50" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE54" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="51" spans="8:27">
-      <c r="H51" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE55" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="52" spans="8:27">
-      <c r="H52" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE56" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="8:27">
-      <c r="H53" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE57" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="8:27">
-      <c r="H54" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE58" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="55" spans="8:27">
-      <c r="H55" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE59" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="8:27">
-      <c r="H56" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE60" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="8:27">
-      <c r="H57" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE61" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="8:27">
-      <c r="H58" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>697</v>
+      </c>
+      <c r="AE62" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="8:27">
-      <c r="H59" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE64" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="8:27">
-      <c r="H60" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE65" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="8:27">
-      <c r="H61" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE66" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="8:27">
-      <c r="H62" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE67" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="8:27">
-      <c r="H63" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE68" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="8:27">
-      <c r="H64" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE69" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="8:27">
-      <c r="H65" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE70" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="66" spans="8:27">
-      <c r="H66" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE71" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="67" spans="8:27">
-      <c r="H67" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE72" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="68" spans="8:27">
-      <c r="H68" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE73" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="8:27">
-      <c r="H69" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE74" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="8:27">
-      <c r="H70" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE75" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="8:27">
-      <c r="H71" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE76" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="72" spans="8:27">
-      <c r="H72" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE77" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="73" spans="8:27">
-      <c r="H73" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE78" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="74" spans="8:27">
-      <c r="H74" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE79" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="75" spans="8:27">
-      <c r="H75" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE80" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="76" spans="8:27">
-      <c r="H76" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE81" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="77" spans="8:27">
-      <c r="H77" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE82" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="8:27">
-      <c r="H78" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE83" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="79" spans="8:27">
-      <c r="H79" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE84" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="80" spans="8:27">
-      <c r="H80" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE85" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="81" spans="8:27">
-      <c r="H81" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE86" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="82" spans="8:27">
-      <c r="H82" t="s">
-        <v>503</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE87" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="83" spans="8:27">
-      <c r="H83" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE88" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="84" spans="8:27">
-      <c r="H84" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE89" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="85" spans="8:27">
-      <c r="H85" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE90" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="8:27">
-      <c r="H86" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE91" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="87" spans="8:27">
-      <c r="H87" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE92" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="88" spans="8:27">
-      <c r="H88" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE93" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="8:27">
-      <c r="H89" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE94" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="90" spans="8:27">
-      <c r="H90" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE95" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="91" spans="8:27">
-      <c r="H91" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE96" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="92" spans="8:27">
-      <c r="H92" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE97" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="93" spans="8:27">
-      <c r="H93" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE98" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="94" spans="8:27">
-      <c r="H94" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>533</v>
+      </c>
+      <c r="AE99" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="8:27">
-      <c r="H95" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE100" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="96" spans="8:27">
-      <c r="H96" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE102" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="97" spans="8:27">
-      <c r="H97" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>541</v>
+      </c>
+      <c r="AE103" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="98" spans="8:27">
-      <c r="H98" t="s">
-        <v>535</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE104" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="99" spans="8:27">
-      <c r="H99" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>545</v>
+      </c>
+      <c r="AE105" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="8:27">
-      <c r="H100" t="s">
-        <v>539</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE106" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="101" spans="8:27">
-      <c r="H101" t="s">
-        <v>541</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE107" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="102" spans="8:27">
-      <c r="H102" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE108" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="103" spans="8:27">
-      <c r="H103" t="s">
-        <v>545</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE109" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="8:27">
-      <c r="H104" t="s">
-        <v>547</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>555</v>
+      </c>
+      <c r="AE110" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="105" spans="8:27">
-      <c r="H105" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE111" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="8:27">
-      <c r="H106" t="s">
-        <v>551</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE112" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="107" spans="8:27">
-      <c r="H107" t="s">
-        <v>553</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE113" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="8:27">
-      <c r="H108" t="s">
-        <v>555</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="8:27">
-      <c r="H109" t="s">
-        <v>557</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="110" spans="8:27">
-      <c r="H110" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="8:27">
-      <c r="H111" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="112" spans="27:27">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="27:27">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="114" spans="27:27">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="115" spans="27:27">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="116" spans="27:27">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="117" spans="27:27">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="118" spans="27:27">
-      <c r="AA118" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="119" spans="27:27">
-      <c r="AA119" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="120" spans="27:27">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="121" spans="27:27">
-      <c r="AA121" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="122" spans="27:27">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="123" spans="27:27">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="124" spans="27:27">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="125" spans="27:27">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="126" spans="27:27">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="127" spans="27:27">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="128" spans="27:27">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="142" spans="27:27">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="146" spans="27:27">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="147" spans="27:27">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="148" spans="27:27">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="149" spans="27:27">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="150" spans="27:27">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="151" spans="27:27">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="27:27">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="153" spans="27:27">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>604</v>
       </c>
     </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>805</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="true" topLeftCell="C1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A24" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E36" pane="bottomLeft" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.1333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="55.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="15.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6666666666667" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="47.1333333333333" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="55.625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="5" width="40.625" collapsed="false"/>
+    <col min="7" max="8" customWidth="true" style="5" width="15.625" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>605</v>
       </c>
@@ -5612,7 +6712,7 @@
       <c r="N1" s="23"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="13" t="s">
         <v>612</v>
       </c>
@@ -5633,7 +6733,7 @@
       <c r="N2" s="35"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="10" r="3" spans="1:15">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -5650,7 +6750,7 @@
       <c r="N3" s="26"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="19" t="s">
         <v>614</v>
       </c>
@@ -5695,7 +6795,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>627</v>
       </c>
@@ -5724,7 +6824,7 @@
       <c r="N5" s="26"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="6" spans="1:15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="20" t="s">
@@ -5749,7 +6849,7 @@
       <c r="N6" s="26"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="7" spans="1:15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="20" t="s">
@@ -5774,7 +6874,7 @@
       <c r="N7" s="26"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="8" spans="1:15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="20" t="s">
@@ -5799,7 +6899,7 @@
       <c r="N8" s="26"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="9" spans="1:15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="20" t="s">
@@ -5824,7 +6924,7 @@
       <c r="N9" s="26"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="10" spans="1:15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="20" t="s">
@@ -5849,7 +6949,7 @@
       <c r="N10" s="26"/>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="11" spans="1:15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="20" t="s">
@@ -5874,7 +6974,7 @@
       <c r="N11" s="26"/>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="12" spans="1:15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="20" t="s">
@@ -5899,7 +6999,7 @@
       <c r="N12" s="26"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="13" spans="1:15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="20" t="s">
@@ -5924,7 +7024,7 @@
       <c r="N13" s="26"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="14" spans="1:15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="20" t="s">
@@ -5949,7 +7049,7 @@
       <c r="N14" s="26"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="15" spans="1:15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="20" t="s">
@@ -5974,7 +7074,7 @@
       <c r="N15" s="26"/>
       <c r="O15" s="18"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="16" spans="1:15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="20" t="s">
@@ -5999,7 +7099,7 @@
       <c r="N16" s="26"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="17" spans="1:15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="20" t="s">
@@ -6024,7 +7124,7 @@
       <c r="N17" s="26"/>
       <c r="O17" s="18"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="18" spans="1:15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="20" t="s">
@@ -6049,7 +7149,7 @@
       <c r="N18" s="26"/>
       <c r="O18" s="18"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="19" spans="1:15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="20" t="s">
@@ -6074,7 +7174,7 @@
       <c r="N19" s="26"/>
       <c r="O19" s="18"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="20" spans="1:15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="20" t="s">
@@ -6099,7 +7199,7 @@
       <c r="N20" s="26"/>
       <c r="O20" s="18"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="21" spans="1:15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="20" t="s">
@@ -6124,7 +7224,7 @@
       <c r="N21" s="26"/>
       <c r="O21" s="18"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="22" spans="1:15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="20" t="s">
@@ -6149,7 +7249,7 @@
       <c r="N22" s="26"/>
       <c r="O22" s="18"/>
     </row>
-    <row r="23" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="23" spans="1:15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="20" t="s">
@@ -6174,7 +7274,7 @@
       <c r="N23" s="26"/>
       <c r="O23" s="18"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="24" spans="1:15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="20" t="s">
@@ -6199,7 +7299,7 @@
       <c r="N24" s="26"/>
       <c r="O24" s="18"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="25" spans="1:15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="20" t="s">
@@ -6224,7 +7324,7 @@
       <c r="N25" s="26"/>
       <c r="O25" s="18"/>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="26" spans="1:15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="20" t="s">
@@ -6249,7 +7349,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="18"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="27" spans="1:15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="20" t="s">
@@ -6274,7 +7374,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="18"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="28" spans="1:15">
       <c r="A28" s="15"/>
       <c r="B28" s="22"/>
       <c r="C28" s="20" t="s">
@@ -6299,7 +7399,7 @@
       <c r="N28" s="26"/>
       <c r="O28" s="18"/>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="29" spans="1:15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="20" t="s">
@@ -6322,7 +7422,7 @@
       <c r="N29" s="26"/>
       <c r="O29" s="18"/>
     </row>
-    <row r="30" ht="48" spans="1:15">
+    <row ht="48" r="30" spans="1:15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="20" t="s">
@@ -6347,7 +7447,7 @@
       <c r="N30" s="26"/>
       <c r="O30" s="18"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="31" spans="1:15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="20" t="s">
@@ -6370,7 +7470,7 @@
       <c r="N31" s="26"/>
       <c r="O31" s="18"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="32" spans="1:15">
       <c r="A32" s="15" t="s">
         <v>677</v>
       </c>
@@ -6397,7 +7497,7 @@
       <c r="N32" s="26"/>
       <c r="O32" s="18"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="33" spans="1:15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="20" t="s">
@@ -6422,7 +7522,7 @@
       <c r="N33" s="26"/>
       <c r="O33" s="18"/>
     </row>
-    <row r="34" ht="27" spans="1:15">
+    <row ht="27" r="34" spans="1:15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="20" t="s">
@@ -6445,7 +7545,7 @@
       <c r="N34" s="26"/>
       <c r="O34" s="18"/>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="35" spans="1:15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="20" t="s">
@@ -6472,7 +7572,7 @@
       <c r="N35" s="26"/>
       <c r="O35" s="18"/>
     </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="36" spans="1:15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="20"/>
@@ -6489,7 +7589,7 @@
       <c r="N36" s="26"/>
       <c r="O36" s="18"/>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="37" spans="1:15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="20"/>
@@ -6506,7 +7606,7 @@
       <c r="N37" s="26"/>
       <c r="O37" s="18"/>
     </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="38" spans="1:15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="20"/>
@@ -6523,7 +7623,7 @@
       <c r="N38" s="26"/>
       <c r="O38" s="18"/>
     </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="39" spans="1:15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="20"/>
@@ -6540,7 +7640,7 @@
       <c r="N39" s="26"/>
       <c r="O39" s="18"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="40" spans="1:15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="20"/>
@@ -6557,7 +7657,7 @@
       <c r="N40" s="26"/>
       <c r="O40" s="18"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="41" spans="1:15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="20"/>
@@ -6574,7 +7674,7 @@
       <c r="N41" s="26"/>
       <c r="O41" s="18"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="42" spans="1:15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="20"/>
@@ -6591,7 +7691,7 @@
       <c r="N42" s="26"/>
       <c r="O42" s="18"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="43" spans="1:15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="20"/>
@@ -6608,7 +7708,7 @@
       <c r="N43" s="26"/>
       <c r="O43" s="18"/>
     </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="44" spans="1:15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="20"/>
@@ -6625,7 +7725,7 @@
       <c r="N44" s="26"/>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="45" spans="1:15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="20"/>
@@ -6642,7 +7742,7 @@
       <c r="N45" s="26"/>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="46" spans="1:15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="20"/>
@@ -6659,7 +7759,7 @@
       <c r="N46" s="26"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="47" spans="1:15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="20"/>
@@ -6676,7 +7776,7 @@
       <c r="N47" s="26"/>
       <c r="O47" s="18"/>
     </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="48" spans="1:15">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="20"/>
@@ -6693,7 +7793,7 @@
       <c r="N48" s="26"/>
       <c r="O48" s="18"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="49" spans="1:15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="20"/>
@@ -6710,7 +7810,7 @@
       <c r="N49" s="26"/>
       <c r="O49" s="18"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="50" spans="1:15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="20"/>
@@ -6727,7 +7827,7 @@
       <c r="N50" s="26"/>
       <c r="O50" s="18"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="51" spans="1:15">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="20"/>
@@ -6744,7 +7844,7 @@
       <c r="N51" s="26"/>
       <c r="O51" s="18"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="52" spans="1:15">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="20"/>
@@ -6761,7 +7861,7 @@
       <c r="N52" s="26"/>
       <c r="O52" s="18"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="53" spans="1:15">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="20"/>
@@ -6778,7 +7878,7 @@
       <c r="N53" s="26"/>
       <c r="O53" s="18"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="54" spans="1:15">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="20"/>
@@ -6795,7 +7895,7 @@
       <c r="N54" s="26"/>
       <c r="O54" s="18"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="55" spans="1:15">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="20"/>
@@ -6812,7 +7912,7 @@
       <c r="N55" s="26"/>
       <c r="O55" s="18"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="56" spans="1:15">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="20"/>
@@ -6829,7 +7929,7 @@
       <c r="N56" s="26"/>
       <c r="O56" s="18"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="57" spans="1:15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="20"/>
@@ -6846,7 +7946,7 @@
       <c r="N57" s="26"/>
       <c r="O57" s="18"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="58" spans="1:15">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="20"/>
@@ -6863,7 +7963,7 @@
       <c r="N58" s="26"/>
       <c r="O58" s="18"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="59" spans="1:15">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="20"/>
@@ -6880,7 +7980,7 @@
       <c r="N59" s="26"/>
       <c r="O59" s="18"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="60" spans="1:15">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="20"/>
@@ -6897,7 +7997,7 @@
       <c r="N60" s="26"/>
       <c r="O60" s="18"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="61" spans="1:15">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="20"/>
@@ -6914,7 +8014,7 @@
       <c r="N61" s="26"/>
       <c r="O61" s="18"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="62" spans="1:15">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="20"/>
@@ -6931,7 +8031,7 @@
       <c r="N62" s="26"/>
       <c r="O62" s="18"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="63" spans="1:15">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="20"/>
@@ -6948,7 +8048,7 @@
       <c r="N63" s="26"/>
       <c r="O63" s="18"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="64" spans="1:15">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="20"/>
@@ -6965,7 +8065,7 @@
       <c r="N64" s="26"/>
       <c r="O64" s="18"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="65" spans="1:15">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="20"/>
@@ -6982,7 +8082,7 @@
       <c r="N65" s="26"/>
       <c r="O65" s="18"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="66" spans="1:15">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="20"/>
@@ -6999,7 +8099,7 @@
       <c r="N66" s="26"/>
       <c r="O66" s="18"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="67" spans="1:15">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="20"/>
@@ -7016,7 +8116,7 @@
       <c r="N67" s="26"/>
       <c r="O67" s="18"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="68" spans="1:15">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="20"/>
@@ -7033,7 +8133,7 @@
       <c r="N68" s="26"/>
       <c r="O68" s="18"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="69" spans="1:15">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="20"/>
@@ -7050,7 +8150,7 @@
       <c r="N69" s="26"/>
       <c r="O69" s="18"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="70" spans="1:15">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="20"/>
@@ -7067,7 +8167,7 @@
       <c r="N70" s="26"/>
       <c r="O70" s="18"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="71" spans="1:15">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="20"/>
@@ -7084,7 +8184,7 @@
       <c r="N71" s="26"/>
       <c r="O71" s="18"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="72" spans="1:15">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="20"/>
@@ -7101,7 +8201,7 @@
       <c r="N72" s="26"/>
       <c r="O72" s="18"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="73" spans="1:15">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="20"/>
@@ -7118,7 +8218,7 @@
       <c r="N73" s="26"/>
       <c r="O73" s="18"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="74" spans="1:15">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="20"/>
@@ -7135,7 +8235,7 @@
       <c r="N74" s="26"/>
       <c r="O74" s="18"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="75" spans="1:15">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="20"/>
@@ -7152,7 +8252,7 @@
       <c r="N75" s="26"/>
       <c r="O75" s="18"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="76" spans="1:15">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="20"/>
@@ -7169,7 +8269,7 @@
       <c r="N76" s="26"/>
       <c r="O76" s="18"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="77" spans="1:15">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="20"/>
@@ -7186,7 +8286,7 @@
       <c r="N77" s="26"/>
       <c r="O77" s="18"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="78" spans="1:15">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="20"/>
@@ -7203,7 +8303,7 @@
       <c r="N78" s="26"/>
       <c r="O78" s="18"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="79" spans="1:15">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="20"/>
@@ -7220,7 +8320,7 @@
       <c r="N79" s="26"/>
       <c r="O79" s="18"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="80" spans="1:15">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="20"/>
@@ -7237,7 +8337,7 @@
       <c r="N80" s="26"/>
       <c r="O80" s="18"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="81" spans="1:15">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="20"/>
@@ -7254,7 +8354,7 @@
       <c r="N81" s="26"/>
       <c r="O81" s="18"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="82" spans="1:15">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="20"/>
@@ -7271,7 +8371,7 @@
       <c r="N82" s="26"/>
       <c r="O82" s="18"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="83" spans="1:15">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="20"/>
@@ -7288,7 +8388,7 @@
       <c r="N83" s="26"/>
       <c r="O83" s="18"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="84" spans="1:15">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="20"/>
@@ -7305,7 +8405,7 @@
       <c r="N84" s="26"/>
       <c r="O84" s="18"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="85" spans="1:15">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="20"/>
@@ -7322,7 +8422,7 @@
       <c r="N85" s="26"/>
       <c r="O85" s="18"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="86" spans="1:15">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="20"/>
@@ -7339,7 +8439,7 @@
       <c r="N86" s="26"/>
       <c r="O86" s="18"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="87" spans="1:15">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="20"/>
@@ -7356,7 +8456,7 @@
       <c r="N87" s="26"/>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="88" spans="1:15">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="20"/>
@@ -7373,7 +8473,7 @@
       <c r="N88" s="26"/>
       <c r="O88" s="18"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="89" spans="1:15">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="20"/>
@@ -7390,7 +8490,7 @@
       <c r="N89" s="26"/>
       <c r="O89" s="18"/>
     </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="90" spans="1:15">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="20"/>
@@ -7407,7 +8507,7 @@
       <c r="N90" s="26"/>
       <c r="O90" s="18"/>
     </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="91" spans="1:15">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="20"/>
@@ -7424,7 +8524,7 @@
       <c r="N91" s="26"/>
       <c r="O91" s="18"/>
     </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="92" spans="1:15">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="20"/>
@@ -7441,7 +8541,7 @@
       <c r="N92" s="26"/>
       <c r="O92" s="18"/>
     </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="93" spans="1:15">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="20"/>
@@ -7458,7 +8558,7 @@
       <c r="N93" s="26"/>
       <c r="O93" s="18"/>
     </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="94" spans="1:15">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="20"/>
@@ -7475,7 +8575,7 @@
       <c r="N94" s="26"/>
       <c r="O94" s="18"/>
     </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="95" spans="1:15">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="20"/>
@@ -7492,7 +8592,7 @@
       <c r="N95" s="26"/>
       <c r="O95" s="18"/>
     </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="96" spans="1:15">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="20"/>
@@ -7509,7 +8609,7 @@
       <c r="N96" s="26"/>
       <c r="O96" s="18"/>
     </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="97" spans="1:15">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="20"/>
@@ -7526,7 +8626,7 @@
       <c r="N97" s="26"/>
       <c r="O97" s="18"/>
     </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="98" spans="1:15">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="20"/>
@@ -7543,7 +8643,7 @@
       <c r="N98" s="26"/>
       <c r="O98" s="18"/>
     </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="99" spans="1:15">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="20"/>
@@ -7560,7 +8660,7 @@
       <c r="N99" s="26"/>
       <c r="O99" s="18"/>
     </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="100" spans="1:15">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="20"/>
@@ -7577,7 +8677,7 @@
       <c r="N100" s="26"/>
       <c r="O100" s="18"/>
     </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="101" spans="1:15">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="20"/>
@@ -7594,7 +8694,7 @@
       <c r="N101" s="26"/>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="102" spans="1:15">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="20"/>
@@ -7611,7 +8711,7 @@
       <c r="N102" s="26"/>
       <c r="O102" s="18"/>
     </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="103" spans="1:15">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="20"/>
@@ -7628,7 +8728,7 @@
       <c r="N103" s="26"/>
       <c r="O103" s="18"/>
     </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="104" spans="1:15">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="20"/>
@@ -7645,7 +8745,7 @@
       <c r="N104" s="26"/>
       <c r="O104" s="18"/>
     </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="105" spans="1:15">
       <c r="A105" s="15"/>
       <c r="B105" s="16"/>
       <c r="C105" s="20"/>
@@ -7662,7 +8762,7 @@
       <c r="N105" s="26"/>
       <c r="O105" s="18"/>
     </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="106" spans="1:15">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="20"/>
@@ -7679,7 +8779,7 @@
       <c r="N106" s="26"/>
       <c r="O106" s="18"/>
     </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="107" spans="1:15">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="20"/>
@@ -7696,7 +8796,7 @@
       <c r="N107" s="26"/>
       <c r="O107" s="18"/>
     </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="108" spans="1:15">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="20"/>
@@ -7713,7 +8813,7 @@
       <c r="N108" s="26"/>
       <c r="O108" s="18"/>
     </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="109" spans="1:15">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="20"/>
@@ -7730,7 +8830,7 @@
       <c r="N109" s="26"/>
       <c r="O109" s="18"/>
     </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="110" spans="1:15">
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="20"/>
@@ -7747,7 +8847,7 @@
       <c r="N110" s="26"/>
       <c r="O110" s="18"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="111" spans="1:15">
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="20"/>
@@ -7764,7 +8864,7 @@
       <c r="N111" s="26"/>
       <c r="O111" s="18"/>
     </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="112" spans="1:15">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="20"/>
@@ -7781,7 +8881,7 @@
       <c r="N112" s="26"/>
       <c r="O112" s="18"/>
     </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="113" spans="1:15">
       <c r="A113" s="15"/>
       <c r="B113" s="16"/>
       <c r="C113" s="20"/>
@@ -7798,7 +8898,7 @@
       <c r="N113" s="26"/>
       <c r="O113" s="18"/>
     </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="114" spans="1:15">
       <c r="A114" s="15"/>
       <c r="B114" s="16"/>
       <c r="C114" s="20"/>
@@ -7815,7 +8915,7 @@
       <c r="N114" s="26"/>
       <c r="O114" s="18"/>
     </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="115" spans="1:15">
       <c r="A115" s="15"/>
       <c r="B115" s="16"/>
       <c r="C115" s="20"/>
@@ -7832,7 +8932,7 @@
       <c r="N115" s="26"/>
       <c r="O115" s="18"/>
     </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="116" spans="1:15">
       <c r="A116" s="15"/>
       <c r="B116" s="16"/>
       <c r="C116" s="20"/>
@@ -7849,7 +8949,7 @@
       <c r="N116" s="26"/>
       <c r="O116" s="18"/>
     </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="117" spans="1:15">
       <c r="A117" s="15"/>
       <c r="B117" s="16"/>
       <c r="C117" s="20"/>
@@ -7866,7 +8966,7 @@
       <c r="N117" s="26"/>
       <c r="O117" s="18"/>
     </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="118" spans="1:15">
       <c r="A118" s="15"/>
       <c r="B118" s="16"/>
       <c r="C118" s="20"/>
@@ -7883,7 +8983,7 @@
       <c r="N118" s="26"/>
       <c r="O118" s="18"/>
     </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="119" spans="1:15">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="20"/>
@@ -7900,7 +9000,7 @@
       <c r="N119" s="26"/>
       <c r="O119" s="18"/>
     </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="120" spans="1:15">
       <c r="A120" s="15"/>
       <c r="B120" s="16"/>
       <c r="C120" s="20"/>
@@ -7917,7 +9017,7 @@
       <c r="N120" s="26"/>
       <c r="O120" s="18"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="121" spans="1:15">
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="20"/>
@@ -7934,7 +9034,7 @@
       <c r="N121" s="26"/>
       <c r="O121" s="18"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="122" spans="1:15">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
       <c r="C122" s="20"/>
@@ -7951,7 +9051,7 @@
       <c r="N122" s="26"/>
       <c r="O122" s="18"/>
     </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="123" spans="1:15">
       <c r="A123" s="15"/>
       <c r="B123" s="16"/>
       <c r="C123" s="20"/>
@@ -7968,7 +9068,7 @@
       <c r="N123" s="26"/>
       <c r="O123" s="18"/>
     </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="124" spans="1:15">
       <c r="A124" s="15"/>
       <c r="B124" s="16"/>
       <c r="C124" s="20"/>
@@ -7985,7 +9085,7 @@
       <c r="N124" s="26"/>
       <c r="O124" s="18"/>
     </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="125" spans="1:15">
       <c r="A125" s="15"/>
       <c r="B125" s="16"/>
       <c r="C125" s="20"/>
@@ -8002,7 +9102,7 @@
       <c r="N125" s="26"/>
       <c r="O125" s="18"/>
     </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="126" spans="1:15">
       <c r="A126" s="15"/>
       <c r="B126" s="16"/>
       <c r="C126" s="20"/>
@@ -8019,7 +9119,7 @@
       <c r="N126" s="26"/>
       <c r="O126" s="18"/>
     </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="127" spans="1:15">
       <c r="A127" s="15"/>
       <c r="B127" s="16"/>
       <c r="C127" s="20"/>
@@ -8036,7 +9136,7 @@
       <c r="N127" s="26"/>
       <c r="O127" s="18"/>
     </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="128" spans="1:15">
       <c r="A128" s="15"/>
       <c r="B128" s="16"/>
       <c r="C128" s="20"/>
@@ -8053,7 +9153,7 @@
       <c r="N128" s="26"/>
       <c r="O128" s="18"/>
     </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="129" spans="1:15">
       <c r="A129" s="15"/>
       <c r="B129" s="16"/>
       <c r="C129" s="20"/>
@@ -8070,7 +9170,7 @@
       <c r="N129" s="26"/>
       <c r="O129" s="18"/>
     </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="130" spans="1:15">
       <c r="A130" s="15"/>
       <c r="B130" s="16"/>
       <c r="C130" s="20"/>
@@ -8087,7 +9187,7 @@
       <c r="N130" s="26"/>
       <c r="O130" s="18"/>
     </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="131" spans="1:15">
       <c r="A131" s="15"/>
       <c r="B131" s="16"/>
       <c r="C131" s="20"/>
@@ -8104,7 +9204,7 @@
       <c r="N131" s="26"/>
       <c r="O131" s="18"/>
     </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="132" spans="1:15">
       <c r="A132" s="15"/>
       <c r="B132" s="16"/>
       <c r="C132" s="20"/>
@@ -8121,7 +9221,7 @@
       <c r="N132" s="26"/>
       <c r="O132" s="18"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="133" spans="1:15">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="20"/>
@@ -8138,7 +9238,7 @@
       <c r="N133" s="26"/>
       <c r="O133" s="18"/>
     </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="134" spans="1:15">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="20"/>
@@ -8155,7 +9255,7 @@
       <c r="N134" s="26"/>
       <c r="O134" s="18"/>
     </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="135" spans="1:15">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="20"/>
@@ -8172,7 +9272,7 @@
       <c r="N135" s="26"/>
       <c r="O135" s="18"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="136" spans="1:15">
       <c r="A136" s="15"/>
       <c r="B136" s="16"/>
       <c r="C136" s="20"/>
@@ -8189,7 +9289,7 @@
       <c r="N136" s="26"/>
       <c r="O136" s="18"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="137" spans="1:15">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="20"/>
@@ -8206,7 +9306,7 @@
       <c r="N137" s="26"/>
       <c r="O137" s="18"/>
     </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="138" spans="1:15">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="20"/>
@@ -8223,7 +9323,7 @@
       <c r="N138" s="26"/>
       <c r="O138" s="18"/>
     </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="139" spans="1:15">
       <c r="A139" s="15"/>
       <c r="B139" s="16"/>
       <c r="C139" s="20"/>
@@ -8240,7 +9340,7 @@
       <c r="N139" s="26"/>
       <c r="O139" s="18"/>
     </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="140" spans="1:15">
       <c r="A140" s="15"/>
       <c r="B140" s="16"/>
       <c r="C140" s="20"/>
@@ -8257,7 +9357,7 @@
       <c r="N140" s="26"/>
       <c r="O140" s="18"/>
     </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="141" spans="1:15">
       <c r="A141" s="15"/>
       <c r="B141" s="16"/>
       <c r="C141" s="20"/>
@@ -8274,7 +9374,7 @@
       <c r="N141" s="26"/>
       <c r="O141" s="18"/>
     </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="142" spans="1:15">
       <c r="A142" s="15"/>
       <c r="B142" s="16"/>
       <c r="C142" s="20"/>
@@ -8291,7 +9391,7 @@
       <c r="N142" s="26"/>
       <c r="O142" s="18"/>
     </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="143" spans="1:15">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="20"/>
@@ -8308,7 +9408,7 @@
       <c r="N143" s="26"/>
       <c r="O143" s="18"/>
     </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="144" spans="1:15">
       <c r="A144" s="15"/>
       <c r="B144" s="16"/>
       <c r="C144" s="20"/>
@@ -8325,7 +9425,7 @@
       <c r="N144" s="26"/>
       <c r="O144" s="18"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="145" spans="1:15">
       <c r="A145" s="15"/>
       <c r="B145" s="16"/>
       <c r="C145" s="20"/>
@@ -8342,7 +9442,7 @@
       <c r="N145" s="26"/>
       <c r="O145" s="18"/>
     </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="146" spans="1:15">
       <c r="A146" s="15"/>
       <c r="B146" s="16"/>
       <c r="C146" s="20"/>
@@ -8359,7 +9459,7 @@
       <c r="N146" s="26"/>
       <c r="O146" s="18"/>
     </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="147" spans="1:15">
       <c r="A147" s="15"/>
       <c r="B147" s="16"/>
       <c r="C147" s="20"/>
@@ -8376,7 +9476,7 @@
       <c r="N147" s="26"/>
       <c r="O147" s="18"/>
     </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="148" spans="1:15">
       <c r="A148" s="15"/>
       <c r="B148" s="16"/>
       <c r="C148" s="20"/>
@@ -8393,7 +9493,7 @@
       <c r="N148" s="26"/>
       <c r="O148" s="18"/>
     </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="149" spans="1:15">
       <c r="A149" s="15"/>
       <c r="B149" s="16"/>
       <c r="C149" s="20"/>
@@ -8410,7 +9510,7 @@
       <c r="N149" s="26"/>
       <c r="O149" s="18"/>
     </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="150" spans="1:15">
       <c r="A150" s="15"/>
       <c r="B150" s="16"/>
       <c r="C150" s="20"/>
@@ -8427,7 +9527,7 @@
       <c r="N150" s="26"/>
       <c r="O150" s="18"/>
     </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="151" spans="1:15">
       <c r="A151" s="15"/>
       <c r="B151" s="16"/>
       <c r="C151" s="20"/>
@@ -8444,7 +9544,7 @@
       <c r="N151" s="26"/>
       <c r="O151" s="18"/>
     </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="152" spans="1:15">
       <c r="A152" s="15"/>
       <c r="B152" s="16"/>
       <c r="C152" s="20"/>
@@ -8461,7 +9561,7 @@
       <c r="N152" s="26"/>
       <c r="O152" s="18"/>
     </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="153" spans="1:15">
       <c r="A153" s="15"/>
       <c r="B153" s="16"/>
       <c r="C153" s="20"/>
@@ -8478,7 +9578,7 @@
       <c r="N153" s="26"/>
       <c r="O153" s="18"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="154" spans="1:15">
       <c r="A154" s="15"/>
       <c r="B154" s="16"/>
       <c r="C154" s="20"/>
@@ -8495,7 +9595,7 @@
       <c r="N154" s="26"/>
       <c r="O154" s="18"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="155" spans="1:15">
       <c r="A155" s="15"/>
       <c r="B155" s="16"/>
       <c r="C155" s="20"/>
@@ -8512,7 +9612,7 @@
       <c r="N155" s="26"/>
       <c r="O155" s="18"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="156" spans="1:15">
       <c r="A156" s="15"/>
       <c r="B156" s="16"/>
       <c r="C156" s="20"/>
@@ -8529,7 +9629,7 @@
       <c r="N156" s="26"/>
       <c r="O156" s="18"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="157" spans="1:15">
       <c r="A157" s="15"/>
       <c r="B157" s="16"/>
       <c r="C157" s="20"/>
@@ -8546,7 +9646,7 @@
       <c r="N157" s="26"/>
       <c r="O157" s="18"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="158" spans="1:15">
       <c r="A158" s="15"/>
       <c r="B158" s="16"/>
       <c r="C158" s="20"/>
@@ -8563,7 +9663,7 @@
       <c r="N158" s="26"/>
       <c r="O158" s="18"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="159" spans="1:15">
       <c r="A159" s="15"/>
       <c r="B159" s="16"/>
       <c r="C159" s="20"/>
@@ -8580,7 +9680,7 @@
       <c r="N159" s="26"/>
       <c r="O159" s="18"/>
     </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="160" spans="1:15">
       <c r="A160" s="15"/>
       <c r="B160" s="16"/>
       <c r="C160" s="20"/>
@@ -8597,7 +9697,7 @@
       <c r="N160" s="26"/>
       <c r="O160" s="18"/>
     </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="161" spans="1:15">
       <c r="A161" s="15"/>
       <c r="B161" s="16"/>
       <c r="C161" s="20"/>
@@ -8614,7 +9714,7 @@
       <c r="N161" s="26"/>
       <c r="O161" s="18"/>
     </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="162" spans="1:15">
       <c r="A162" s="15"/>
       <c r="B162" s="16"/>
       <c r="C162" s="20"/>
@@ -8631,7 +9731,7 @@
       <c r="N162" s="26"/>
       <c r="O162" s="18"/>
     </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="163" spans="1:15">
       <c r="A163" s="15"/>
       <c r="B163" s="16"/>
       <c r="C163" s="20"/>
@@ -8648,7 +9748,7 @@
       <c r="N163" s="26"/>
       <c r="O163" s="18"/>
     </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="164" spans="1:15">
       <c r="A164" s="15"/>
       <c r="B164" s="16"/>
       <c r="C164" s="20"/>
@@ -8665,7 +9765,7 @@
       <c r="N164" s="26"/>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="165" spans="1:15">
       <c r="A165" s="15"/>
       <c r="B165" s="16"/>
       <c r="C165" s="20"/>
@@ -8682,7 +9782,7 @@
       <c r="N165" s="26"/>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="166" spans="1:15">
       <c r="A166" s="15"/>
       <c r="B166" s="16"/>
       <c r="C166" s="20"/>
@@ -8699,7 +9799,7 @@
       <c r="N166" s="26"/>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="167" spans="1:15">
       <c r="A167" s="15"/>
       <c r="B167" s="16"/>
       <c r="C167" s="20"/>
@@ -8716,7 +9816,7 @@
       <c r="N167" s="26"/>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="168" spans="1:15">
       <c r="A168" s="15"/>
       <c r="B168" s="16"/>
       <c r="C168" s="20"/>
@@ -8733,7 +9833,7 @@
       <c r="N168" s="26"/>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="169" spans="1:15">
       <c r="A169" s="15"/>
       <c r="B169" s="16"/>
       <c r="C169" s="20"/>
@@ -8750,7 +9850,7 @@
       <c r="N169" s="26"/>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="170" spans="1:15">
       <c r="A170" s="15"/>
       <c r="B170" s="16"/>
       <c r="C170" s="20"/>
@@ -8767,7 +9867,7 @@
       <c r="N170" s="26"/>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="171" spans="1:15">
       <c r="A171" s="15"/>
       <c r="B171" s="16"/>
       <c r="C171" s="20"/>
@@ -8784,7 +9884,7 @@
       <c r="N171" s="26"/>
       <c r="O171" s="18"/>
     </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="172" spans="1:15">
       <c r="A172" s="15"/>
       <c r="B172" s="16"/>
       <c r="C172" s="20"/>
@@ -8801,7 +9901,7 @@
       <c r="N172" s="26"/>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="173" spans="1:15">
       <c r="A173" s="15"/>
       <c r="B173" s="16"/>
       <c r="C173" s="20"/>
@@ -8818,7 +9918,7 @@
       <c r="N173" s="26"/>
       <c r="O173" s="18"/>
     </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="174" spans="1:15">
       <c r="A174" s="15"/>
       <c r="B174" s="16"/>
       <c r="C174" s="20"/>
@@ -8835,7 +9935,7 @@
       <c r="N174" s="26"/>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="175" spans="1:15">
       <c r="A175" s="15"/>
       <c r="B175" s="16"/>
       <c r="C175" s="20"/>
@@ -8852,7 +9952,7 @@
       <c r="N175" s="26"/>
       <c r="O175" s="18"/>
     </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="176" spans="1:15">
       <c r="A176" s="15"/>
       <c r="B176" s="16"/>
       <c r="C176" s="20"/>
@@ -8869,7 +9969,7 @@
       <c r="N176" s="26"/>
       <c r="O176" s="18"/>
     </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="177" spans="1:15">
       <c r="A177" s="15"/>
       <c r="B177" s="16"/>
       <c r="C177" s="20"/>
@@ -8886,7 +9986,7 @@
       <c r="N177" s="26"/>
       <c r="O177" s="18"/>
     </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="178" spans="1:15">
       <c r="A178" s="15"/>
       <c r="B178" s="16"/>
       <c r="C178" s="20"/>
@@ -8903,7 +10003,7 @@
       <c r="N178" s="26"/>
       <c r="O178" s="18"/>
     </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="179" spans="1:15">
       <c r="A179" s="15"/>
       <c r="B179" s="16"/>
       <c r="C179" s="20"/>
@@ -8920,7 +10020,7 @@
       <c r="N179" s="26"/>
       <c r="O179" s="18"/>
     </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="180" spans="1:15">
       <c r="A180" s="15"/>
       <c r="B180" s="16"/>
       <c r="C180" s="20"/>
@@ -8937,7 +10037,7 @@
       <c r="N180" s="26"/>
       <c r="O180" s="18"/>
     </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="181" spans="1:15">
       <c r="A181" s="15"/>
       <c r="B181" s="16"/>
       <c r="C181" s="20"/>
@@ -8954,7 +10054,7 @@
       <c r="N181" s="26"/>
       <c r="O181" s="18"/>
     </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="182" spans="1:15">
       <c r="A182" s="15"/>
       <c r="B182" s="16"/>
       <c r="C182" s="20"/>
@@ -8971,7 +10071,7 @@
       <c r="N182" s="26"/>
       <c r="O182" s="18"/>
     </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="183" spans="1:15">
       <c r="A183" s="15"/>
       <c r="B183" s="16"/>
       <c r="C183" s="20"/>
@@ -8988,7 +10088,7 @@
       <c r="N183" s="26"/>
       <c r="O183" s="18"/>
     </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="184" spans="1:15">
       <c r="A184" s="15"/>
       <c r="B184" s="16"/>
       <c r="C184" s="20"/>
@@ -9005,7 +10105,7 @@
       <c r="N184" s="26"/>
       <c r="O184" s="18"/>
     </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="185" spans="1:15">
       <c r="A185" s="15"/>
       <c r="B185" s="16"/>
       <c r="C185" s="20"/>
@@ -9022,7 +10122,7 @@
       <c r="N185" s="26"/>
       <c r="O185" s="18"/>
     </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="186" spans="1:15">
       <c r="A186" s="15"/>
       <c r="B186" s="16"/>
       <c r="C186" s="20"/>
@@ -9039,7 +10139,7 @@
       <c r="N186" s="26"/>
       <c r="O186" s="18"/>
     </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="187" spans="1:15">
       <c r="A187" s="15"/>
       <c r="B187" s="16"/>
       <c r="C187" s="20"/>
@@ -9056,7 +10156,7 @@
       <c r="N187" s="26"/>
       <c r="O187" s="18"/>
     </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="188" spans="1:15">
       <c r="A188" s="15"/>
       <c r="B188" s="16"/>
       <c r="C188" s="20"/>
@@ -9073,7 +10173,7 @@
       <c r="N188" s="26"/>
       <c r="O188" s="18"/>
     </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="189" spans="1:15">
       <c r="A189" s="15"/>
       <c r="B189" s="16"/>
       <c r="C189" s="20"/>
@@ -9090,7 +10190,7 @@
       <c r="N189" s="26"/>
       <c r="O189" s="18"/>
     </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="190" spans="1:15">
       <c r="A190" s="15"/>
       <c r="B190" s="16"/>
       <c r="C190" s="20"/>
@@ -9107,7 +10207,7 @@
       <c r="N190" s="26"/>
       <c r="O190" s="18"/>
     </row>
-    <row r="191" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="191" spans="1:15">
       <c r="A191" s="15"/>
       <c r="B191" s="16"/>
       <c r="C191" s="20"/>
@@ -9124,7 +10224,7 @@
       <c r="N191" s="26"/>
       <c r="O191" s="18"/>
     </row>
-    <row r="192" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="192" spans="1:15">
       <c r="A192" s="15"/>
       <c r="B192" s="16"/>
       <c r="C192" s="20"/>
@@ -9141,7 +10241,7 @@
       <c r="N192" s="26"/>
       <c r="O192" s="18"/>
     </row>
-    <row r="193" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="193" spans="1:15">
       <c r="A193" s="15"/>
       <c r="B193" s="16"/>
       <c r="C193" s="20"/>
@@ -9158,7 +10258,7 @@
       <c r="N193" s="26"/>
       <c r="O193" s="18"/>
     </row>
-    <row r="194" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="194" spans="1:15">
       <c r="A194" s="15"/>
       <c r="B194" s="16"/>
       <c r="C194" s="20"/>
@@ -9175,7 +10275,7 @@
       <c r="N194" s="26"/>
       <c r="O194" s="18"/>
     </row>
-    <row r="195" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="195" spans="1:15">
       <c r="A195" s="15"/>
       <c r="B195" s="16"/>
       <c r="C195" s="20"/>
@@ -9192,7 +10292,7 @@
       <c r="N195" s="26"/>
       <c r="O195" s="18"/>
     </row>
-    <row r="196" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="196" spans="1:15">
       <c r="A196" s="15"/>
       <c r="B196" s="16"/>
       <c r="C196" s="20"/>
@@ -9209,7 +10309,7 @@
       <c r="N196" s="26"/>
       <c r="O196" s="18"/>
     </row>
-    <row r="197" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="197" spans="1:15">
       <c r="A197" s="15"/>
       <c r="B197" s="16"/>
       <c r="C197" s="20"/>
@@ -9226,7 +10326,7 @@
       <c r="N197" s="26"/>
       <c r="O197" s="18"/>
     </row>
-    <row r="198" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="198" spans="1:15">
       <c r="A198" s="15"/>
       <c r="B198" s="16"/>
       <c r="C198" s="20"/>
@@ -9243,7 +10343,7 @@
       <c r="N198" s="26"/>
       <c r="O198" s="18"/>
     </row>
-    <row r="199" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="199" spans="1:15">
       <c r="A199" s="15"/>
       <c r="B199" s="16"/>
       <c r="C199" s="20"/>
@@ -9260,7 +10360,7 @@
       <c r="N199" s="26"/>
       <c r="O199" s="18"/>
     </row>
-    <row r="200" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="200" spans="1:15">
       <c r="A200" s="15"/>
       <c r="B200" s="16"/>
       <c r="C200" s="20"/>
@@ -9277,7 +10377,7 @@
       <c r="N200" s="26"/>
       <c r="O200" s="18"/>
     </row>
-    <row r="201" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="201" spans="1:15">
       <c r="A201" s="15"/>
       <c r="B201" s="16"/>
       <c r="C201" s="20"/>
@@ -9294,7 +10394,7 @@
       <c r="N201" s="26"/>
       <c r="O201" s="18"/>
     </row>
-    <row r="202" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="202" spans="1:15">
       <c r="A202" s="15"/>
       <c r="B202" s="16"/>
       <c r="C202" s="20"/>
@@ -9311,7 +10411,7 @@
       <c r="N202" s="26"/>
       <c r="O202" s="18"/>
     </row>
-    <row r="203" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="203" spans="1:15">
       <c r="A203" s="15"/>
       <c r="B203" s="16"/>
       <c r="C203" s="20"/>
@@ -9328,7 +10428,7 @@
       <c r="N203" s="26"/>
       <c r="O203" s="18"/>
     </row>
-    <row r="204" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="204" spans="1:15">
       <c r="A204" s="15"/>
       <c r="B204" s="16"/>
       <c r="C204" s="20"/>
@@ -9345,7 +10445,7 @@
       <c r="N204" s="26"/>
       <c r="O204" s="18"/>
     </row>
-    <row r="205" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="205" spans="1:15">
       <c r="A205" s="15"/>
       <c r="B205" s="16"/>
       <c r="C205" s="20"/>
@@ -9362,7 +10462,7 @@
       <c r="N205" s="26"/>
       <c r="O205" s="18"/>
     </row>
-    <row r="206" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="206" spans="1:15">
       <c r="A206" s="15"/>
       <c r="B206" s="16"/>
       <c r="C206" s="20"/>
@@ -9379,7 +10479,7 @@
       <c r="N206" s="26"/>
       <c r="O206" s="18"/>
     </row>
-    <row r="207" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="207" spans="1:15">
       <c r="A207" s="15"/>
       <c r="B207" s="16"/>
       <c r="C207" s="20"/>
@@ -9396,7 +10496,7 @@
       <c r="N207" s="26"/>
       <c r="O207" s="18"/>
     </row>
-    <row r="208" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="208" spans="1:15">
       <c r="A208" s="15"/>
       <c r="B208" s="16"/>
       <c r="C208" s="20"/>
@@ -9413,7 +10513,7 @@
       <c r="N208" s="26"/>
       <c r="O208" s="18"/>
     </row>
-    <row r="209" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="209" spans="1:15">
       <c r="A209" s="15"/>
       <c r="B209" s="16"/>
       <c r="C209" s="20"/>
@@ -9430,7 +10530,7 @@
       <c r="N209" s="26"/>
       <c r="O209" s="18"/>
     </row>
-    <row r="210" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="210" spans="1:15">
       <c r="A210" s="15"/>
       <c r="B210" s="16"/>
       <c r="C210" s="20"/>
@@ -9447,7 +10547,7 @@
       <c r="N210" s="26"/>
       <c r="O210" s="18"/>
     </row>
-    <row r="211" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="211" spans="1:15">
       <c r="A211" s="15"/>
       <c r="B211" s="16"/>
       <c r="C211" s="20"/>
@@ -9464,7 +10564,7 @@
       <c r="N211" s="26"/>
       <c r="O211" s="18"/>
     </row>
-    <row r="212" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="212" spans="1:15">
       <c r="A212" s="15"/>
       <c r="B212" s="16"/>
       <c r="C212" s="20"/>
@@ -9481,7 +10581,7 @@
       <c r="N212" s="26"/>
       <c r="O212" s="18"/>
     </row>
-    <row r="213" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="213" spans="1:15">
       <c r="A213" s="15"/>
       <c r="B213" s="16"/>
       <c r="C213" s="20"/>
@@ -9498,7 +10598,7 @@
       <c r="N213" s="26"/>
       <c r="O213" s="18"/>
     </row>
-    <row r="214" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="214" spans="1:15">
       <c r="A214" s="15"/>
       <c r="B214" s="16"/>
       <c r="C214" s="20"/>
@@ -9515,7 +10615,7 @@
       <c r="N214" s="26"/>
       <c r="O214" s="18"/>
     </row>
-    <row r="215" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="215" spans="1:15">
       <c r="A215" s="15"/>
       <c r="B215" s="16"/>
       <c r="C215" s="20"/>
@@ -9532,7 +10632,7 @@
       <c r="N215" s="26"/>
       <c r="O215" s="18"/>
     </row>
-    <row r="216" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="216" spans="1:15">
       <c r="A216" s="15"/>
       <c r="B216" s="16"/>
       <c r="C216" s="20"/>
@@ -9549,7 +10649,7 @@
       <c r="N216" s="26"/>
       <c r="O216" s="18"/>
     </row>
-    <row r="217" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="217" spans="1:15">
       <c r="A217" s="15"/>
       <c r="B217" s="16"/>
       <c r="C217" s="20"/>
@@ -9566,7 +10666,7 @@
       <c r="N217" s="26"/>
       <c r="O217" s="18"/>
     </row>
-    <row r="218" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="218" spans="1:15">
       <c r="A218" s="15"/>
       <c r="B218" s="16"/>
       <c r="C218" s="20"/>
@@ -9583,7 +10683,7 @@
       <c r="N218" s="26"/>
       <c r="O218" s="18"/>
     </row>
-    <row r="219" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="219" spans="1:15">
       <c r="A219" s="15"/>
       <c r="B219" s="16"/>
       <c r="C219" s="20"/>
@@ -9600,7 +10700,7 @@
       <c r="N219" s="26"/>
       <c r="O219" s="18"/>
     </row>
-    <row r="220" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="220" spans="1:15">
       <c r="A220" s="15"/>
       <c r="B220" s="16"/>
       <c r="C220" s="20"/>
@@ -9617,7 +10717,7 @@
       <c r="N220" s="26"/>
       <c r="O220" s="18"/>
     </row>
-    <row r="221" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="221" spans="1:15">
       <c r="A221" s="15"/>
       <c r="B221" s="16"/>
       <c r="C221" s="20"/>
@@ -9634,7 +10734,7 @@
       <c r="N221" s="26"/>
       <c r="O221" s="18"/>
     </row>
-    <row r="222" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="222" spans="1:15">
       <c r="A222" s="15"/>
       <c r="B222" s="16"/>
       <c r="C222" s="20"/>
@@ -9651,7 +10751,7 @@
       <c r="N222" s="26"/>
       <c r="O222" s="18"/>
     </row>
-    <row r="223" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="223" spans="1:15">
       <c r="A223" s="15"/>
       <c r="B223" s="16"/>
       <c r="C223" s="20"/>
@@ -9668,7 +10768,7 @@
       <c r="N223" s="26"/>
       <c r="O223" s="18"/>
     </row>
-    <row r="224" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="224" spans="1:15">
       <c r="A224" s="15"/>
       <c r="B224" s="16"/>
       <c r="C224" s="20"/>
@@ -9685,7 +10785,7 @@
       <c r="N224" s="26"/>
       <c r="O224" s="18"/>
     </row>
-    <row r="225" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="225" spans="1:15">
       <c r="A225" s="15"/>
       <c r="B225" s="16"/>
       <c r="C225" s="20"/>
@@ -9702,7 +10802,7 @@
       <c r="N225" s="26"/>
       <c r="O225" s="18"/>
     </row>
-    <row r="226" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="226" spans="1:15">
       <c r="A226" s="15"/>
       <c r="B226" s="16"/>
       <c r="C226" s="20"/>
@@ -9719,7 +10819,7 @@
       <c r="N226" s="26"/>
       <c r="O226" s="18"/>
     </row>
-    <row r="227" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="227" spans="1:15">
       <c r="A227" s="15"/>
       <c r="B227" s="16"/>
       <c r="C227" s="20"/>
@@ -9736,7 +10836,7 @@
       <c r="N227" s="26"/>
       <c r="O227" s="18"/>
     </row>
-    <row r="228" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="228" spans="1:15">
       <c r="A228" s="15"/>
       <c r="B228" s="16"/>
       <c r="C228" s="20"/>
@@ -9753,7 +10853,7 @@
       <c r="N228" s="26"/>
       <c r="O228" s="18"/>
     </row>
-    <row r="229" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="229" spans="1:15">
       <c r="A229" s="15"/>
       <c r="B229" s="16"/>
       <c r="C229" s="20"/>
@@ -9770,7 +10870,7 @@
       <c r="N229" s="26"/>
       <c r="O229" s="18"/>
     </row>
-    <row r="230" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="230" spans="1:15">
       <c r="A230" s="15"/>
       <c r="B230" s="16"/>
       <c r="C230" s="20"/>
@@ -9787,7 +10887,7 @@
       <c r="N230" s="26"/>
       <c r="O230" s="18"/>
     </row>
-    <row r="231" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="231" spans="1:15">
       <c r="A231" s="15"/>
       <c r="B231" s="16"/>
       <c r="C231" s="20"/>
@@ -9804,7 +10904,7 @@
       <c r="N231" s="26"/>
       <c r="O231" s="18"/>
     </row>
-    <row r="232" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="232" spans="1:15">
       <c r="A232" s="15"/>
       <c r="B232" s="16"/>
       <c r="C232" s="20"/>
@@ -9821,7 +10921,7 @@
       <c r="N232" s="26"/>
       <c r="O232" s="18"/>
     </row>
-    <row r="233" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="233" spans="1:15">
       <c r="A233" s="15"/>
       <c r="B233" s="16"/>
       <c r="C233" s="20"/>
@@ -9838,7 +10938,7 @@
       <c r="N233" s="26"/>
       <c r="O233" s="18"/>
     </row>
-    <row r="234" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="234" spans="1:15">
       <c r="A234" s="15"/>
       <c r="B234" s="16"/>
       <c r="C234" s="20"/>
@@ -9855,7 +10955,7 @@
       <c r="N234" s="26"/>
       <c r="O234" s="18"/>
     </row>
-    <row r="235" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="235" spans="1:15">
       <c r="A235" s="15"/>
       <c r="B235" s="16"/>
       <c r="C235" s="20"/>
@@ -9872,7 +10972,7 @@
       <c r="N235" s="26"/>
       <c r="O235" s="18"/>
     </row>
-    <row r="236" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="236" spans="1:15">
       <c r="A236" s="15"/>
       <c r="B236" s="16"/>
       <c r="C236" s="20"/>
@@ -9889,7 +10989,7 @@
       <c r="N236" s="26"/>
       <c r="O236" s="18"/>
     </row>
-    <row r="237" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="237" spans="1:15">
       <c r="A237" s="15"/>
       <c r="B237" s="16"/>
       <c r="C237" s="20"/>
@@ -9906,7 +11006,7 @@
       <c r="N237" s="26"/>
       <c r="O237" s="18"/>
     </row>
-    <row r="238" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="238" spans="1:15">
       <c r="A238" s="15"/>
       <c r="B238" s="16"/>
       <c r="C238" s="20"/>
@@ -9923,7 +11023,7 @@
       <c r="N238" s="26"/>
       <c r="O238" s="18"/>
     </row>
-    <row r="239" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="239" spans="1:15">
       <c r="A239" s="15"/>
       <c r="B239" s="16"/>
       <c r="C239" s="20"/>
@@ -9940,7 +11040,7 @@
       <c r="N239" s="26"/>
       <c r="O239" s="18"/>
     </row>
-    <row r="240" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="240" spans="1:15">
       <c r="A240" s="15"/>
       <c r="B240" s="16"/>
       <c r="C240" s="20"/>
@@ -9957,7 +11057,7 @@
       <c r="N240" s="26"/>
       <c r="O240" s="18"/>
     </row>
-    <row r="241" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="241" spans="1:15">
       <c r="A241" s="15"/>
       <c r="B241" s="16"/>
       <c r="C241" s="20"/>
@@ -9974,7 +11074,7 @@
       <c r="N241" s="26"/>
       <c r="O241" s="18"/>
     </row>
-    <row r="242" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="242" spans="1:15">
       <c r="A242" s="15"/>
       <c r="B242" s="16"/>
       <c r="C242" s="20"/>
@@ -9991,7 +11091,7 @@
       <c r="N242" s="26"/>
       <c r="O242" s="18"/>
     </row>
-    <row r="243" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="243" spans="1:15">
       <c r="A243" s="15"/>
       <c r="B243" s="16"/>
       <c r="C243" s="20"/>
@@ -10008,7 +11108,7 @@
       <c r="N243" s="26"/>
       <c r="O243" s="18"/>
     </row>
-    <row r="244" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="244" spans="1:15">
       <c r="A244" s="15"/>
       <c r="B244" s="16"/>
       <c r="C244" s="20"/>
@@ -10025,7 +11125,7 @@
       <c r="N244" s="26"/>
       <c r="O244" s="18"/>
     </row>
-    <row r="245" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="245" spans="1:15">
       <c r="A245" s="15"/>
       <c r="B245" s="16"/>
       <c r="C245" s="20"/>
@@ -10042,7 +11142,7 @@
       <c r="N245" s="26"/>
       <c r="O245" s="18"/>
     </row>
-    <row r="246" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="246" spans="1:15">
       <c r="A246" s="15"/>
       <c r="B246" s="16"/>
       <c r="C246" s="20"/>
@@ -10059,7 +11159,7 @@
       <c r="N246" s="26"/>
       <c r="O246" s="18"/>
     </row>
-    <row r="247" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="247" spans="1:15">
       <c r="A247" s="15"/>
       <c r="B247" s="16"/>
       <c r="C247" s="20"/>
@@ -10076,7 +11176,7 @@
       <c r="N247" s="26"/>
       <c r="O247" s="18"/>
     </row>
-    <row r="248" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="248" spans="1:15">
       <c r="A248" s="15"/>
       <c r="B248" s="16"/>
       <c r="C248" s="20"/>
@@ -10093,7 +11193,7 @@
       <c r="N248" s="26"/>
       <c r="O248" s="18"/>
     </row>
-    <row r="249" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="249" spans="1:15">
       <c r="A249" s="15"/>
       <c r="B249" s="16"/>
       <c r="C249" s="20"/>
@@ -10110,7 +11210,7 @@
       <c r="N249" s="26"/>
       <c r="O249" s="18"/>
     </row>
-    <row r="250" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="250" spans="1:15">
       <c r="A250" s="15"/>
       <c r="B250" s="16"/>
       <c r="C250" s="20"/>
@@ -10127,7 +11227,7 @@
       <c r="N250" s="26"/>
       <c r="O250" s="18"/>
     </row>
-    <row r="251" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="251" spans="1:15">
       <c r="A251" s="15"/>
       <c r="B251" s="16"/>
       <c r="C251" s="20"/>
@@ -10144,7 +11244,7 @@
       <c r="N251" s="26"/>
       <c r="O251" s="18"/>
     </row>
-    <row r="252" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="252" spans="1:15">
       <c r="A252" s="15"/>
       <c r="B252" s="16"/>
       <c r="C252" s="20"/>
@@ -10161,7 +11261,7 @@
       <c r="N252" s="26"/>
       <c r="O252" s="18"/>
     </row>
-    <row r="253" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="253" spans="1:15">
       <c r="A253" s="15"/>
       <c r="B253" s="16"/>
       <c r="C253" s="20"/>
@@ -10178,7 +11278,7 @@
       <c r="N253" s="26"/>
       <c r="O253" s="18"/>
     </row>
-    <row r="254" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="254" spans="1:15">
       <c r="A254" s="15"/>
       <c r="B254" s="16"/>
       <c r="C254" s="20"/>
@@ -10195,7 +11295,7 @@
       <c r="N254" s="26"/>
       <c r="O254" s="18"/>
     </row>
-    <row r="255" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="255" spans="1:15">
       <c r="A255" s="15"/>
       <c r="B255" s="16"/>
       <c r="C255" s="20"/>
@@ -10212,7 +11312,7 @@
       <c r="N255" s="26"/>
       <c r="O255" s="18"/>
     </row>
-    <row r="256" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="256" spans="1:15">
       <c r="A256" s="15"/>
       <c r="B256" s="16"/>
       <c r="C256" s="20"/>
@@ -10229,7 +11329,7 @@
       <c r="N256" s="26"/>
       <c r="O256" s="18"/>
     </row>
-    <row r="257" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="257" spans="1:15">
       <c r="A257" s="15"/>
       <c r="B257" s="16"/>
       <c r="C257" s="20"/>
@@ -10246,7 +11346,7 @@
       <c r="N257" s="26"/>
       <c r="O257" s="18"/>
     </row>
-    <row r="258" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="258" spans="1:15">
       <c r="A258" s="15"/>
       <c r="B258" s="16"/>
       <c r="C258" s="20"/>
@@ -10263,7 +11363,7 @@
       <c r="N258" s="26"/>
       <c r="O258" s="18"/>
     </row>
-    <row r="259" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="259" spans="1:15">
       <c r="A259" s="15"/>
       <c r="B259" s="16"/>
       <c r="C259" s="20"/>
@@ -10280,7 +11380,7 @@
       <c r="N259" s="26"/>
       <c r="O259" s="18"/>
     </row>
-    <row r="260" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="260" spans="1:15">
       <c r="A260" s="15"/>
       <c r="B260" s="16"/>
       <c r="C260" s="20"/>
@@ -10297,7 +11397,7 @@
       <c r="N260" s="26"/>
       <c r="O260" s="18"/>
     </row>
-    <row r="261" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="261" spans="1:15">
       <c r="A261" s="15"/>
       <c r="B261" s="16"/>
       <c r="C261" s="20"/>
@@ -10314,7 +11414,7 @@
       <c r="N261" s="26"/>
       <c r="O261" s="18"/>
     </row>
-    <row r="262" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="262" spans="1:15">
       <c r="A262" s="15"/>
       <c r="B262" s="16"/>
       <c r="C262" s="20"/>
@@ -10331,7 +11431,7 @@
       <c r="N262" s="26"/>
       <c r="O262" s="18"/>
     </row>
-    <row r="263" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="263" spans="1:15">
       <c r="A263" s="15"/>
       <c r="B263" s="16"/>
       <c r="C263" s="20"/>
@@ -10348,7 +11448,7 @@
       <c r="N263" s="26"/>
       <c r="O263" s="18"/>
     </row>
-    <row r="264" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="264" spans="1:15">
       <c r="A264" s="15"/>
       <c r="B264" s="16"/>
       <c r="C264" s="20"/>
@@ -10365,7 +11465,7 @@
       <c r="N264" s="26"/>
       <c r="O264" s="18"/>
     </row>
-    <row r="265" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="265" spans="1:15">
       <c r="A265" s="15"/>
       <c r="B265" s="16"/>
       <c r="C265" s="20"/>
@@ -10382,7 +11482,7 @@
       <c r="N265" s="26"/>
       <c r="O265" s="18"/>
     </row>
-    <row r="266" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="266" spans="1:15">
       <c r="A266" s="15"/>
       <c r="B266" s="16"/>
       <c r="C266" s="20"/>
@@ -10399,7 +11499,7 @@
       <c r="N266" s="26"/>
       <c r="O266" s="18"/>
     </row>
-    <row r="267" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="267" spans="1:15">
       <c r="A267" s="15"/>
       <c r="B267" s="16"/>
       <c r="C267" s="20"/>
@@ -10416,7 +11516,7 @@
       <c r="N267" s="26"/>
       <c r="O267" s="18"/>
     </row>
-    <row r="268" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="268" spans="1:15">
       <c r="A268" s="15"/>
       <c r="B268" s="16"/>
       <c r="C268" s="20"/>
@@ -10433,7 +11533,7 @@
       <c r="N268" s="26"/>
       <c r="O268" s="18"/>
     </row>
-    <row r="269" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="269" spans="1:15">
       <c r="A269" s="15"/>
       <c r="B269" s="16"/>
       <c r="C269" s="20"/>
@@ -10450,7 +11550,7 @@
       <c r="N269" s="26"/>
       <c r="O269" s="18"/>
     </row>
-    <row r="270" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="270" spans="1:15">
       <c r="A270" s="15"/>
       <c r="B270" s="16"/>
       <c r="C270" s="20"/>
@@ -10467,7 +11567,7 @@
       <c r="N270" s="26"/>
       <c r="O270" s="18"/>
     </row>
-    <row r="271" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="271" spans="1:15">
       <c r="A271" s="15"/>
       <c r="B271" s="16"/>
       <c r="C271" s="20"/>
@@ -10484,7 +11584,7 @@
       <c r="N271" s="26"/>
       <c r="O271" s="18"/>
     </row>
-    <row r="272" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="272" spans="1:15">
       <c r="A272" s="15"/>
       <c r="B272" s="16"/>
       <c r="C272" s="20"/>
@@ -10501,7 +11601,7 @@
       <c r="N272" s="26"/>
       <c r="O272" s="18"/>
     </row>
-    <row r="273" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="273" spans="1:15">
       <c r="A273" s="15"/>
       <c r="B273" s="16"/>
       <c r="C273" s="20"/>
@@ -10518,7 +11618,7 @@
       <c r="N273" s="26"/>
       <c r="O273" s="18"/>
     </row>
-    <row r="274" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="274" spans="1:15">
       <c r="A274" s="15"/>
       <c r="B274" s="16"/>
       <c r="C274" s="20"/>
@@ -10535,7 +11635,7 @@
       <c r="N274" s="26"/>
       <c r="O274" s="18"/>
     </row>
-    <row r="275" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="275" spans="1:15">
       <c r="A275" s="15"/>
       <c r="B275" s="16"/>
       <c r="C275" s="20"/>
@@ -10552,7 +11652,7 @@
       <c r="N275" s="26"/>
       <c r="O275" s="18"/>
     </row>
-    <row r="276" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="276" spans="1:15">
       <c r="A276" s="15"/>
       <c r="B276" s="16"/>
       <c r="C276" s="20"/>
@@ -10569,7 +11669,7 @@
       <c r="N276" s="26"/>
       <c r="O276" s="18"/>
     </row>
-    <row r="277" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="277" spans="1:15">
       <c r="A277" s="15"/>
       <c r="B277" s="16"/>
       <c r="C277" s="20"/>
@@ -10586,7 +11686,7 @@
       <c r="N277" s="26"/>
       <c r="O277" s="18"/>
     </row>
-    <row r="278" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="278" spans="1:15">
       <c r="A278" s="15"/>
       <c r="B278" s="16"/>
       <c r="C278" s="20"/>
@@ -10603,7 +11703,7 @@
       <c r="N278" s="26"/>
       <c r="O278" s="18"/>
     </row>
-    <row r="279" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="279" spans="1:15">
       <c r="A279" s="15"/>
       <c r="B279" s="16"/>
       <c r="C279" s="20"/>
@@ -10620,7 +11720,7 @@
       <c r="N279" s="26"/>
       <c r="O279" s="18"/>
     </row>
-    <row r="280" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="280" spans="1:15">
       <c r="A280" s="15"/>
       <c r="B280" s="16"/>
       <c r="C280" s="20"/>
@@ -10637,7 +11737,7 @@
       <c r="N280" s="26"/>
       <c r="O280" s="18"/>
     </row>
-    <row r="281" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="281" spans="1:15">
       <c r="A281" s="15"/>
       <c r="B281" s="16"/>
       <c r="C281" s="20"/>
@@ -10654,7 +11754,7 @@
       <c r="N281" s="26"/>
       <c r="O281" s="18"/>
     </row>
-    <row r="282" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="282" spans="1:15">
       <c r="A282" s="15"/>
       <c r="B282" s="16"/>
       <c r="C282" s="20"/>
@@ -10671,7 +11771,7 @@
       <c r="N282" s="26"/>
       <c r="O282" s="18"/>
     </row>
-    <row r="283" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="283" spans="1:15">
       <c r="A283" s="15"/>
       <c r="B283" s="16"/>
       <c r="C283" s="20"/>
@@ -10688,7 +11788,7 @@
       <c r="N283" s="26"/>
       <c r="O283" s="18"/>
     </row>
-    <row r="284" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="284" spans="1:15">
       <c r="A284" s="15"/>
       <c r="B284" s="16"/>
       <c r="C284" s="20"/>
@@ -10705,7 +11805,7 @@
       <c r="N284" s="26"/>
       <c r="O284" s="18"/>
     </row>
-    <row r="285" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="285" spans="1:15">
       <c r="A285" s="15"/>
       <c r="B285" s="16"/>
       <c r="C285" s="20"/>
@@ -10722,7 +11822,7 @@
       <c r="N285" s="26"/>
       <c r="O285" s="18"/>
     </row>
-    <row r="286" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="286" spans="1:15">
       <c r="A286" s="15"/>
       <c r="B286" s="16"/>
       <c r="C286" s="20"/>
@@ -10739,7 +11839,7 @@
       <c r="N286" s="26"/>
       <c r="O286" s="18"/>
     </row>
-    <row r="287" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="287" spans="1:15">
       <c r="A287" s="15"/>
       <c r="B287" s="16"/>
       <c r="C287" s="20"/>
@@ -10756,7 +11856,7 @@
       <c r="N287" s="26"/>
       <c r="O287" s="18"/>
     </row>
-    <row r="288" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="288" spans="1:15">
       <c r="A288" s="15"/>
       <c r="B288" s="16"/>
       <c r="C288" s="20"/>
@@ -10773,7 +11873,7 @@
       <c r="N288" s="26"/>
       <c r="O288" s="18"/>
     </row>
-    <row r="289" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="289" spans="1:15">
       <c r="A289" s="15"/>
       <c r="B289" s="16"/>
       <c r="C289" s="20"/>
@@ -10790,7 +11890,7 @@
       <c r="N289" s="26"/>
       <c r="O289" s="18"/>
     </row>
-    <row r="290" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="290" spans="1:15">
       <c r="A290" s="15"/>
       <c r="B290" s="16"/>
       <c r="C290" s="20"/>
@@ -10807,7 +11907,7 @@
       <c r="N290" s="26"/>
       <c r="O290" s="18"/>
     </row>
-    <row r="291" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="291" spans="1:15">
       <c r="A291" s="15"/>
       <c r="B291" s="16"/>
       <c r="C291" s="20"/>
@@ -10824,7 +11924,7 @@
       <c r="N291" s="26"/>
       <c r="O291" s="18"/>
     </row>
-    <row r="292" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="292" spans="1:15">
       <c r="A292" s="15"/>
       <c r="B292" s="16"/>
       <c r="C292" s="20"/>
@@ -10841,7 +11941,7 @@
       <c r="N292" s="26"/>
       <c r="O292" s="18"/>
     </row>
-    <row r="293" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="293" spans="1:15">
       <c r="A293" s="15"/>
       <c r="B293" s="16"/>
       <c r="C293" s="20"/>
@@ -10858,7 +11958,7 @@
       <c r="N293" s="26"/>
       <c r="O293" s="18"/>
     </row>
-    <row r="294" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="294" spans="1:15">
       <c r="A294" s="15"/>
       <c r="B294" s="16"/>
       <c r="C294" s="20"/>
@@ -10875,7 +11975,7 @@
       <c r="N294" s="26"/>
       <c r="O294" s="18"/>
     </row>
-    <row r="295" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="295" spans="1:15">
       <c r="A295" s="15"/>
       <c r="B295" s="16"/>
       <c r="C295" s="20"/>
@@ -10892,7 +11992,7 @@
       <c r="N295" s="26"/>
       <c r="O295" s="18"/>
     </row>
-    <row r="296" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="296" spans="1:15">
       <c r="A296" s="15"/>
       <c r="B296" s="16"/>
       <c r="C296" s="20"/>
@@ -10909,7 +12009,7 @@
       <c r="N296" s="26"/>
       <c r="O296" s="18"/>
     </row>
-    <row r="297" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="297" spans="1:15">
       <c r="A297" s="15"/>
       <c r="B297" s="16"/>
       <c r="C297" s="20"/>
@@ -10926,7 +12026,7 @@
       <c r="N297" s="26"/>
       <c r="O297" s="18"/>
     </row>
-    <row r="298" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="298" spans="1:15">
       <c r="A298" s="15"/>
       <c r="B298" s="16"/>
       <c r="C298" s="20"/>
@@ -10943,7 +12043,7 @@
       <c r="N298" s="26"/>
       <c r="O298" s="18"/>
     </row>
-    <row r="299" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="299" spans="1:15">
       <c r="A299" s="15"/>
       <c r="B299" s="16"/>
       <c r="C299" s="20"/>
@@ -10960,7 +12060,7 @@
       <c r="N299" s="26"/>
       <c r="O299" s="18"/>
     </row>
-    <row r="300" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="300" spans="1:15">
       <c r="A300" s="15"/>
       <c r="B300" s="16"/>
       <c r="C300" s="20"/>
@@ -10978,7 +12078,7 @@
       <c r="O300" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10986,36 +12086,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D5:D14 D17:D29 D30:D31 D32:D33 D34:D35 D36:D300">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D15 D16 D5:D14 D17:D29 D30:D31 D32:D33 D34:D35 D36:D300" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C16 C5:C14 C17:C29 C30:C31 C32:C33 C34:C35 C36:C300">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15 C16 C5:C14 C17:C29 C30:C31 C32:C33 C34:C35 C36:C300" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>